--- a/email-builder-output.xlsx
+++ b/email-builder-output.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11387" uniqueCount="5718">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10724" uniqueCount="5717">
   <si>
     <t>Full Name Displayed</t>
   </si>
@@ -13728,10 +13728,7 @@
     <t>Cribbs</t>
   </si>
   <si>
-    <t>carecorenational.com</t>
-  </si>
-  <si>
-    <t>BCribbs@carecorenational.com</t>
+    <t>bdpint.com</t>
   </si>
   <si>
     <t>Ashutosh</t>
@@ -30199,9 +30196,7 @@
       <c r="L340" s="1" t="s">
         <v>4569</v>
       </c>
-      <c r="M340" s="1" t="s">
-        <v>4570</v>
-      </c>
+      <c r="M340" s="1"/>
     </row>
     <row r="341" spans="1:8">
       <c r="A341" t="s">
@@ -30229,17 +30224,17 @@
         <v>1642</v>
       </c>
       <c r="I341" s="1" t="s">
-        <v>4571</v>
+        <v>4570</v>
       </c>
       <c r="J341" s="1"/>
       <c r="K341" s="1" t="s">
-        <v>4572</v>
+        <v>4571</v>
       </c>
       <c r="L341" s="1" t="s">
         <v>3654</v>
       </c>
       <c r="M341" s="1" t="s">
-        <v>4573</v>
+        <v>4572</v>
       </c>
     </row>
     <row r="342" spans="1:8">
@@ -30272,13 +30267,13 @@
       </c>
       <c r="J342" s="1"/>
       <c r="K342" s="1" t="s">
-        <v>4574</v>
+        <v>4573</v>
       </c>
       <c r="L342" s="1" t="s">
         <v>4140</v>
       </c>
       <c r="M342" s="1" t="s">
-        <v>4575</v>
+        <v>4574</v>
       </c>
     </row>
     <row r="343" spans="1:8">
@@ -30307,17 +30302,17 @@
         <v>1652</v>
       </c>
       <c r="I343" s="1" t="s">
-        <v>4576</v>
+        <v>4575</v>
       </c>
       <c r="J343" s="1"/>
       <c r="K343" s="1" t="s">
-        <v>4577</v>
+        <v>4576</v>
       </c>
       <c r="L343" s="1" t="s">
         <v>3631</v>
       </c>
       <c r="M343" s="1" t="s">
-        <v>4578</v>
+        <v>4577</v>
       </c>
     </row>
     <row r="344" spans="1:8">
@@ -30344,7 +30339,7 @@
       </c>
       <c r="J344" s="1"/>
       <c r="K344" s="1" t="s">
-        <v>4579</v>
+        <v>4578</v>
       </c>
       <c r="L344" s="1" t="s">
         <v>3635</v>
@@ -30377,17 +30372,17 @@
         <v>1660</v>
       </c>
       <c r="I345" s="1" t="s">
-        <v>4580</v>
+        <v>4579</v>
       </c>
       <c r="J345" s="1"/>
       <c r="K345" s="1" t="s">
-        <v>4581</v>
+        <v>4580</v>
       </c>
       <c r="L345" s="1" t="s">
         <v>3793</v>
       </c>
       <c r="M345" s="1" t="s">
-        <v>4582</v>
+        <v>4581</v>
       </c>
     </row>
     <row r="346" spans="1:8">
@@ -30414,13 +30409,13 @@
       </c>
       <c r="J346" s="1"/>
       <c r="K346" s="1" t="s">
-        <v>4583</v>
+        <v>4582</v>
       </c>
       <c r="L346" s="1" t="s">
         <v>3738</v>
       </c>
       <c r="M346" s="1" t="s">
-        <v>4584</v>
+        <v>4583</v>
       </c>
     </row>
     <row r="347" spans="1:8">
@@ -30449,17 +30444,17 @@
         <v>1666</v>
       </c>
       <c r="I347" s="1" t="s">
-        <v>4585</v>
+        <v>4584</v>
       </c>
       <c r="J347" s="1"/>
       <c r="K347" s="1" t="s">
-        <v>4586</v>
+        <v>4585</v>
       </c>
       <c r="L347" s="1" t="s">
         <v>3654</v>
       </c>
       <c r="M347" s="1" t="s">
-        <v>4587</v>
+        <v>4586</v>
       </c>
     </row>
     <row r="348" spans="1:8">
@@ -30488,17 +30483,17 @@
         <v>1670</v>
       </c>
       <c r="I348" s="1" t="s">
-        <v>4588</v>
+        <v>4587</v>
       </c>
       <c r="J348" s="1"/>
       <c r="K348" s="1" t="s">
-        <v>4589</v>
+        <v>4588</v>
       </c>
       <c r="L348" s="1" t="s">
         <v>4013</v>
       </c>
       <c r="M348" s="1" t="s">
-        <v>4590</v>
+        <v>4589</v>
       </c>
     </row>
     <row r="349" spans="1:8">
@@ -30521,10 +30516,10 @@
         <v>1674</v>
       </c>
       <c r="I349" s="1" t="s">
+        <v>4590</v>
+      </c>
+      <c r="J349" s="1" t="s">
         <v>4591</v>
-      </c>
-      <c r="J349" s="1" t="s">
-        <v>4592</v>
       </c>
       <c r="K349" s="1" t="s">
         <v>3737</v>
@@ -30533,7 +30528,7 @@
         <v>3942</v>
       </c>
       <c r="M349" s="1" t="s">
-        <v>4593</v>
+        <v>4592</v>
       </c>
     </row>
     <row r="350" spans="1:8">
@@ -30559,17 +30554,17 @@
         <v>1678</v>
       </c>
       <c r="I350" s="1" t="s">
-        <v>4594</v>
+        <v>4593</v>
       </c>
       <c r="J350" s="1"/>
       <c r="K350" s="1" t="s">
-        <v>4595</v>
+        <v>4594</v>
       </c>
       <c r="L350" s="1" t="s">
         <v>3631</v>
       </c>
       <c r="M350" s="1" t="s">
-        <v>4596</v>
+        <v>4595</v>
       </c>
     </row>
     <row r="351" spans="1:8">
@@ -30598,19 +30593,19 @@
         <v>1683</v>
       </c>
       <c r="I351" s="1" t="s">
+        <v>4596</v>
+      </c>
+      <c r="J351" s="1" t="s">
         <v>4597</v>
       </c>
-      <c r="J351" s="1" t="s">
+      <c r="K351" s="1" t="s">
         <v>4598</v>
-      </c>
-      <c r="K351" s="1" t="s">
-        <v>4599</v>
       </c>
       <c r="L351" s="1" t="s">
         <v>3738</v>
       </c>
       <c r="M351" s="1" t="s">
-        <v>4600</v>
+        <v>4599</v>
       </c>
     </row>
     <row r="352" spans="1:8">
@@ -30639,17 +30634,17 @@
         <v>1688</v>
       </c>
       <c r="I352" s="1" t="s">
-        <v>4601</v>
+        <v>4600</v>
       </c>
       <c r="J352" s="1"/>
       <c r="K352" s="1" t="s">
-        <v>4602</v>
+        <v>4601</v>
       </c>
       <c r="L352" s="1" t="s">
         <v>3692</v>
       </c>
       <c r="M352" s="1" t="s">
-        <v>4603</v>
+        <v>4602</v>
       </c>
     </row>
     <row r="353" spans="1:8">
@@ -30682,7 +30677,7 @@
         <v>3664</v>
       </c>
       <c r="M353" s="1" t="s">
-        <v>4604</v>
+        <v>4603</v>
       </c>
     </row>
     <row r="354" spans="1:8">
@@ -30715,13 +30710,13 @@
       </c>
       <c r="J354" s="1"/>
       <c r="K354" s="1" t="s">
-        <v>4605</v>
+        <v>4604</v>
       </c>
       <c r="L354" s="1" t="s">
         <v>3692</v>
       </c>
       <c r="M354" s="1" t="s">
-        <v>4606</v>
+        <v>4605</v>
       </c>
     </row>
     <row r="355" spans="1:8">
@@ -30744,7 +30739,7 @@
         <v>1700</v>
       </c>
       <c r="I355" s="1" t="s">
-        <v>4607</v>
+        <v>4606</v>
       </c>
       <c r="J355" s="1"/>
       <c r="K355" s="1" t="s">
@@ -30754,7 +30749,7 @@
         <v>3654</v>
       </c>
       <c r="M355" s="1" t="s">
-        <v>4608</v>
+        <v>4607</v>
       </c>
     </row>
     <row r="356" spans="1:8">
@@ -30783,7 +30778,7 @@
         <v>1703</v>
       </c>
       <c r="I356" s="1" t="s">
-        <v>4609</v>
+        <v>4608</v>
       </c>
       <c r="J356" s="1"/>
       <c r="K356" s="1" t="s">
@@ -30793,7 +30788,7 @@
         <v>3654</v>
       </c>
       <c r="M356" s="1" t="s">
-        <v>4610</v>
+        <v>4609</v>
       </c>
     </row>
     <row r="357" spans="1:8">
@@ -30822,7 +30817,7 @@
         <v>1706</v>
       </c>
       <c r="I357" s="1" t="s">
-        <v>4611</v>
+        <v>4610</v>
       </c>
       <c r="J357" s="1"/>
       <c r="K357" s="1" t="s">
@@ -30832,7 +30827,7 @@
         <v>3692</v>
       </c>
       <c r="M357" s="1" t="s">
-        <v>4612</v>
+        <v>4611</v>
       </c>
     </row>
     <row r="358" spans="1:8">
@@ -30861,7 +30856,7 @@
         <v>1708</v>
       </c>
       <c r="I358" s="1" t="s">
-        <v>4613</v>
+        <v>4612</v>
       </c>
       <c r="J358" s="1"/>
       <c r="K358" s="1" t="s">
@@ -30871,7 +30866,7 @@
         <v>3738</v>
       </c>
       <c r="M358" s="1" t="s">
-        <v>4614</v>
+        <v>4613</v>
       </c>
     </row>
     <row r="359" spans="1:8">
@@ -30900,17 +30895,17 @@
         <v>1712</v>
       </c>
       <c r="I359" s="1" t="s">
-        <v>4615</v>
+        <v>4614</v>
       </c>
       <c r="J359" s="1"/>
       <c r="K359" s="1" t="s">
-        <v>4616</v>
+        <v>4615</v>
       </c>
       <c r="L359" s="1" t="s">
         <v>4013</v>
       </c>
       <c r="M359" s="1" t="s">
-        <v>4617</v>
+        <v>4616</v>
       </c>
     </row>
     <row r="360" spans="1:8">
@@ -30939,17 +30934,17 @@
         <v>1717</v>
       </c>
       <c r="I360" s="1" t="s">
-        <v>4618</v>
+        <v>4617</v>
       </c>
       <c r="J360" s="1"/>
       <c r="K360" s="1" t="s">
-        <v>4619</v>
+        <v>4618</v>
       </c>
       <c r="L360" s="1" t="s">
         <v>3631</v>
       </c>
       <c r="M360" s="1" t="s">
-        <v>4620</v>
+        <v>4619</v>
       </c>
     </row>
     <row r="361" spans="1:8">
@@ -30982,13 +30977,13 @@
       </c>
       <c r="J361" s="1"/>
       <c r="K361" s="1" t="s">
-        <v>4621</v>
+        <v>4620</v>
       </c>
       <c r="L361" s="1" t="s">
         <v>3730</v>
       </c>
       <c r="M361" s="1" t="s">
-        <v>4622</v>
+        <v>4621</v>
       </c>
     </row>
     <row r="362" spans="1:8">
@@ -31011,17 +31006,17 @@
         <v>1727</v>
       </c>
       <c r="I362" s="1" t="s">
-        <v>4623</v>
+        <v>4622</v>
       </c>
       <c r="J362" s="1"/>
       <c r="K362" s="1" t="s">
-        <v>4624</v>
+        <v>4623</v>
       </c>
       <c r="L362" s="1" t="s">
         <v>3778</v>
       </c>
       <c r="M362" s="1" t="s">
-        <v>4625</v>
+        <v>4624</v>
       </c>
     </row>
     <row r="363" spans="1:8">
@@ -31054,13 +31049,13 @@
       </c>
       <c r="J363" s="1"/>
       <c r="K363" s="1" t="s">
-        <v>4626</v>
+        <v>4625</v>
       </c>
       <c r="L363" s="1" t="s">
         <v>4071</v>
       </c>
       <c r="M363" s="1" t="s">
-        <v>4627</v>
+        <v>4626</v>
       </c>
     </row>
     <row r="364" spans="1:8">
@@ -31093,7 +31088,7 @@
         <v>3654</v>
       </c>
       <c r="M364" s="1" t="s">
-        <v>4628</v>
+        <v>4627</v>
       </c>
     </row>
     <row r="365" spans="1:8">
@@ -31126,13 +31121,13 @@
       </c>
       <c r="J365" s="1"/>
       <c r="K365" s="1" t="s">
-        <v>4629</v>
+        <v>4628</v>
       </c>
       <c r="L365" s="1" t="s">
         <v>3986</v>
       </c>
       <c r="M365" s="1" t="s">
-        <v>4630</v>
+        <v>4629</v>
       </c>
     </row>
     <row r="366" spans="1:8">
@@ -31161,17 +31156,17 @@
         <v>1747</v>
       </c>
       <c r="I366" s="1" t="s">
-        <v>4631</v>
+        <v>4630</v>
       </c>
       <c r="J366" s="1"/>
       <c r="K366" s="1" t="s">
-        <v>4632</v>
+        <v>4631</v>
       </c>
       <c r="L366" s="1" t="s">
         <v>3979</v>
       </c>
       <c r="M366" s="1" t="s">
-        <v>4633</v>
+        <v>4632</v>
       </c>
     </row>
     <row r="367" spans="1:8">
@@ -31204,13 +31199,13 @@
       </c>
       <c r="J367" s="1"/>
       <c r="K367" s="1" t="s">
-        <v>4634</v>
+        <v>4633</v>
       </c>
       <c r="L367" s="1" t="s">
         <v>3798</v>
       </c>
       <c r="M367" s="1" t="s">
-        <v>4635</v>
+        <v>4634</v>
       </c>
     </row>
     <row r="368" spans="1:8">
@@ -31233,17 +31228,17 @@
         <v>1754</v>
       </c>
       <c r="I368" s="1" t="s">
-        <v>4636</v>
+        <v>4635</v>
       </c>
       <c r="J368" s="1"/>
       <c r="K368" s="1" t="s">
-        <v>4637</v>
+        <v>4636</v>
       </c>
       <c r="L368" s="1" t="s">
         <v>3730</v>
       </c>
       <c r="M368" s="1" t="s">
-        <v>4638</v>
+        <v>4637</v>
       </c>
     </row>
     <row r="369" spans="1:8">
@@ -31272,17 +31267,17 @@
         <v>1758</v>
       </c>
       <c r="I369" s="1" t="s">
-        <v>4639</v>
+        <v>4638</v>
       </c>
       <c r="J369" s="1"/>
       <c r="K369" s="1" t="s">
-        <v>4640</v>
+        <v>4639</v>
       </c>
       <c r="L369" s="1" t="s">
         <v>3692</v>
       </c>
       <c r="M369" s="1" t="s">
-        <v>4641</v>
+        <v>4640</v>
       </c>
     </row>
     <row r="370" spans="1:8">
@@ -31305,17 +31300,17 @@
         <v>1762</v>
       </c>
       <c r="I370" s="1" t="s">
-        <v>4642</v>
+        <v>4641</v>
       </c>
       <c r="J370" s="1"/>
       <c r="K370" s="1" t="s">
-        <v>4643</v>
+        <v>4642</v>
       </c>
       <c r="L370" s="1" t="s">
         <v>3675</v>
       </c>
       <c r="M370" s="1" t="s">
-        <v>4644</v>
+        <v>4643</v>
       </c>
     </row>
     <row r="371" spans="1:8">
@@ -31354,7 +31349,7 @@
         <v>3627</v>
       </c>
       <c r="M371" s="1" t="s">
-        <v>4645</v>
+        <v>4644</v>
       </c>
     </row>
     <row r="372" spans="1:8">
@@ -31377,10 +31372,10 @@
         <v>1771</v>
       </c>
       <c r="I372" s="1" t="s">
+        <v>4645</v>
+      </c>
+      <c r="J372" s="1" t="s">
         <v>4646</v>
-      </c>
-      <c r="J372" s="1" t="s">
-        <v>4647</v>
       </c>
       <c r="K372" s="1" t="s">
         <v>3724</v>
@@ -31389,7 +31384,7 @@
         <v>3979</v>
       </c>
       <c r="M372" s="1" t="s">
-        <v>4648</v>
+        <v>4647</v>
       </c>
     </row>
     <row r="373" spans="1:8">
@@ -31426,7 +31421,7 @@
         <v>3692</v>
       </c>
       <c r="M373" s="1" t="s">
-        <v>4649</v>
+        <v>4648</v>
       </c>
     </row>
     <row r="374" spans="1:8">
@@ -31449,19 +31444,19 @@
         <v>1778</v>
       </c>
       <c r="I374" s="1" t="s">
+        <v>4649</v>
+      </c>
+      <c r="J374" s="1" t="s">
         <v>4650</v>
       </c>
-      <c r="J374" s="1" t="s">
+      <c r="K374" s="1" t="s">
         <v>4651</v>
-      </c>
-      <c r="K374" s="1" t="s">
-        <v>4652</v>
       </c>
       <c r="L374" s="1" t="s">
         <v>3664</v>
       </c>
       <c r="M374" s="1" t="s">
-        <v>4653</v>
+        <v>4652</v>
       </c>
     </row>
     <row r="375" spans="1:8">
@@ -31490,7 +31485,7 @@
         <v>1783</v>
       </c>
       <c r="I375" s="1" t="s">
-        <v>4654</v>
+        <v>4653</v>
       </c>
       <c r="J375" s="1"/>
       <c r="K375" s="1" t="s">
@@ -31500,7 +31495,7 @@
         <v>3664</v>
       </c>
       <c r="M375" s="1" t="s">
-        <v>4655</v>
+        <v>4654</v>
       </c>
     </row>
     <row r="376" spans="1:8">
@@ -31533,13 +31528,13 @@
       </c>
       <c r="J376" s="1"/>
       <c r="K376" s="1" t="s">
-        <v>4656</v>
+        <v>4655</v>
       </c>
       <c r="L376" s="1" t="s">
         <v>3692</v>
       </c>
       <c r="M376" s="1" t="s">
-        <v>4657</v>
+        <v>4656</v>
       </c>
     </row>
     <row r="377" spans="1:8">
@@ -31568,17 +31563,17 @@
         <v>1791</v>
       </c>
       <c r="I377" s="1" t="s">
-        <v>4658</v>
+        <v>4657</v>
       </c>
       <c r="J377" s="1"/>
       <c r="K377" s="1" t="s">
-        <v>4659</v>
+        <v>4658</v>
       </c>
       <c r="L377" s="1" t="s">
         <v>3986</v>
       </c>
       <c r="M377" s="1" t="s">
-        <v>4660</v>
+        <v>4659</v>
       </c>
     </row>
     <row r="378" spans="1:8">
@@ -31607,17 +31602,17 @@
         <v>1795</v>
       </c>
       <c r="I378" s="1" t="s">
-        <v>4661</v>
+        <v>4660</v>
       </c>
       <c r="J378" s="1"/>
       <c r="K378" s="1" t="s">
-        <v>4662</v>
+        <v>4661</v>
       </c>
       <c r="L378" s="1" t="s">
         <v>4013</v>
       </c>
       <c r="M378" s="1" t="s">
-        <v>4663</v>
+        <v>4662</v>
       </c>
     </row>
     <row r="379" spans="1:8">
@@ -31646,17 +31641,17 @@
         <v>1801</v>
       </c>
       <c r="I379" s="1" t="s">
-        <v>4664</v>
+        <v>4663</v>
       </c>
       <c r="J379" s="1"/>
       <c r="K379" s="1" t="s">
-        <v>4665</v>
+        <v>4664</v>
       </c>
       <c r="L379" s="1" t="s">
         <v>3965</v>
       </c>
       <c r="M379" s="1" t="s">
-        <v>4666</v>
+        <v>4665</v>
       </c>
     </row>
     <row r="380" spans="1:8">
@@ -31689,7 +31684,7 @@
       </c>
       <c r="J380" s="1"/>
       <c r="K380" s="1" t="s">
-        <v>4667</v>
+        <v>4666</v>
       </c>
       <c r="L380" s="1" t="s">
         <v>3635</v>
@@ -31722,17 +31717,17 @@
         <v>1812</v>
       </c>
       <c r="I381" s="1" t="s">
-        <v>4668</v>
+        <v>4667</v>
       </c>
       <c r="J381" s="1"/>
       <c r="K381" s="1" t="s">
-        <v>4669</v>
+        <v>4668</v>
       </c>
       <c r="L381" s="1" t="s">
         <v>3692</v>
       </c>
       <c r="M381" s="1" t="s">
-        <v>4670</v>
+        <v>4669</v>
       </c>
     </row>
     <row r="382" spans="1:8">
@@ -31761,17 +31756,17 @@
         <v>1816</v>
       </c>
       <c r="I382" s="1" t="s">
-        <v>4671</v>
+        <v>4670</v>
       </c>
       <c r="J382" s="1"/>
       <c r="K382" s="1" t="s">
-        <v>4672</v>
+        <v>4671</v>
       </c>
       <c r="L382" s="1" t="s">
         <v>3692</v>
       </c>
       <c r="M382" s="1" t="s">
-        <v>4673</v>
+        <v>4672</v>
       </c>
     </row>
     <row r="383" spans="1:8">
@@ -31800,17 +31795,17 @@
         <v>1823</v>
       </c>
       <c r="I383" s="1" t="s">
-        <v>4674</v>
+        <v>4673</v>
       </c>
       <c r="J383" s="1"/>
       <c r="K383" s="1" t="s">
+        <v>4674</v>
+      </c>
+      <c r="L383" s="1" t="s">
         <v>4675</v>
       </c>
-      <c r="L383" s="1" t="s">
+      <c r="M383" s="1" t="s">
         <v>4676</v>
-      </c>
-      <c r="M383" s="1" t="s">
-        <v>4677</v>
       </c>
     </row>
     <row r="384" spans="1:8">
@@ -31843,13 +31838,13 @@
       </c>
       <c r="J384" s="1"/>
       <c r="K384" s="1" t="s">
-        <v>4678</v>
+        <v>4677</v>
       </c>
       <c r="L384" s="1" t="s">
         <v>3738</v>
       </c>
       <c r="M384" s="1" t="s">
-        <v>4679</v>
+        <v>4678</v>
       </c>
     </row>
     <row r="385" spans="1:8">
@@ -31878,17 +31873,17 @@
         <v>1832</v>
       </c>
       <c r="I385" s="1" t="s">
-        <v>4680</v>
+        <v>4679</v>
       </c>
       <c r="J385" s="1"/>
       <c r="K385" s="1" t="s">
-        <v>4681</v>
+        <v>4680</v>
       </c>
       <c r="L385" s="1" t="s">
         <v>3986</v>
       </c>
       <c r="M385" s="1" t="s">
-        <v>4682</v>
+        <v>4681</v>
       </c>
     </row>
     <row r="386" spans="1:8">
@@ -31917,17 +31912,17 @@
         <v>1835</v>
       </c>
       <c r="I386" s="1" t="s">
-        <v>4683</v>
+        <v>4682</v>
       </c>
       <c r="J386" s="1"/>
       <c r="K386" s="1" t="s">
-        <v>4684</v>
+        <v>4683</v>
       </c>
       <c r="L386" s="1" t="s">
         <v>4013</v>
       </c>
       <c r="M386" s="1" t="s">
-        <v>4685</v>
+        <v>4684</v>
       </c>
     </row>
     <row r="387" spans="1:8">
@@ -31956,17 +31951,17 @@
         <v>1838</v>
       </c>
       <c r="I387" s="1" t="s">
-        <v>4686</v>
+        <v>4685</v>
       </c>
       <c r="J387" s="1"/>
       <c r="K387" s="1" t="s">
-        <v>4687</v>
+        <v>4686</v>
       </c>
       <c r="L387" s="1" t="s">
         <v>3692</v>
       </c>
       <c r="M387" s="1" t="s">
-        <v>4688</v>
+        <v>4687</v>
       </c>
     </row>
     <row r="388" spans="1:8">
@@ -31995,7 +31990,7 @@
         <v>1845</v>
       </c>
       <c r="I388" s="1" t="s">
-        <v>4689</v>
+        <v>4688</v>
       </c>
       <c r="J388" s="1"/>
       <c r="K388" s="1" t="s">
@@ -32005,7 +32000,7 @@
         <v>3692</v>
       </c>
       <c r="M388" s="1" t="s">
-        <v>4690</v>
+        <v>4689</v>
       </c>
     </row>
     <row r="389" spans="1:8">
@@ -32028,17 +32023,17 @@
         <v>1848</v>
       </c>
       <c r="I389" s="1" t="s">
-        <v>4691</v>
+        <v>4690</v>
       </c>
       <c r="J389" s="1"/>
       <c r="K389" s="1" t="s">
+        <v>4691</v>
+      </c>
+      <c r="L389" s="1" t="s">
+        <v>4675</v>
+      </c>
+      <c r="M389" s="1" t="s">
         <v>4692</v>
-      </c>
-      <c r="L389" s="1" t="s">
-        <v>4676</v>
-      </c>
-      <c r="M389" s="1" t="s">
-        <v>4693</v>
       </c>
     </row>
     <row r="390" spans="1:8">
@@ -32067,17 +32062,17 @@
         <v>1851</v>
       </c>
       <c r="I390" s="1" t="s">
-        <v>4694</v>
+        <v>4693</v>
       </c>
       <c r="J390" s="1"/>
       <c r="K390" s="1" t="s">
-        <v>4695</v>
+        <v>4694</v>
       </c>
       <c r="L390" s="1" t="s">
         <v>3692</v>
       </c>
       <c r="M390" s="1" t="s">
-        <v>4696</v>
+        <v>4695</v>
       </c>
     </row>
     <row r="391" spans="1:8">
@@ -32106,7 +32101,7 @@
         <v>1857</v>
       </c>
       <c r="I391" s="1" t="s">
-        <v>4697</v>
+        <v>4696</v>
       </c>
       <c r="J391" s="1"/>
       <c r="K391" s="1" t="s">
@@ -32116,7 +32111,7 @@
         <v>3798</v>
       </c>
       <c r="M391" s="1" t="s">
-        <v>4698</v>
+        <v>4697</v>
       </c>
     </row>
     <row r="392" spans="1:8">
@@ -32145,17 +32140,17 @@
         <v>1862</v>
       </c>
       <c r="I392" s="1" t="s">
-        <v>4699</v>
+        <v>4698</v>
       </c>
       <c r="J392" s="1"/>
       <c r="K392" s="1" t="s">
-        <v>4700</v>
+        <v>4699</v>
       </c>
       <c r="L392" s="1" t="s">
         <v>3664</v>
       </c>
       <c r="M392" s="1" t="s">
-        <v>4701</v>
+        <v>4700</v>
       </c>
     </row>
     <row r="393" spans="1:8">
@@ -32178,7 +32173,7 @@
         <v>1865</v>
       </c>
       <c r="I393" s="1" t="s">
-        <v>4702</v>
+        <v>4701</v>
       </c>
       <c r="J393" s="1"/>
       <c r="K393" s="1" t="s">
@@ -32188,7 +32183,7 @@
         <v>3942</v>
       </c>
       <c r="M393" s="1" t="s">
-        <v>4703</v>
+        <v>4702</v>
       </c>
     </row>
     <row r="394" spans="1:8">
@@ -32217,17 +32212,17 @@
         <v>1870</v>
       </c>
       <c r="I394" s="1" t="s">
-        <v>4704</v>
+        <v>4703</v>
       </c>
       <c r="J394" s="1"/>
       <c r="K394" s="1" t="s">
-        <v>4705</v>
+        <v>4704</v>
       </c>
       <c r="L394" s="1" t="s">
         <v>3942</v>
       </c>
       <c r="M394" s="1" t="s">
-        <v>4706</v>
+        <v>4705</v>
       </c>
     </row>
     <row r="395" spans="1:8">
@@ -32256,17 +32251,17 @@
         <v>1874</v>
       </c>
       <c r="I395" s="1" t="s">
-        <v>4707</v>
+        <v>4706</v>
       </c>
       <c r="J395" s="1"/>
       <c r="K395" s="1" t="s">
-        <v>4708</v>
+        <v>4707</v>
       </c>
       <c r="L395" s="1" t="s">
         <v>3738</v>
       </c>
       <c r="M395" s="1" t="s">
-        <v>4709</v>
+        <v>4708</v>
       </c>
     </row>
     <row r="396" spans="1:8">
@@ -32295,17 +32290,17 @@
         <v>1876</v>
       </c>
       <c r="I396" s="1" t="s">
-        <v>4710</v>
+        <v>4709</v>
       </c>
       <c r="J396" s="1"/>
       <c r="K396" s="1" t="s">
-        <v>4711</v>
+        <v>4710</v>
       </c>
       <c r="L396" s="1" t="s">
         <v>3675</v>
       </c>
       <c r="M396" s="1" t="s">
-        <v>4712</v>
+        <v>4711</v>
       </c>
     </row>
     <row r="397" spans="1:8">
@@ -32328,15 +32323,15 @@
         <v>1879</v>
       </c>
       <c r="I397" s="1" t="s">
-        <v>4713</v>
+        <v>4712</v>
       </c>
       <c r="J397" s="1"/>
       <c r="K397" s="1"/>
       <c r="L397" s="1" t="s">
+        <v>4713</v>
+      </c>
+      <c r="M397" s="1" t="s">
         <v>4714</v>
-      </c>
-      <c r="M397" s="1" t="s">
-        <v>4715</v>
       </c>
     </row>
     <row r="398" spans="1:8">
@@ -32365,11 +32360,11 @@
         <v>1885</v>
       </c>
       <c r="I398" s="1" t="s">
-        <v>4716</v>
+        <v>4715</v>
       </c>
       <c r="J398" s="1"/>
       <c r="K398" s="1" t="s">
-        <v>4717</v>
+        <v>4716</v>
       </c>
       <c r="L398" s="1" t="s">
         <v>3635</v>
@@ -32406,13 +32401,13 @@
       </c>
       <c r="J399" s="1"/>
       <c r="K399" s="1" t="s">
-        <v>4718</v>
+        <v>4717</v>
       </c>
       <c r="L399" s="1" t="s">
         <v>3692</v>
       </c>
       <c r="M399" s="1" t="s">
-        <v>4719</v>
+        <v>4718</v>
       </c>
     </row>
     <row r="400" spans="1:8">
@@ -32441,17 +32436,17 @@
         <v>1890</v>
       </c>
       <c r="I400" s="1" t="s">
-        <v>4720</v>
+        <v>4719</v>
       </c>
       <c r="J400" s="1"/>
       <c r="K400" s="1" t="s">
-        <v>4721</v>
+        <v>4720</v>
       </c>
       <c r="L400" s="1" t="s">
         <v>4013</v>
       </c>
       <c r="M400" s="1" t="s">
-        <v>4722</v>
+        <v>4721</v>
       </c>
     </row>
     <row r="401" spans="1:8">
@@ -32474,17 +32469,17 @@
         <v>1894</v>
       </c>
       <c r="I401" s="1" t="s">
-        <v>4723</v>
+        <v>4722</v>
       </c>
       <c r="J401" s="1"/>
       <c r="K401" s="1" t="s">
-        <v>4724</v>
+        <v>4723</v>
       </c>
       <c r="L401" s="1" t="s">
         <v>3664</v>
       </c>
       <c r="M401" s="1" t="s">
-        <v>4725</v>
+        <v>4724</v>
       </c>
     </row>
     <row r="402" spans="1:8">
@@ -32513,17 +32508,17 @@
         <v>1899</v>
       </c>
       <c r="I402" s="1" t="s">
-        <v>4726</v>
+        <v>4725</v>
       </c>
       <c r="J402" s="1"/>
       <c r="K402" s="1" t="s">
-        <v>4727</v>
+        <v>4726</v>
       </c>
       <c r="L402" s="1" t="s">
         <v>3692</v>
       </c>
       <c r="M402" s="1" t="s">
-        <v>4728</v>
+        <v>4727</v>
       </c>
     </row>
     <row r="403" spans="1:8">
@@ -32552,7 +32547,7 @@
         <v>1904</v>
       </c>
       <c r="I403" s="1" t="s">
-        <v>4729</v>
+        <v>4728</v>
       </c>
       <c r="J403" s="1"/>
       <c r="K403" s="1" t="s">
@@ -32562,7 +32557,7 @@
         <v>3631</v>
       </c>
       <c r="M403" s="1" t="s">
-        <v>4730</v>
+        <v>4729</v>
       </c>
     </row>
     <row r="404" spans="1:8">
@@ -32585,17 +32580,17 @@
         <v>1907</v>
       </c>
       <c r="I404" s="1" t="s">
-        <v>4731</v>
+        <v>4730</v>
       </c>
       <c r="J404" s="1"/>
       <c r="K404" s="1" t="s">
-        <v>4732</v>
+        <v>4731</v>
       </c>
       <c r="L404" s="1" t="s">
         <v>3675</v>
       </c>
       <c r="M404" s="1" t="s">
-        <v>4733</v>
+        <v>4732</v>
       </c>
     </row>
     <row r="405" spans="1:8">
@@ -32624,17 +32619,17 @@
         <v>1912</v>
       </c>
       <c r="I405" s="1" t="s">
-        <v>4734</v>
+        <v>4733</v>
       </c>
       <c r="J405" s="1"/>
       <c r="K405" s="1" t="s">
-        <v>4735</v>
+        <v>4734</v>
       </c>
       <c r="L405" s="1" t="s">
         <v>3778</v>
       </c>
       <c r="M405" s="1" t="s">
-        <v>4736</v>
+        <v>4735</v>
       </c>
     </row>
     <row r="406" spans="1:8">
@@ -32657,19 +32652,19 @@
         <v>1915</v>
       </c>
       <c r="I406" s="1" t="s">
+        <v>4736</v>
+      </c>
+      <c r="J406" s="1" t="s">
         <v>4737</v>
       </c>
-      <c r="J406" s="1" t="s">
+      <c r="K406" s="1" t="s">
         <v>4738</v>
-      </c>
-      <c r="K406" s="1" t="s">
-        <v>4739</v>
       </c>
       <c r="L406" s="1" t="s">
         <v>3979</v>
       </c>
       <c r="M406" s="1" t="s">
-        <v>4740</v>
+        <v>4739</v>
       </c>
     </row>
     <row r="407" spans="1:8">
@@ -32702,7 +32697,7 @@
       </c>
       <c r="J407" s="1"/>
       <c r="K407" s="1" t="s">
-        <v>4741</v>
+        <v>4740</v>
       </c>
       <c r="L407" s="1" t="s">
         <v>3635</v>
@@ -32738,16 +32733,16 @@
         <v>4127</v>
       </c>
       <c r="J408" s="1" t="s">
-        <v>4598</v>
+        <v>4597</v>
       </c>
       <c r="K408" s="1" t="s">
-        <v>4742</v>
+        <v>4741</v>
       </c>
       <c r="L408" s="1" t="s">
         <v>3675</v>
       </c>
       <c r="M408" s="1" t="s">
-        <v>4743</v>
+        <v>4742</v>
       </c>
     </row>
     <row r="409" spans="1:8">
@@ -32776,19 +32771,19 @@
         <v>1927</v>
       </c>
       <c r="I409" s="1" t="s">
+        <v>4743</v>
+      </c>
+      <c r="J409" s="1" t="s">
         <v>4744</v>
       </c>
-      <c r="J409" s="1" t="s">
+      <c r="K409" s="1" t="s">
         <v>4745</v>
-      </c>
-      <c r="K409" s="1" t="s">
-        <v>4746</v>
       </c>
       <c r="L409" s="1" t="s">
         <v>3778</v>
       </c>
       <c r="M409" s="1" t="s">
-        <v>4747</v>
+        <v>4746</v>
       </c>
     </row>
     <row r="410" spans="1:8">
@@ -32817,17 +32812,17 @@
         <v>1932</v>
       </c>
       <c r="I410" s="1" t="s">
-        <v>4748</v>
+        <v>4747</v>
       </c>
       <c r="J410" s="1"/>
       <c r="K410" s="1" t="s">
-        <v>4749</v>
+        <v>4748</v>
       </c>
       <c r="L410" s="1" t="s">
         <v>3675</v>
       </c>
       <c r="M410" s="1" t="s">
-        <v>4750</v>
+        <v>4749</v>
       </c>
     </row>
     <row r="411" spans="1:8">
@@ -32860,13 +32855,13 @@
       </c>
       <c r="J411" s="1"/>
       <c r="K411" s="1" t="s">
-        <v>4751</v>
+        <v>4750</v>
       </c>
       <c r="L411" s="1" t="s">
         <v>3664</v>
       </c>
       <c r="M411" s="1" t="s">
-        <v>4752</v>
+        <v>4751</v>
       </c>
     </row>
     <row r="412" spans="1:8">
@@ -32895,17 +32890,17 @@
         <v>1943</v>
       </c>
       <c r="I412" s="1" t="s">
-        <v>4753</v>
+        <v>4752</v>
       </c>
       <c r="J412" s="1"/>
       <c r="K412" s="1" t="s">
-        <v>4754</v>
+        <v>4753</v>
       </c>
       <c r="L412" s="1" t="s">
         <v>3778</v>
       </c>
       <c r="M412" s="1" t="s">
-        <v>4755</v>
+        <v>4754</v>
       </c>
     </row>
     <row r="413" spans="1:8">
@@ -32938,13 +32933,13 @@
       </c>
       <c r="J413" s="1"/>
       <c r="K413" s="1" t="s">
-        <v>4756</v>
+        <v>4755</v>
       </c>
       <c r="L413" s="1" t="s">
         <v>3654</v>
       </c>
       <c r="M413" s="1" t="s">
-        <v>4757</v>
+        <v>4756</v>
       </c>
     </row>
     <row r="414" spans="1:8">
@@ -32967,7 +32962,7 @@
         <v>1952</v>
       </c>
       <c r="I414" s="1" t="s">
-        <v>4758</v>
+        <v>4757</v>
       </c>
       <c r="J414" s="1"/>
       <c r="K414" s="1" t="s">
@@ -32977,7 +32972,7 @@
         <v>3692</v>
       </c>
       <c r="M414" s="1" t="s">
-        <v>4759</v>
+        <v>4758</v>
       </c>
     </row>
     <row r="415" spans="1:8">
@@ -33006,19 +33001,19 @@
         <v>1956</v>
       </c>
       <c r="I415" s="1" t="s">
+        <v>4759</v>
+      </c>
+      <c r="J415" s="1" t="s">
+        <v>4597</v>
+      </c>
+      <c r="K415" s="1" t="s">
         <v>4760</v>
-      </c>
-      <c r="J415" s="1" t="s">
-        <v>4598</v>
-      </c>
-      <c r="K415" s="1" t="s">
-        <v>4761</v>
       </c>
       <c r="L415" s="1" t="s">
         <v>3778</v>
       </c>
       <c r="M415" s="1" t="s">
-        <v>4762</v>
+        <v>4761</v>
       </c>
     </row>
     <row r="416" spans="1:8">
@@ -33047,7 +33042,7 @@
         <v>1960</v>
       </c>
       <c r="I416" s="1" t="s">
-        <v>4763</v>
+        <v>4762</v>
       </c>
       <c r="J416" s="1"/>
       <c r="K416" s="1" t="s">
@@ -33057,7 +33052,7 @@
         <v>3631</v>
       </c>
       <c r="M416" s="1" t="s">
-        <v>4764</v>
+        <v>4763</v>
       </c>
     </row>
     <row r="417" spans="1:8">
@@ -33086,7 +33081,7 @@
         <v>1965</v>
       </c>
       <c r="I417" s="1" t="s">
-        <v>4765</v>
+        <v>4764</v>
       </c>
       <c r="J417" s="1"/>
       <c r="K417" s="1"/>
@@ -33094,7 +33089,7 @@
         <v>3692</v>
       </c>
       <c r="M417" s="1" t="s">
-        <v>4766</v>
+        <v>4765</v>
       </c>
     </row>
     <row r="418" spans="1:8">
@@ -33133,7 +33128,7 @@
         <v>3692</v>
       </c>
       <c r="M418" s="1" t="s">
-        <v>4767</v>
+        <v>4766</v>
       </c>
     </row>
     <row r="419" spans="1:8">
@@ -33162,17 +33157,17 @@
         <v>1974</v>
       </c>
       <c r="I419" s="1" t="s">
-        <v>4768</v>
+        <v>4767</v>
       </c>
       <c r="J419" s="1"/>
       <c r="K419" s="1" t="s">
-        <v>4769</v>
+        <v>4768</v>
       </c>
       <c r="L419" s="1" t="s">
         <v>3692</v>
       </c>
       <c r="M419" s="1" t="s">
-        <v>4770</v>
+        <v>4769</v>
       </c>
     </row>
     <row r="420" spans="1:8">
@@ -33201,17 +33196,17 @@
         <v>1976</v>
       </c>
       <c r="I420" s="1" t="s">
-        <v>4771</v>
+        <v>4770</v>
       </c>
       <c r="J420" s="1"/>
       <c r="K420" s="1" t="s">
-        <v>4772</v>
+        <v>4771</v>
       </c>
       <c r="L420" s="1" t="s">
         <v>3692</v>
       </c>
       <c r="M420" s="1" t="s">
-        <v>4773</v>
+        <v>4772</v>
       </c>
     </row>
     <row r="421" spans="1:8">
@@ -33240,17 +33235,17 @@
         <v>1981</v>
       </c>
       <c r="I421" s="1" t="s">
-        <v>4774</v>
+        <v>4773</v>
       </c>
       <c r="J421" s="1"/>
       <c r="K421" s="1" t="s">
-        <v>4775</v>
+        <v>4774</v>
       </c>
       <c r="L421" s="1" t="s">
         <v>3778</v>
       </c>
       <c r="M421" s="1" t="s">
-        <v>4776</v>
+        <v>4775</v>
       </c>
     </row>
     <row r="422" spans="1:8">
@@ -33273,17 +33268,17 @@
         <v>1985</v>
       </c>
       <c r="I422" s="1" t="s">
-        <v>4777</v>
+        <v>4776</v>
       </c>
       <c r="J422" s="1"/>
       <c r="K422" s="1" t="s">
-        <v>4684</v>
+        <v>4683</v>
       </c>
       <c r="L422" s="1" t="s">
+        <v>4777</v>
+      </c>
+      <c r="M422" s="1" t="s">
         <v>4778</v>
-      </c>
-      <c r="M422" s="1" t="s">
-        <v>4779</v>
       </c>
     </row>
     <row r="423" spans="1:8">
@@ -33306,17 +33301,17 @@
         <v>1989</v>
       </c>
       <c r="I423" s="1" t="s">
-        <v>4697</v>
+        <v>4696</v>
       </c>
       <c r="J423" s="1"/>
       <c r="K423" s="1" t="s">
-        <v>4780</v>
+        <v>4779</v>
       </c>
       <c r="L423" s="1" t="s">
         <v>3738</v>
       </c>
       <c r="M423" s="1" t="s">
-        <v>4781</v>
+        <v>4780</v>
       </c>
     </row>
     <row r="424" spans="1:8">
@@ -33345,17 +33340,17 @@
         <v>1994</v>
       </c>
       <c r="I424" s="1" t="s">
-        <v>4699</v>
+        <v>4698</v>
       </c>
       <c r="J424" s="1"/>
       <c r="K424" s="1" t="s">
-        <v>4782</v>
+        <v>4781</v>
       </c>
       <c r="L424" s="1" t="s">
         <v>3631</v>
       </c>
       <c r="M424" s="1" t="s">
-        <v>4783</v>
+        <v>4782</v>
       </c>
     </row>
     <row r="425" spans="1:8">
@@ -33384,17 +33379,17 @@
         <v>1999</v>
       </c>
       <c r="I425" s="1" t="s">
-        <v>4784</v>
+        <v>4783</v>
       </c>
       <c r="J425" s="1"/>
       <c r="K425" s="1" t="s">
-        <v>4785</v>
+        <v>4784</v>
       </c>
       <c r="L425" s="1" t="s">
         <v>3675</v>
       </c>
       <c r="M425" s="1" t="s">
-        <v>4786</v>
+        <v>4785</v>
       </c>
     </row>
     <row r="426" spans="1:8">
@@ -33417,17 +33412,17 @@
         <v>2002</v>
       </c>
       <c r="I426" s="1" t="s">
-        <v>4787</v>
+        <v>4786</v>
       </c>
       <c r="J426" s="1"/>
       <c r="K426" s="1" t="s">
-        <v>4788</v>
+        <v>4787</v>
       </c>
       <c r="L426" s="1" t="s">
         <v>3654</v>
       </c>
       <c r="M426" s="1" t="s">
-        <v>4789</v>
+        <v>4788</v>
       </c>
     </row>
     <row r="427" spans="1:8">
@@ -33450,17 +33445,17 @@
         <v>2006</v>
       </c>
       <c r="I427" s="1" t="s">
-        <v>4790</v>
+        <v>4789</v>
       </c>
       <c r="J427" s="1"/>
       <c r="K427" s="1" t="s">
-        <v>4791</v>
+        <v>4790</v>
       </c>
       <c r="L427" s="1" t="s">
         <v>3692</v>
       </c>
       <c r="M427" s="1" t="s">
-        <v>4792</v>
+        <v>4791</v>
       </c>
     </row>
     <row r="428" spans="1:8">
@@ -33489,17 +33484,17 @@
         <v>2010</v>
       </c>
       <c r="I428" s="1" t="s">
-        <v>4793</v>
+        <v>4792</v>
       </c>
       <c r="J428" s="1"/>
       <c r="K428" s="1" t="s">
-        <v>4794</v>
+        <v>4793</v>
       </c>
       <c r="L428" s="1" t="s">
         <v>3778</v>
       </c>
       <c r="M428" s="1" t="s">
-        <v>4795</v>
+        <v>4794</v>
       </c>
     </row>
     <row r="429" spans="1:8">
@@ -33522,11 +33517,11 @@
         <v>2015</v>
       </c>
       <c r="I429" s="1" t="s">
-        <v>4796</v>
+        <v>4795</v>
       </c>
       <c r="J429" s="1"/>
       <c r="K429" s="1" t="s">
-        <v>4797</v>
+        <v>4796</v>
       </c>
       <c r="L429" s="1" t="s">
         <v>3635</v>
@@ -33559,17 +33554,17 @@
         <v>2017</v>
       </c>
       <c r="I430" s="1" t="s">
-        <v>4798</v>
+        <v>4797</v>
       </c>
       <c r="J430" s="1"/>
       <c r="K430" s="1" t="s">
-        <v>4799</v>
+        <v>4798</v>
       </c>
       <c r="L430" s="1" t="s">
         <v>3675</v>
       </c>
       <c r="M430" s="1" t="s">
-        <v>4800</v>
+        <v>4799</v>
       </c>
     </row>
     <row r="431" spans="1:8">
@@ -33598,17 +33593,17 @@
         <v>2021</v>
       </c>
       <c r="I431" s="1" t="s">
-        <v>4801</v>
+        <v>4800</v>
       </c>
       <c r="J431" s="1"/>
       <c r="K431" s="1" t="s">
-        <v>4802</v>
+        <v>4801</v>
       </c>
       <c r="L431" s="1" t="s">
         <v>3942</v>
       </c>
       <c r="M431" s="1" t="s">
-        <v>4803</v>
+        <v>4802</v>
       </c>
     </row>
     <row r="432" spans="1:8">
@@ -33637,7 +33632,7 @@
         <v>2024</v>
       </c>
       <c r="I432" s="1" t="s">
-        <v>4804</v>
+        <v>4803</v>
       </c>
       <c r="J432" s="1"/>
       <c r="K432" s="1" t="s">
@@ -33647,7 +33642,7 @@
         <v>3692</v>
       </c>
       <c r="M432" s="1" t="s">
-        <v>4805</v>
+        <v>4804</v>
       </c>
     </row>
     <row r="433" spans="1:8">
@@ -33680,13 +33675,13 @@
       </c>
       <c r="J433" s="1"/>
       <c r="K433" s="1" t="s">
-        <v>4806</v>
+        <v>4805</v>
       </c>
       <c r="L433" s="1" t="s">
         <v>3692</v>
       </c>
       <c r="M433" s="1" t="s">
-        <v>4807</v>
+        <v>4806</v>
       </c>
     </row>
     <row r="434" spans="1:8">
@@ -33715,17 +33710,17 @@
         <v>2032</v>
       </c>
       <c r="I434" s="1" t="s">
-        <v>4808</v>
+        <v>4807</v>
       </c>
       <c r="J434" s="1"/>
       <c r="K434" s="1" t="s">
-        <v>4809</v>
+        <v>4808</v>
       </c>
       <c r="L434" s="1" t="s">
         <v>3979</v>
       </c>
       <c r="M434" s="1" t="s">
-        <v>4810</v>
+        <v>4809</v>
       </c>
     </row>
     <row r="435" spans="1:8">
@@ -33754,17 +33749,17 @@
         <v>2037</v>
       </c>
       <c r="I435" s="1" t="s">
-        <v>4811</v>
+        <v>4810</v>
       </c>
       <c r="J435" s="1"/>
       <c r="K435" s="1" t="s">
-        <v>4812</v>
+        <v>4811</v>
       </c>
       <c r="L435" s="1" t="s">
         <v>3654</v>
       </c>
       <c r="M435" s="1" t="s">
-        <v>4813</v>
+        <v>4812</v>
       </c>
     </row>
     <row r="436" spans="1:8">
@@ -33797,13 +33792,13 @@
       </c>
       <c r="J436" s="1"/>
       <c r="K436" s="1" t="s">
-        <v>4814</v>
+        <v>4813</v>
       </c>
       <c r="L436" s="1" t="s">
         <v>3692</v>
       </c>
       <c r="M436" s="1" t="s">
-        <v>4815</v>
+        <v>4814</v>
       </c>
     </row>
     <row r="437" spans="1:8">
@@ -33840,7 +33835,7 @@
         <v>4013</v>
       </c>
       <c r="M437" s="1" t="s">
-        <v>4816</v>
+        <v>4815</v>
       </c>
     </row>
     <row r="438" spans="1:8">
@@ -33863,17 +33858,17 @@
         <v>2047</v>
       </c>
       <c r="I438" s="1" t="s">
-        <v>4817</v>
+        <v>4816</v>
       </c>
       <c r="J438" s="1"/>
       <c r="K438" s="1" t="s">
-        <v>4818</v>
+        <v>4817</v>
       </c>
       <c r="L438" s="1" t="s">
         <v>3778</v>
       </c>
       <c r="M438" s="1" t="s">
-        <v>4819</v>
+        <v>4818</v>
       </c>
     </row>
     <row r="439" spans="1:8">
@@ -33906,13 +33901,13 @@
       </c>
       <c r="J439" s="1"/>
       <c r="K439" s="1" t="s">
-        <v>4820</v>
+        <v>4819</v>
       </c>
       <c r="L439" s="1" t="s">
         <v>3692</v>
       </c>
       <c r="M439" s="1" t="s">
-        <v>4821</v>
+        <v>4820</v>
       </c>
     </row>
     <row r="440" spans="1:8">
@@ -33939,13 +33934,13 @@
       </c>
       <c r="J440" s="1"/>
       <c r="K440" s="1" t="s">
-        <v>4822</v>
+        <v>4821</v>
       </c>
       <c r="L440" s="1" t="s">
         <v>3692</v>
       </c>
       <c r="M440" s="1" t="s">
-        <v>4823</v>
+        <v>4822</v>
       </c>
     </row>
     <row r="441" spans="1:8">
@@ -33978,13 +33973,13 @@
       </c>
       <c r="J441" s="1"/>
       <c r="K441" s="1" t="s">
-        <v>4824</v>
+        <v>4823</v>
       </c>
       <c r="L441" s="1" t="s">
         <v>3692</v>
       </c>
       <c r="M441" s="1" t="s">
-        <v>4825</v>
+        <v>4824</v>
       </c>
     </row>
     <row r="442" spans="1:8">
@@ -34017,13 +34012,13 @@
       </c>
       <c r="J442" s="1"/>
       <c r="K442" s="1" t="s">
-        <v>4826</v>
+        <v>4825</v>
       </c>
       <c r="L442" s="1" t="s">
         <v>3778</v>
       </c>
       <c r="M442" s="1" t="s">
-        <v>4827</v>
+        <v>4826</v>
       </c>
     </row>
     <row r="443" spans="1:8">
@@ -34046,17 +34041,17 @@
         <v>2068</v>
       </c>
       <c r="I443" s="1" t="s">
-        <v>4828</v>
+        <v>4827</v>
       </c>
       <c r="J443" s="1"/>
       <c r="K443" s="1" t="s">
-        <v>4829</v>
+        <v>4828</v>
       </c>
       <c r="L443" s="1" t="s">
         <v>3692</v>
       </c>
       <c r="M443" s="1" t="s">
-        <v>4830</v>
+        <v>4829</v>
       </c>
     </row>
     <row r="444" spans="1:8">
@@ -34085,17 +34080,17 @@
         <v>2072</v>
       </c>
       <c r="I444" s="1" t="s">
-        <v>4831</v>
+        <v>4830</v>
       </c>
       <c r="J444" s="1"/>
       <c r="K444" s="1" t="s">
-        <v>4832</v>
+        <v>4831</v>
       </c>
       <c r="L444" s="1" t="s">
         <v>3631</v>
       </c>
       <c r="M444" s="1" t="s">
-        <v>4833</v>
+        <v>4832</v>
       </c>
     </row>
     <row r="445" spans="1:8">
@@ -34118,17 +34113,17 @@
         <v>2076</v>
       </c>
       <c r="I445" s="1" t="s">
-        <v>4834</v>
+        <v>4833</v>
       </c>
       <c r="J445" s="1"/>
       <c r="K445" s="1" t="s">
-        <v>4835</v>
+        <v>4834</v>
       </c>
       <c r="L445" s="1" t="s">
         <v>3664</v>
       </c>
       <c r="M445" s="1" t="s">
-        <v>4836</v>
+        <v>4835</v>
       </c>
     </row>
     <row r="446" spans="1:8">
@@ -34151,17 +34146,17 @@
         <v>2079</v>
       </c>
       <c r="I446" s="1" t="s">
-        <v>4837</v>
+        <v>4836</v>
       </c>
       <c r="J446" s="1"/>
       <c r="K446" s="1" t="s">
-        <v>4838</v>
+        <v>4837</v>
       </c>
       <c r="L446" s="1" t="s">
         <v>3942</v>
       </c>
       <c r="M446" s="1" t="s">
-        <v>4839</v>
+        <v>4838</v>
       </c>
     </row>
     <row r="447" spans="1:8">
@@ -34190,7 +34185,7 @@
         <v>2084</v>
       </c>
       <c r="I447" s="1" t="s">
-        <v>4840</v>
+        <v>4839</v>
       </c>
       <c r="J447" s="1"/>
       <c r="K447" s="1" t="s">
@@ -34200,7 +34195,7 @@
         <v>3751</v>
       </c>
       <c r="M447" s="1" t="s">
-        <v>4841</v>
+        <v>4840</v>
       </c>
     </row>
     <row r="448" spans="1:8">
@@ -34233,13 +34228,13 @@
       </c>
       <c r="J448" s="1"/>
       <c r="K448" s="1" t="s">
-        <v>4842</v>
+        <v>4841</v>
       </c>
       <c r="L448" s="1" t="s">
         <v>4013</v>
       </c>
       <c r="M448" s="1" t="s">
-        <v>4843</v>
+        <v>4842</v>
       </c>
     </row>
     <row r="449" spans="1:8">
@@ -34268,17 +34263,17 @@
         <v>2093</v>
       </c>
       <c r="I449" s="1" t="s">
-        <v>4844</v>
+        <v>4843</v>
       </c>
       <c r="J449" s="1"/>
       <c r="K449" s="1" t="s">
-        <v>4845</v>
+        <v>4844</v>
       </c>
       <c r="L449" s="1" t="s">
         <v>3793</v>
       </c>
       <c r="M449" s="1" t="s">
-        <v>4846</v>
+        <v>4845</v>
       </c>
     </row>
     <row r="450" spans="1:8">
@@ -34307,17 +34302,17 @@
         <v>2096</v>
       </c>
       <c r="I450" s="1" t="s">
-        <v>4847</v>
+        <v>4846</v>
       </c>
       <c r="J450" s="1"/>
       <c r="K450" s="1" t="s">
-        <v>4848</v>
+        <v>4847</v>
       </c>
       <c r="L450" s="1" t="s">
         <v>3692</v>
       </c>
       <c r="M450" s="1" t="s">
-        <v>4849</v>
+        <v>4848</v>
       </c>
     </row>
     <row r="451" spans="1:8">
@@ -34340,11 +34335,11 @@
         <v>2100</v>
       </c>
       <c r="I451" s="1" t="s">
-        <v>4850</v>
+        <v>4849</v>
       </c>
       <c r="J451" s="1"/>
       <c r="K451" s="1" t="s">
-        <v>4851</v>
+        <v>4850</v>
       </c>
       <c r="L451" s="1" t="s">
         <v>3635</v>
@@ -34371,17 +34366,17 @@
         <v>2104</v>
       </c>
       <c r="I452" s="1" t="s">
-        <v>4852</v>
+        <v>4851</v>
       </c>
       <c r="J452" s="1"/>
       <c r="K452" s="1" t="s">
+        <v>4852</v>
+      </c>
+      <c r="L452" s="1" t="s">
+        <v>4675</v>
+      </c>
+      <c r="M452" s="1" t="s">
         <v>4853</v>
-      </c>
-      <c r="L452" s="1" t="s">
-        <v>4676</v>
-      </c>
-      <c r="M452" s="1" t="s">
-        <v>4854</v>
       </c>
     </row>
     <row r="453" spans="1:8">
@@ -34404,17 +34399,17 @@
         <v>2108</v>
       </c>
       <c r="I453" s="1" t="s">
-        <v>4855</v>
+        <v>4854</v>
       </c>
       <c r="J453" s="1"/>
       <c r="K453" s="1" t="s">
-        <v>4856</v>
+        <v>4855</v>
       </c>
       <c r="L453" s="1" t="s">
         <v>3692</v>
       </c>
       <c r="M453" s="1" t="s">
-        <v>4857</v>
+        <v>4856</v>
       </c>
     </row>
     <row r="454" spans="1:8">
@@ -34437,17 +34432,17 @@
         <v>2112</v>
       </c>
       <c r="I454" s="1" t="s">
-        <v>4858</v>
+        <v>4857</v>
       </c>
       <c r="J454" s="1"/>
       <c r="K454" s="1" t="s">
-        <v>4859</v>
+        <v>4858</v>
       </c>
       <c r="L454" s="1" t="s">
         <v>4140</v>
       </c>
       <c r="M454" s="1" t="s">
-        <v>4860</v>
+        <v>4859</v>
       </c>
     </row>
     <row r="455" spans="1:8">
@@ -34480,13 +34475,13 @@
       </c>
       <c r="J455" s="1"/>
       <c r="K455" s="1" t="s">
-        <v>4861</v>
+        <v>4860</v>
       </c>
       <c r="L455" s="1" t="s">
         <v>3692</v>
       </c>
       <c r="M455" s="1" t="s">
-        <v>4862</v>
+        <v>4861</v>
       </c>
     </row>
     <row r="456" spans="1:8">
@@ -34509,7 +34504,7 @@
         <v>2117</v>
       </c>
       <c r="I456" s="1" t="s">
-        <v>4863</v>
+        <v>4862</v>
       </c>
       <c r="J456" s="1"/>
       <c r="K456" s="1" t="s">
@@ -34519,7 +34514,7 @@
         <v>3631</v>
       </c>
       <c r="M456" s="1" t="s">
-        <v>4864</v>
+        <v>4863</v>
       </c>
     </row>
     <row r="457" spans="1:8">
@@ -34548,17 +34543,17 @@
         <v>2121</v>
       </c>
       <c r="I457" s="1" t="s">
-        <v>4865</v>
+        <v>4864</v>
       </c>
       <c r="J457" s="1"/>
       <c r="K457" s="1" t="s">
+        <v>4865</v>
+      </c>
+      <c r="L457" s="1" t="s">
+        <v>4675</v>
+      </c>
+      <c r="M457" s="1" t="s">
         <v>4866</v>
-      </c>
-      <c r="L457" s="1" t="s">
-        <v>4676</v>
-      </c>
-      <c r="M457" s="1" t="s">
-        <v>4867</v>
       </c>
     </row>
     <row r="458" spans="1:8">
@@ -34591,13 +34586,13 @@
       </c>
       <c r="J458" s="1"/>
       <c r="K458" s="1" t="s">
-        <v>4868</v>
+        <v>4867</v>
       </c>
       <c r="L458" s="1" t="s">
         <v>3664</v>
       </c>
       <c r="M458" s="1" t="s">
-        <v>4869</v>
+        <v>4868</v>
       </c>
     </row>
     <row r="459" spans="1:8">
@@ -34626,17 +34621,17 @@
         <v>2128</v>
       </c>
       <c r="I459" s="1" t="s">
-        <v>4870</v>
+        <v>4869</v>
       </c>
       <c r="J459" s="1"/>
       <c r="K459" s="1" t="s">
-        <v>4871</v>
+        <v>4870</v>
       </c>
       <c r="L459" s="1" t="s">
         <v>3692</v>
       </c>
       <c r="M459" s="1" t="s">
-        <v>4872</v>
+        <v>4871</v>
       </c>
     </row>
     <row r="460" spans="1:8">
@@ -34665,17 +34660,17 @@
         <v>2132</v>
       </c>
       <c r="I460" s="1" t="s">
-        <v>4873</v>
+        <v>4872</v>
       </c>
       <c r="J460" s="1"/>
       <c r="K460" s="1" t="s">
-        <v>4874</v>
+        <v>4873</v>
       </c>
       <c r="L460" s="1" t="s">
         <v>3730</v>
       </c>
       <c r="M460" s="1" t="s">
-        <v>4875</v>
+        <v>4874</v>
       </c>
     </row>
     <row r="461" spans="1:8">
@@ -34712,7 +34707,7 @@
         <v>3692</v>
       </c>
       <c r="M461" s="1" t="s">
-        <v>4876</v>
+        <v>4875</v>
       </c>
     </row>
     <row r="462" spans="1:8">
@@ -34741,17 +34736,17 @@
         <v>2142</v>
       </c>
       <c r="I462" s="1" t="s">
-        <v>4877</v>
+        <v>4876</v>
       </c>
       <c r="J462" s="1"/>
       <c r="K462" s="1" t="s">
-        <v>4878</v>
+        <v>4877</v>
       </c>
       <c r="L462" s="1" t="s">
         <v>3734</v>
       </c>
       <c r="M462" s="1" t="s">
-        <v>4879</v>
+        <v>4878</v>
       </c>
     </row>
     <row r="463" spans="1:8">
@@ -34780,17 +34775,17 @@
         <v>2145</v>
       </c>
       <c r="I463" s="1" t="s">
-        <v>4880</v>
+        <v>4879</v>
       </c>
       <c r="J463" s="1"/>
       <c r="K463" s="1" t="s">
-        <v>4881</v>
+        <v>4880</v>
       </c>
       <c r="L463" s="1" t="s">
         <v>3627</v>
       </c>
       <c r="M463" s="1" t="s">
-        <v>4882</v>
+        <v>4881</v>
       </c>
     </row>
     <row r="464" spans="1:8">
@@ -34817,13 +34812,13 @@
       </c>
       <c r="J464" s="1"/>
       <c r="K464" s="1" t="s">
-        <v>4883</v>
+        <v>4882</v>
       </c>
       <c r="L464" s="1" t="s">
         <v>3778</v>
       </c>
       <c r="M464" s="1" t="s">
-        <v>4884</v>
+        <v>4883</v>
       </c>
     </row>
     <row r="465" spans="1:8">
@@ -34852,17 +34847,17 @@
         <v>2153</v>
       </c>
       <c r="I465" s="1" t="s">
-        <v>4885</v>
+        <v>4884</v>
       </c>
       <c r="J465" s="1"/>
       <c r="K465" s="1" t="s">
-        <v>4883</v>
+        <v>4882</v>
       </c>
       <c r="L465" s="1" t="s">
         <v>3778</v>
       </c>
       <c r="M465" s="1" t="s">
-        <v>4886</v>
+        <v>4885</v>
       </c>
     </row>
     <row r="466" spans="1:8">
@@ -34891,13 +34886,13 @@
         <v>4038</v>
       </c>
       <c r="K466" s="1" t="s">
-        <v>4887</v>
+        <v>4886</v>
       </c>
       <c r="L466" s="1" t="s">
         <v>3650</v>
       </c>
       <c r="M466" s="1" t="s">
-        <v>4888</v>
+        <v>4887</v>
       </c>
     </row>
     <row r="467" spans="1:8">
@@ -34926,17 +34921,17 @@
         <v>2160</v>
       </c>
       <c r="I467" s="1" t="s">
-        <v>4889</v>
+        <v>4888</v>
       </c>
       <c r="J467" s="1"/>
       <c r="K467" s="1" t="s">
-        <v>4890</v>
+        <v>4889</v>
       </c>
       <c r="L467" s="1" t="s">
         <v>3692</v>
       </c>
       <c r="M467" s="1" t="s">
-        <v>4891</v>
+        <v>4890</v>
       </c>
     </row>
     <row r="468" spans="1:8">
@@ -34969,13 +34964,13 @@
       </c>
       <c r="J468" s="1"/>
       <c r="K468" s="1" t="s">
-        <v>4892</v>
+        <v>4891</v>
       </c>
       <c r="L468" s="1" t="s">
         <v>3942</v>
       </c>
       <c r="M468" s="1" t="s">
-        <v>4893</v>
+        <v>4892</v>
       </c>
     </row>
     <row r="469" spans="1:8">
@@ -35008,13 +35003,13 @@
       </c>
       <c r="J469" s="1"/>
       <c r="K469" s="1" t="s">
-        <v>4894</v>
+        <v>4893</v>
       </c>
       <c r="L469" s="1" t="s">
         <v>3778</v>
       </c>
       <c r="M469" s="1" t="s">
-        <v>4895</v>
+        <v>4894</v>
       </c>
     </row>
     <row r="470" spans="1:8">
@@ -35043,17 +35038,17 @@
         <v>2171</v>
       </c>
       <c r="I470" s="1" t="s">
-        <v>4896</v>
+        <v>4895</v>
       </c>
       <c r="J470" s="1"/>
       <c r="K470" s="1" t="s">
-        <v>4897</v>
+        <v>4896</v>
       </c>
       <c r="L470" s="1" t="s">
         <v>3650</v>
       </c>
       <c r="M470" s="1" t="s">
-        <v>4898</v>
+        <v>4897</v>
       </c>
     </row>
     <row r="471" spans="1:8">
@@ -35082,7 +35077,7 @@
         <v>2175</v>
       </c>
       <c r="I471" s="1" t="s">
-        <v>4899</v>
+        <v>4898</v>
       </c>
       <c r="J471" s="1"/>
       <c r="K471" s="1" t="s">
@@ -35092,7 +35087,7 @@
         <v>3692</v>
       </c>
       <c r="M471" s="1" t="s">
-        <v>4900</v>
+        <v>4899</v>
       </c>
     </row>
     <row r="472" spans="1:8">
@@ -35121,17 +35116,17 @@
         <v>2180</v>
       </c>
       <c r="I472" s="1" t="s">
-        <v>4901</v>
+        <v>4900</v>
       </c>
       <c r="J472" s="1"/>
       <c r="K472" s="1" t="s">
-        <v>4902</v>
+        <v>4901</v>
       </c>
       <c r="L472" s="1" t="s">
         <v>3778</v>
       </c>
       <c r="M472" s="1" t="s">
-        <v>4903</v>
+        <v>4902</v>
       </c>
     </row>
     <row r="473" spans="1:8">
@@ -35160,17 +35155,17 @@
         <v>2187</v>
       </c>
       <c r="I473" s="1" t="s">
-        <v>4904</v>
+        <v>4903</v>
       </c>
       <c r="J473" s="1"/>
       <c r="K473" s="1" t="s">
-        <v>4905</v>
+        <v>4904</v>
       </c>
       <c r="L473" s="1" t="s">
         <v>3965</v>
       </c>
       <c r="M473" s="1" t="s">
-        <v>4906</v>
+        <v>4905</v>
       </c>
     </row>
     <row r="474" spans="1:8">
@@ -35193,17 +35188,17 @@
         <v>2190</v>
       </c>
       <c r="I474" s="1" t="s">
-        <v>4907</v>
+        <v>4906</v>
       </c>
       <c r="J474" s="1"/>
       <c r="K474" s="1" t="s">
-        <v>4908</v>
+        <v>4907</v>
       </c>
       <c r="L474" s="1" t="s">
         <v>3809</v>
       </c>
       <c r="M474" s="1" t="s">
-        <v>4909</v>
+        <v>4908</v>
       </c>
     </row>
     <row r="475" spans="1:8">
@@ -35236,13 +35231,13 @@
       </c>
       <c r="J475" s="1"/>
       <c r="K475" s="1" t="s">
-        <v>4910</v>
+        <v>4909</v>
       </c>
       <c r="L475" s="1" t="s">
         <v>3692</v>
       </c>
       <c r="M475" s="1" t="s">
-        <v>4911</v>
+        <v>4910</v>
       </c>
     </row>
     <row r="476" spans="1:8">
@@ -35271,19 +35266,19 @@
         <v>2201</v>
       </c>
       <c r="I476" s="1" t="s">
-        <v>4912</v>
+        <v>4911</v>
       </c>
       <c r="J476" s="1" t="s">
         <v>4471</v>
       </c>
       <c r="K476" s="1" t="s">
-        <v>4913</v>
+        <v>4912</v>
       </c>
       <c r="L476" s="1" t="s">
         <v>3711</v>
       </c>
       <c r="M476" s="1" t="s">
-        <v>4914</v>
+        <v>4913</v>
       </c>
     </row>
     <row r="477" spans="1:8">
@@ -35312,17 +35307,17 @@
         <v>2205</v>
       </c>
       <c r="I477" s="1" t="s">
-        <v>4915</v>
+        <v>4914</v>
       </c>
       <c r="J477" s="1"/>
       <c r="K477" s="1" t="s">
-        <v>4916</v>
+        <v>4915</v>
       </c>
       <c r="L477" s="1" t="s">
         <v>3692</v>
       </c>
       <c r="M477" s="1" t="s">
-        <v>4917</v>
+        <v>4916</v>
       </c>
     </row>
     <row r="478" spans="1:8">
@@ -35345,17 +35340,17 @@
         <v>2209</v>
       </c>
       <c r="I478" s="1" t="s">
-        <v>4918</v>
+        <v>4917</v>
       </c>
       <c r="J478" s="1"/>
       <c r="K478" s="1" t="s">
-        <v>4919</v>
+        <v>4918</v>
       </c>
       <c r="L478" s="1" t="s">
         <v>4013</v>
       </c>
       <c r="M478" s="1" t="s">
-        <v>4920</v>
+        <v>4919</v>
       </c>
     </row>
     <row r="479" spans="1:8">
@@ -35384,10 +35379,10 @@
         <v>2214</v>
       </c>
       <c r="I479" s="1" t="s">
+        <v>4920</v>
+      </c>
+      <c r="J479" s="1" t="s">
         <v>4921</v>
-      </c>
-      <c r="J479" s="1" t="s">
-        <v>4922</v>
       </c>
       <c r="K479" s="1" t="s">
         <v>3698</v>
@@ -35396,7 +35391,7 @@
         <v>3692</v>
       </c>
       <c r="M479" s="1" t="s">
-        <v>4923</v>
+        <v>4922</v>
       </c>
     </row>
     <row r="480" spans="1:8">
@@ -35419,17 +35414,17 @@
         <v>2219</v>
       </c>
       <c r="I480" s="1" t="s">
-        <v>4924</v>
+        <v>4923</v>
       </c>
       <c r="J480" s="1"/>
       <c r="K480" s="1" t="s">
-        <v>4925</v>
+        <v>4924</v>
       </c>
       <c r="L480" s="1" t="s">
         <v>3692</v>
       </c>
       <c r="M480" s="1" t="s">
-        <v>4926</v>
+        <v>4925</v>
       </c>
     </row>
     <row r="481" spans="1:8">
@@ -35461,16 +35456,16 @@
         <v>3696</v>
       </c>
       <c r="J481" s="1" t="s">
-        <v>4927</v>
+        <v>4926</v>
       </c>
       <c r="K481" s="1" t="s">
-        <v>4651</v>
+        <v>4650</v>
       </c>
       <c r="L481" s="1" t="s">
         <v>3675</v>
       </c>
       <c r="M481" s="1" t="s">
-        <v>4928</v>
+        <v>4927</v>
       </c>
     </row>
     <row r="482" spans="1:8">
@@ -35503,13 +35498,13 @@
       </c>
       <c r="J482" s="1"/>
       <c r="K482" s="1" t="s">
-        <v>4929</v>
+        <v>4928</v>
       </c>
       <c r="L482" s="1" t="s">
         <v>3979</v>
       </c>
       <c r="M482" s="1" t="s">
-        <v>4930</v>
+        <v>4929</v>
       </c>
     </row>
     <row r="483" spans="1:8">
@@ -35536,7 +35531,7 @@
       </c>
       <c r="J483" s="1"/>
       <c r="K483" s="1" t="s">
-        <v>4931</v>
+        <v>4930</v>
       </c>
       <c r="L483" s="1" t="s">
         <v>3635</v>
@@ -35567,13 +35562,13 @@
       </c>
       <c r="J484" s="1"/>
       <c r="K484" s="1" t="s">
-        <v>4932</v>
+        <v>4931</v>
       </c>
       <c r="L484" s="1" t="s">
         <v>3778</v>
       </c>
       <c r="M484" s="1" t="s">
-        <v>4933</v>
+        <v>4932</v>
       </c>
     </row>
     <row r="485" spans="1:8">
@@ -35600,13 +35595,13 @@
       </c>
       <c r="J485" s="1"/>
       <c r="K485" s="1" t="s">
-        <v>4934</v>
+        <v>4933</v>
       </c>
       <c r="L485" s="1" t="s">
         <v>4071</v>
       </c>
       <c r="M485" s="1" t="s">
-        <v>4935</v>
+        <v>4934</v>
       </c>
     </row>
     <row r="486" spans="1:8">
@@ -35635,17 +35630,17 @@
         <v>2246</v>
       </c>
       <c r="I486" s="1" t="s">
-        <v>4936</v>
+        <v>4935</v>
       </c>
       <c r="J486" s="1"/>
       <c r="K486" s="1" t="s">
-        <v>4937</v>
+        <v>4936</v>
       </c>
       <c r="L486" s="1" t="s">
         <v>3730</v>
       </c>
       <c r="M486" s="1" t="s">
-        <v>4938</v>
+        <v>4937</v>
       </c>
     </row>
     <row r="487" spans="1:8">
@@ -35674,17 +35669,17 @@
         <v>2249</v>
       </c>
       <c r="I487" s="1" t="s">
-        <v>4939</v>
+        <v>4938</v>
       </c>
       <c r="J487" s="1"/>
       <c r="K487" s="1" t="s">
-        <v>4940</v>
+        <v>4939</v>
       </c>
       <c r="L487" s="1" t="s">
         <v>3778</v>
       </c>
       <c r="M487" s="1" t="s">
-        <v>4941</v>
+        <v>4940</v>
       </c>
     </row>
     <row r="488" spans="1:8">
@@ -35713,17 +35708,17 @@
         <v>2252</v>
       </c>
       <c r="I488" s="1" t="s">
-        <v>4942</v>
+        <v>4941</v>
       </c>
       <c r="J488" s="1"/>
       <c r="K488" s="1" t="s">
-        <v>4943</v>
+        <v>4942</v>
       </c>
       <c r="L488" s="1" t="s">
         <v>3778</v>
       </c>
       <c r="M488" s="1" t="s">
-        <v>4944</v>
+        <v>4943</v>
       </c>
     </row>
     <row r="489" spans="1:8">
@@ -35756,7 +35751,7 @@
         <v>3730</v>
       </c>
       <c r="M489" s="1" t="s">
-        <v>4945</v>
+        <v>4944</v>
       </c>
     </row>
     <row r="490" spans="1:8">
@@ -35779,7 +35774,7 @@
         <v>2260</v>
       </c>
       <c r="I490" s="1" t="s">
-        <v>4946</v>
+        <v>4945</v>
       </c>
       <c r="J490" s="1"/>
       <c r="K490" s="1"/>
@@ -35787,7 +35782,7 @@
         <v>3730</v>
       </c>
       <c r="M490" s="1" t="s">
-        <v>4947</v>
+        <v>4946</v>
       </c>
     </row>
     <row r="491" spans="1:8">
@@ -35816,17 +35811,17 @@
         <v>2263</v>
       </c>
       <c r="I491" s="1" t="s">
-        <v>4885</v>
+        <v>4884</v>
       </c>
       <c r="J491" s="1"/>
       <c r="K491" s="1" t="s">
-        <v>4948</v>
+        <v>4947</v>
       </c>
       <c r="L491" s="1" t="s">
         <v>3809</v>
       </c>
       <c r="M491" s="1" t="s">
-        <v>4949</v>
+        <v>4948</v>
       </c>
     </row>
     <row r="492" spans="1:8">
@@ -35855,17 +35850,17 @@
         <v>2267</v>
       </c>
       <c r="I492" s="1" t="s">
-        <v>4946</v>
+        <v>4945</v>
       </c>
       <c r="J492" s="1"/>
       <c r="K492" s="1" t="s">
-        <v>4950</v>
+        <v>4949</v>
       </c>
       <c r="L492" s="1" t="s">
         <v>3809</v>
       </c>
       <c r="M492" s="1" t="s">
-        <v>4951</v>
+        <v>4950</v>
       </c>
     </row>
     <row r="493" spans="1:8">
@@ -35894,17 +35889,17 @@
         <v>2272</v>
       </c>
       <c r="I493" s="1" t="s">
-        <v>4952</v>
+        <v>4951</v>
       </c>
       <c r="J493" s="1"/>
       <c r="K493" s="1" t="s">
-        <v>4953</v>
+        <v>4952</v>
       </c>
       <c r="L493" s="1" t="s">
         <v>3692</v>
       </c>
       <c r="M493" s="1" t="s">
-        <v>4954</v>
+        <v>4953</v>
       </c>
     </row>
     <row r="494" spans="1:8">
@@ -35933,17 +35928,17 @@
         <v>2277</v>
       </c>
       <c r="I494" s="1" t="s">
-        <v>4601</v>
+        <v>4600</v>
       </c>
       <c r="J494" s="1"/>
       <c r="K494" s="1" t="s">
-        <v>4955</v>
+        <v>4954</v>
       </c>
       <c r="L494" s="1" t="s">
         <v>3798</v>
       </c>
       <c r="M494" s="1" t="s">
-        <v>4956</v>
+        <v>4955</v>
       </c>
     </row>
     <row r="495" spans="1:8">
@@ -35972,19 +35967,19 @@
         <v>2281</v>
       </c>
       <c r="I495" s="1" t="s">
+        <v>4956</v>
+      </c>
+      <c r="J495" s="1" t="s">
         <v>4957</v>
       </c>
-      <c r="J495" s="1" t="s">
+      <c r="K495" s="1" t="s">
         <v>4958</v>
-      </c>
-      <c r="K495" s="1" t="s">
-        <v>4959</v>
       </c>
       <c r="L495" s="1" t="s">
         <v>3631</v>
       </c>
       <c r="M495" s="1" t="s">
-        <v>4960</v>
+        <v>4959</v>
       </c>
     </row>
     <row r="496" spans="1:8">
@@ -36013,11 +36008,11 @@
         <v>2288</v>
       </c>
       <c r="I496" s="1" t="s">
-        <v>4961</v>
+        <v>4960</v>
       </c>
       <c r="J496" s="1"/>
       <c r="K496" s="1" t="s">
-        <v>4962</v>
+        <v>4961</v>
       </c>
       <c r="L496" s="1" t="s">
         <v>3635</v>
@@ -36044,7 +36039,7 @@
         <v>2292</v>
       </c>
       <c r="I497" s="1" t="s">
-        <v>4963</v>
+        <v>4962</v>
       </c>
       <c r="J497" s="1"/>
       <c r="K497" s="1" t="s">
@@ -36054,7 +36049,7 @@
         <v>3654</v>
       </c>
       <c r="M497" s="1" t="s">
-        <v>4964</v>
+        <v>4963</v>
       </c>
     </row>
     <row r="498" spans="1:8">
@@ -36087,13 +36082,13 @@
       </c>
       <c r="J498" s="1"/>
       <c r="K498" s="1" t="s">
-        <v>4965</v>
+        <v>4964</v>
       </c>
       <c r="L498" s="1" t="s">
         <v>3692</v>
       </c>
       <c r="M498" s="1" t="s">
-        <v>4966</v>
+        <v>4965</v>
       </c>
     </row>
     <row r="499" spans="1:8">
@@ -36132,7 +36127,7 @@
         <v>3778</v>
       </c>
       <c r="M499" s="1" t="s">
-        <v>4967</v>
+        <v>4966</v>
       </c>
     </row>
     <row r="500" spans="1:8">
@@ -36161,17 +36156,17 @@
         <v>2302</v>
       </c>
       <c r="I500" s="1" t="s">
-        <v>4968</v>
+        <v>4967</v>
       </c>
       <c r="J500" s="1"/>
       <c r="K500" s="1" t="s">
-        <v>4969</v>
+        <v>4968</v>
       </c>
       <c r="L500" s="1" t="s">
         <v>3692</v>
       </c>
       <c r="M500" s="1" t="s">
-        <v>4970</v>
+        <v>4969</v>
       </c>
     </row>
     <row r="501" spans="1:8">
@@ -36194,17 +36189,17 @@
         <v>2306</v>
       </c>
       <c r="I501" s="1" t="s">
-        <v>4828</v>
+        <v>4827</v>
       </c>
       <c r="J501" s="1"/>
       <c r="K501" s="1" t="s">
-        <v>4971</v>
+        <v>4970</v>
       </c>
       <c r="L501" s="1" t="s">
         <v>3965</v>
       </c>
       <c r="M501" s="1" t="s">
-        <v>4972</v>
+        <v>4971</v>
       </c>
     </row>
     <row r="502" spans="1:8">
@@ -36233,11 +36228,11 @@
         <v>2312</v>
       </c>
       <c r="I502" s="1" t="s">
-        <v>4828</v>
+        <v>4827</v>
       </c>
       <c r="J502" s="1"/>
       <c r="K502" s="1" t="s">
-        <v>4973</v>
+        <v>4972</v>
       </c>
       <c r="L502" s="1" t="s">
         <v>3635</v>
@@ -36264,17 +36259,17 @@
         <v>2317</v>
       </c>
       <c r="I503" s="1" t="s">
-        <v>4974</v>
+        <v>4973</v>
       </c>
       <c r="J503" s="1"/>
       <c r="K503" s="1" t="s">
-        <v>4975</v>
+        <v>4974</v>
       </c>
       <c r="L503" s="1" t="s">
         <v>4071</v>
       </c>
       <c r="M503" s="1" t="s">
-        <v>4976</v>
+        <v>4975</v>
       </c>
     </row>
     <row r="504" spans="1:8">
@@ -36303,17 +36298,17 @@
         <v>2321</v>
       </c>
       <c r="I504" s="1" t="s">
-        <v>4977</v>
+        <v>4976</v>
       </c>
       <c r="J504" s="1"/>
       <c r="K504" s="1" t="s">
-        <v>4978</v>
+        <v>4977</v>
       </c>
       <c r="L504" s="1" t="s">
         <v>3692</v>
       </c>
       <c r="M504" s="1" t="s">
-        <v>4979</v>
+        <v>4978</v>
       </c>
     </row>
     <row r="505" spans="1:8">
@@ -36342,11 +36337,11 @@
         <v>2327</v>
       </c>
       <c r="I505" s="1" t="s">
-        <v>4980</v>
+        <v>4979</v>
       </c>
       <c r="J505" s="1"/>
       <c r="K505" s="1" t="s">
-        <v>4981</v>
+        <v>4980</v>
       </c>
       <c r="L505" s="1" t="s">
         <v>3635</v>
@@ -36383,13 +36378,13 @@
       </c>
       <c r="J506" s="1"/>
       <c r="K506" s="1" t="s">
-        <v>4982</v>
+        <v>4981</v>
       </c>
       <c r="L506" s="1" t="s">
         <v>3730</v>
       </c>
       <c r="M506" s="1" t="s">
-        <v>4983</v>
+        <v>4982</v>
       </c>
     </row>
     <row r="507" spans="1:8">
@@ -36412,19 +36407,19 @@
         <v>2336</v>
       </c>
       <c r="I507" s="1" t="s">
+        <v>4983</v>
+      </c>
+      <c r="J507" s="1" t="s">
         <v>4984</v>
       </c>
-      <c r="J507" s="1" t="s">
+      <c r="K507" s="1" t="s">
         <v>4985</v>
-      </c>
-      <c r="K507" s="1" t="s">
-        <v>4986</v>
       </c>
       <c r="L507" s="1" t="s">
         <v>3965</v>
       </c>
       <c r="M507" s="1" t="s">
-        <v>4987</v>
+        <v>4986</v>
       </c>
     </row>
     <row r="508" spans="1:8">
@@ -36457,13 +36452,13 @@
       </c>
       <c r="J508" s="1"/>
       <c r="K508" s="1" t="s">
-        <v>4988</v>
+        <v>4987</v>
       </c>
       <c r="L508" s="1" t="s">
         <v>3692</v>
       </c>
       <c r="M508" s="1" t="s">
-        <v>4989</v>
+        <v>4988</v>
       </c>
     </row>
     <row r="509" spans="1:8">
@@ -36492,17 +36487,17 @@
         <v>2347</v>
       </c>
       <c r="I509" s="1" t="s">
-        <v>4990</v>
+        <v>4989</v>
       </c>
       <c r="J509" s="1"/>
       <c r="K509" s="1" t="s">
-        <v>4991</v>
+        <v>4990</v>
       </c>
       <c r="L509" s="1" t="s">
         <v>3798</v>
       </c>
       <c r="M509" s="1" t="s">
-        <v>4992</v>
+        <v>4991</v>
       </c>
     </row>
     <row r="510" spans="1:8">
@@ -36525,17 +36520,17 @@
         <v>2352</v>
       </c>
       <c r="I510" s="1" t="s">
-        <v>4993</v>
+        <v>4992</v>
       </c>
       <c r="J510" s="1"/>
       <c r="K510" s="1" t="s">
-        <v>4994</v>
+        <v>4993</v>
       </c>
       <c r="L510" s="1" t="s">
         <v>3692</v>
       </c>
       <c r="M510" s="1" t="s">
-        <v>4995</v>
+        <v>4994</v>
       </c>
     </row>
     <row r="511" spans="1:8">
@@ -36562,13 +36557,13 @@
       </c>
       <c r="J511" s="1"/>
       <c r="K511" s="1" t="s">
-        <v>4996</v>
+        <v>4995</v>
       </c>
       <c r="L511" s="1" t="s">
         <v>3692</v>
       </c>
       <c r="M511" s="1" t="s">
-        <v>4997</v>
+        <v>4996</v>
       </c>
     </row>
     <row r="512" spans="1:8">
@@ -36591,11 +36586,11 @@
         <v>2361</v>
       </c>
       <c r="I512" s="1" t="s">
-        <v>4998</v>
+        <v>4997</v>
       </c>
       <c r="J512" s="1"/>
       <c r="K512" s="1" t="s">
-        <v>4999</v>
+        <v>4998</v>
       </c>
       <c r="L512" s="1" t="s">
         <v>3635</v>
@@ -36628,17 +36623,17 @@
         <v>2366</v>
       </c>
       <c r="I513" s="1" t="s">
-        <v>5000</v>
+        <v>4999</v>
       </c>
       <c r="J513" s="1"/>
       <c r="K513" s="1" t="s">
-        <v>5001</v>
+        <v>5000</v>
       </c>
       <c r="L513" s="1" t="s">
         <v>3730</v>
       </c>
       <c r="M513" s="1" t="s">
-        <v>5002</v>
+        <v>5001</v>
       </c>
     </row>
     <row r="514" spans="1:8">
@@ -36667,17 +36662,17 @@
         <v>2371</v>
       </c>
       <c r="I514" s="1" t="s">
-        <v>5003</v>
+        <v>5002</v>
       </c>
       <c r="J514" s="1"/>
       <c r="K514" s="1" t="s">
-        <v>5004</v>
+        <v>5003</v>
       </c>
       <c r="L514" s="1" t="s">
         <v>3631</v>
       </c>
       <c r="M514" s="1" t="s">
-        <v>5005</v>
+        <v>5004</v>
       </c>
     </row>
     <row r="515" spans="1:8">
@@ -36706,17 +36701,17 @@
         <v>2374</v>
       </c>
       <c r="I515" s="1" t="s">
-        <v>5006</v>
+        <v>5005</v>
       </c>
       <c r="J515" s="1"/>
       <c r="K515" s="1" t="s">
-        <v>5007</v>
+        <v>5006</v>
       </c>
       <c r="L515" s="1" t="s">
         <v>3692</v>
       </c>
       <c r="M515" s="1" t="s">
-        <v>5008</v>
+        <v>5007</v>
       </c>
     </row>
     <row r="516" spans="1:8">
@@ -36743,13 +36738,13 @@
       </c>
       <c r="J516" s="1"/>
       <c r="K516" s="1" t="s">
-        <v>5009</v>
+        <v>5008</v>
       </c>
       <c r="L516" s="1" t="s">
         <v>3664</v>
       </c>
       <c r="M516" s="1" t="s">
-        <v>5010</v>
+        <v>5009</v>
       </c>
     </row>
     <row r="517" spans="1:8">
@@ -36782,13 +36777,13 @@
       </c>
       <c r="J517" s="1"/>
       <c r="K517" s="1" t="s">
-        <v>5011</v>
+        <v>5010</v>
       </c>
       <c r="L517" s="1" t="s">
         <v>3631</v>
       </c>
       <c r="M517" s="1" t="s">
-        <v>5012</v>
+        <v>5011</v>
       </c>
     </row>
     <row r="518" spans="1:8">
@@ -36821,13 +36816,13 @@
       </c>
       <c r="J518" s="1"/>
       <c r="K518" s="1" t="s">
-        <v>5013</v>
+        <v>5012</v>
       </c>
       <c r="L518" s="1" t="s">
         <v>4390</v>
       </c>
       <c r="M518" s="1" t="s">
-        <v>5014</v>
+        <v>5013</v>
       </c>
     </row>
     <row r="519" spans="1:8">
@@ -36860,13 +36855,13 @@
       </c>
       <c r="J519" s="1"/>
       <c r="K519" s="1" t="s">
-        <v>5015</v>
+        <v>5014</v>
       </c>
       <c r="L519" s="1" t="s">
         <v>3631</v>
       </c>
       <c r="M519" s="1" t="s">
-        <v>5016</v>
+        <v>5015</v>
       </c>
     </row>
     <row r="520" spans="1:8">
@@ -36895,11 +36890,11 @@
         <v>2402</v>
       </c>
       <c r="I520" s="1" t="s">
-        <v>5017</v>
+        <v>5016</v>
       </c>
       <c r="J520" s="1"/>
       <c r="K520" s="1" t="s">
-        <v>5018</v>
+        <v>5017</v>
       </c>
       <c r="L520" s="1" t="s">
         <v>3635</v>
@@ -36926,11 +36921,11 @@
         <v>2405</v>
       </c>
       <c r="I521" s="1" t="s">
-        <v>5019</v>
+        <v>5018</v>
       </c>
       <c r="J521" s="1"/>
       <c r="K521" s="1" t="s">
-        <v>5020</v>
+        <v>5019</v>
       </c>
       <c r="L521" s="1" t="s">
         <v>3635</v>
@@ -36966,16 +36961,16 @@
         <v>3921</v>
       </c>
       <c r="J522" s="1" t="s">
+        <v>5020</v>
+      </c>
+      <c r="K522" s="1" t="s">
         <v>5021</v>
       </c>
-      <c r="K522" s="1" t="s">
+      <c r="L522" s="1" t="s">
         <v>5022</v>
       </c>
-      <c r="L522" s="1" t="s">
+      <c r="M522" s="1" t="s">
         <v>5023</v>
-      </c>
-      <c r="M522" s="1" t="s">
-        <v>5024</v>
       </c>
     </row>
     <row r="523" spans="1:8">
@@ -37004,17 +36999,17 @@
         <v>2415</v>
       </c>
       <c r="I523" s="1" t="s">
-        <v>5025</v>
+        <v>5024</v>
       </c>
       <c r="J523" s="1"/>
       <c r="K523" s="1" t="s">
-        <v>5026</v>
+        <v>5025</v>
       </c>
       <c r="L523" s="1" t="s">
         <v>3942</v>
       </c>
       <c r="M523" s="1" t="s">
-        <v>5027</v>
+        <v>5026</v>
       </c>
     </row>
     <row r="524" spans="1:8">
@@ -37068,11 +37063,11 @@
         <v>2423</v>
       </c>
       <c r="I525" s="1" t="s">
-        <v>5028</v>
+        <v>5027</v>
       </c>
       <c r="J525" s="1"/>
       <c r="K525" s="1" t="s">
-        <v>5029</v>
+        <v>5028</v>
       </c>
       <c r="L525" s="1" t="s">
         <v>3635</v>
@@ -37103,13 +37098,13 @@
       </c>
       <c r="J526" s="1"/>
       <c r="K526" s="1" t="s">
+        <v>5029</v>
+      </c>
+      <c r="L526" s="1" t="s">
         <v>5030</v>
       </c>
-      <c r="L526" s="1" t="s">
+      <c r="M526" s="1" t="s">
         <v>5031</v>
-      </c>
-      <c r="M526" s="1" t="s">
-        <v>5032</v>
       </c>
     </row>
     <row r="527" spans="1:8">
@@ -37145,10 +37140,10 @@
         <v>4534</v>
       </c>
       <c r="L527" s="1" t="s">
-        <v>4714</v>
+        <v>4713</v>
       </c>
       <c r="M527" s="1" t="s">
-        <v>5033</v>
+        <v>5032</v>
       </c>
     </row>
     <row r="528" spans="1:8">
@@ -37181,13 +37176,13 @@
       </c>
       <c r="J528" s="1"/>
       <c r="K528" s="1" t="s">
-        <v>5034</v>
+        <v>5033</v>
       </c>
       <c r="L528" s="1" t="s">
         <v>4427</v>
       </c>
       <c r="M528" s="1" t="s">
-        <v>5035</v>
+        <v>5034</v>
       </c>
     </row>
     <row r="529" spans="1:8">
@@ -37210,17 +37205,17 @@
         <v>2442</v>
       </c>
       <c r="I529" s="1" t="s">
-        <v>5036</v>
+        <v>5035</v>
       </c>
       <c r="J529" s="1"/>
       <c r="K529" s="1" t="s">
-        <v>5037</v>
+        <v>5036</v>
       </c>
       <c r="L529" s="1" t="s">
         <v>3942</v>
       </c>
       <c r="M529" s="1" t="s">
-        <v>5038</v>
+        <v>5037</v>
       </c>
     </row>
     <row r="530" spans="1:8">
@@ -37243,10 +37238,10 @@
         <v>2446</v>
       </c>
       <c r="I530" s="1" t="s">
+        <v>5038</v>
+      </c>
+      <c r="J530" s="1" t="s">
         <v>5039</v>
-      </c>
-      <c r="J530" s="1" t="s">
-        <v>5040</v>
       </c>
       <c r="K530" s="1" t="s">
         <v>3698</v>
@@ -37255,7 +37250,7 @@
         <v>3942</v>
       </c>
       <c r="M530" s="1" t="s">
-        <v>5041</v>
+        <v>5040</v>
       </c>
     </row>
     <row r="531" spans="1:8">
@@ -37288,13 +37283,13 @@
       </c>
       <c r="J531" s="1"/>
       <c r="K531" s="1" t="s">
-        <v>5042</v>
+        <v>5041</v>
       </c>
       <c r="L531" s="1" t="s">
         <v>3793</v>
       </c>
       <c r="M531" s="1" t="s">
-        <v>5043</v>
+        <v>5042</v>
       </c>
     </row>
     <row r="532" spans="1:8">
@@ -37327,13 +37322,13 @@
       </c>
       <c r="J532" s="1"/>
       <c r="K532" s="1" t="s">
-        <v>4832</v>
+        <v>4831</v>
       </c>
       <c r="L532" s="1" t="s">
         <v>4075</v>
       </c>
       <c r="M532" s="1" t="s">
-        <v>5044</v>
+        <v>5043</v>
       </c>
     </row>
     <row r="533" spans="1:8">
@@ -37366,13 +37361,13 @@
       </c>
       <c r="J533" s="1"/>
       <c r="K533" s="1" t="s">
-        <v>5045</v>
+        <v>5044</v>
       </c>
       <c r="L533" s="1" t="s">
         <v>3809</v>
       </c>
       <c r="M533" s="1" t="s">
-        <v>5046</v>
+        <v>5045</v>
       </c>
     </row>
     <row r="534" spans="1:8">
@@ -37401,19 +37396,19 @@
         <v>2466</v>
       </c>
       <c r="I534" s="1" t="s">
-        <v>5047</v>
+        <v>5046</v>
       </c>
       <c r="J534" s="1" t="s">
         <v>3881</v>
       </c>
       <c r="K534" s="1" t="s">
-        <v>5048</v>
+        <v>5047</v>
       </c>
       <c r="L534" s="1" t="s">
         <v>3702</v>
       </c>
       <c r="M534" s="1" t="s">
-        <v>5049</v>
+        <v>5048</v>
       </c>
     </row>
     <row r="535" spans="1:8">
@@ -37442,17 +37437,17 @@
         <v>2472</v>
       </c>
       <c r="I535" s="1" t="s">
-        <v>5050</v>
+        <v>5049</v>
       </c>
       <c r="J535" s="1"/>
       <c r="K535" s="1" t="s">
-        <v>5051</v>
+        <v>5050</v>
       </c>
       <c r="L535" s="1" t="s">
         <v>3692</v>
       </c>
       <c r="M535" s="1" t="s">
-        <v>5052</v>
+        <v>5051</v>
       </c>
     </row>
     <row r="536" spans="1:8">
@@ -37481,17 +37476,17 @@
         <v>2477</v>
       </c>
       <c r="I536" s="1" t="s">
-        <v>5053</v>
+        <v>5052</v>
       </c>
       <c r="J536" s="1"/>
       <c r="K536" s="1" t="s">
-        <v>5054</v>
+        <v>5053</v>
       </c>
       <c r="L536" s="1" t="s">
         <v>3702</v>
       </c>
       <c r="M536" s="1" t="s">
-        <v>5055</v>
+        <v>5054</v>
       </c>
     </row>
     <row r="537" spans="1:8">
@@ -37520,19 +37515,19 @@
         <v>2481</v>
       </c>
       <c r="I537" s="1" t="s">
+        <v>5055</v>
+      </c>
+      <c r="J537" s="1" t="s">
         <v>5056</v>
       </c>
-      <c r="J537" s="1" t="s">
+      <c r="K537" s="1" t="s">
         <v>5057</v>
-      </c>
-      <c r="K537" s="1" t="s">
-        <v>5058</v>
       </c>
       <c r="L537" s="1" t="s">
         <v>3793</v>
       </c>
       <c r="M537" s="1" t="s">
-        <v>5059</v>
+        <v>5058</v>
       </c>
     </row>
     <row r="538" spans="1:8">
@@ -37561,17 +37556,17 @@
         <v>2487</v>
       </c>
       <c r="I538" s="1" t="s">
-        <v>5060</v>
+        <v>5059</v>
       </c>
       <c r="J538" s="1"/>
       <c r="K538" s="1" t="s">
+        <v>5060</v>
+      </c>
+      <c r="L538" s="1" t="s">
         <v>5061</v>
       </c>
-      <c r="L538" s="1" t="s">
+      <c r="M538" s="1" t="s">
         <v>5062</v>
-      </c>
-      <c r="M538" s="1" t="s">
-        <v>5063</v>
       </c>
     </row>
     <row r="539" spans="1:8">
@@ -37598,7 +37593,7 @@
       </c>
       <c r="J539" s="1"/>
       <c r="K539" s="1" t="s">
-        <v>4822</v>
+        <v>4821</v>
       </c>
       <c r="L539" s="1" t="s">
         <v>3635</v>
@@ -37635,13 +37630,13 @@
       </c>
       <c r="J540" s="1"/>
       <c r="K540" s="1" t="s">
-        <v>5064</v>
+        <v>5063</v>
       </c>
       <c r="L540" s="1" t="s">
         <v>3910</v>
       </c>
       <c r="M540" s="1" t="s">
-        <v>5065</v>
+        <v>5064</v>
       </c>
     </row>
     <row r="541" spans="1:8">
@@ -37664,7 +37659,7 @@
         <v>2499</v>
       </c>
       <c r="I541" s="1" t="s">
-        <v>5066</v>
+        <v>5065</v>
       </c>
       <c r="J541" s="1"/>
       <c r="K541" s="1"/>
@@ -37699,10 +37694,10 @@
         <v>2505</v>
       </c>
       <c r="I542" s="1" t="s">
+        <v>5066</v>
+      </c>
+      <c r="J542" s="1" t="s">
         <v>5067</v>
-      </c>
-      <c r="J542" s="1" t="s">
-        <v>5068</v>
       </c>
       <c r="K542" s="1" t="s">
         <v>4490</v>
@@ -37711,7 +37706,7 @@
         <v>3759</v>
       </c>
       <c r="M542" s="1" t="s">
-        <v>5069</v>
+        <v>5068</v>
       </c>
     </row>
     <row r="543" spans="1:8">
@@ -37738,13 +37733,13 @@
       </c>
       <c r="J543" s="1"/>
       <c r="K543" s="1" t="s">
-        <v>5070</v>
+        <v>5069</v>
       </c>
       <c r="L543" s="1" t="s">
         <v>3643</v>
       </c>
       <c r="M543" s="1" t="s">
-        <v>5071</v>
+        <v>5070</v>
       </c>
     </row>
     <row r="544" spans="1:8">
@@ -37773,17 +37768,17 @@
         <v>2514</v>
       </c>
       <c r="I544" s="1" t="s">
-        <v>5072</v>
+        <v>5071</v>
       </c>
       <c r="J544" s="1"/>
       <c r="K544" s="1" t="s">
-        <v>5073</v>
+        <v>5072</v>
       </c>
       <c r="L544" s="1" t="s">
         <v>4075</v>
       </c>
       <c r="M544" s="1" t="s">
-        <v>5074</v>
+        <v>5073</v>
       </c>
     </row>
     <row r="545" spans="1:8">
@@ -37806,17 +37801,17 @@
         <v>2517</v>
       </c>
       <c r="I545" s="1" t="s">
-        <v>5075</v>
+        <v>5074</v>
       </c>
       <c r="J545" s="1"/>
       <c r="K545" s="1" t="s">
+        <v>5075</v>
+      </c>
+      <c r="L545" s="1" t="s">
         <v>5076</v>
       </c>
-      <c r="L545" s="1" t="s">
+      <c r="M545" s="1" t="s">
         <v>5077</v>
-      </c>
-      <c r="M545" s="1" t="s">
-        <v>5078</v>
       </c>
     </row>
     <row r="546" spans="1:8">
@@ -37845,17 +37840,17 @@
         <v>2522</v>
       </c>
       <c r="I546" s="1" t="s">
-        <v>5079</v>
+        <v>5078</v>
       </c>
       <c r="J546" s="1"/>
       <c r="K546" s="1" t="s">
-        <v>5080</v>
+        <v>5079</v>
       </c>
       <c r="L546" s="1" t="s">
         <v>4433</v>
       </c>
       <c r="M546" s="1" t="s">
-        <v>5081</v>
+        <v>5080</v>
       </c>
     </row>
     <row r="547" spans="1:8">
@@ -37884,17 +37879,17 @@
         <v>2527</v>
       </c>
       <c r="I547" s="1" t="s">
-        <v>5082</v>
+        <v>5081</v>
       </c>
       <c r="J547" s="1"/>
       <c r="K547" s="1" t="s">
-        <v>5083</v>
+        <v>5082</v>
       </c>
       <c r="L547" s="1" t="s">
         <v>3942</v>
       </c>
       <c r="M547" s="1" t="s">
-        <v>5084</v>
+        <v>5083</v>
       </c>
     </row>
     <row r="548" spans="1:8">
@@ -37923,17 +37918,17 @@
         <v>2532</v>
       </c>
       <c r="I548" s="1" t="s">
-        <v>5085</v>
+        <v>5084</v>
       </c>
       <c r="J548" s="1"/>
       <c r="K548" s="1" t="s">
-        <v>5086</v>
+        <v>5085</v>
       </c>
       <c r="L548" s="1" t="s">
         <v>3699</v>
       </c>
       <c r="M548" s="1" t="s">
-        <v>5087</v>
+        <v>5086</v>
       </c>
     </row>
     <row r="549" spans="1:8">
@@ -37956,17 +37951,17 @@
         <v>2535</v>
       </c>
       <c r="I549" s="1" t="s">
-        <v>4668</v>
+        <v>4667</v>
       </c>
       <c r="J549" s="1"/>
       <c r="K549" s="1" t="s">
-        <v>5088</v>
+        <v>5087</v>
       </c>
       <c r="L549" s="1" t="s">
         <v>3664</v>
       </c>
       <c r="M549" s="1" t="s">
-        <v>5089</v>
+        <v>5088</v>
       </c>
     </row>
     <row r="550" spans="1:8">
@@ -37995,17 +37990,17 @@
         <v>2540</v>
       </c>
       <c r="I550" s="1" t="s">
-        <v>5090</v>
+        <v>5089</v>
       </c>
       <c r="J550" s="1"/>
       <c r="K550" s="1" t="s">
-        <v>5091</v>
+        <v>5090</v>
       </c>
       <c r="L550" s="1" t="s">
         <v>3793</v>
       </c>
       <c r="M550" s="1" t="s">
-        <v>5092</v>
+        <v>5091</v>
       </c>
     </row>
     <row r="551" spans="1:8">
@@ -38028,17 +38023,17 @@
         <v>2544</v>
       </c>
       <c r="I551" s="1" t="s">
-        <v>5093</v>
+        <v>5092</v>
       </c>
       <c r="J551" s="1"/>
       <c r="K551" s="1" t="s">
-        <v>5094</v>
+        <v>5093</v>
       </c>
       <c r="L551" s="1" t="s">
         <v>3702</v>
       </c>
       <c r="M551" s="1" t="s">
-        <v>5095</v>
+        <v>5094</v>
       </c>
     </row>
     <row r="552" spans="1:8">
@@ -38067,17 +38062,17 @@
         <v>2548</v>
       </c>
       <c r="I552" s="1" t="s">
-        <v>5096</v>
+        <v>5095</v>
       </c>
       <c r="J552" s="1"/>
       <c r="K552" s="1" t="s">
-        <v>5097</v>
+        <v>5096</v>
       </c>
       <c r="L552" s="1" t="s">
         <v>3809</v>
       </c>
       <c r="M552" s="1" t="s">
-        <v>5098</v>
+        <v>5097</v>
       </c>
     </row>
     <row r="553" spans="1:8">
@@ -38106,17 +38101,17 @@
         <v>2551</v>
       </c>
       <c r="I553" s="1" t="s">
-        <v>5099</v>
+        <v>5098</v>
       </c>
       <c r="J553" s="1"/>
       <c r="K553" s="1" t="s">
-        <v>5100</v>
+        <v>5099</v>
       </c>
       <c r="L553" s="1" t="s">
         <v>3793</v>
       </c>
       <c r="M553" s="1" t="s">
-        <v>5101</v>
+        <v>5100</v>
       </c>
     </row>
     <row r="554" spans="1:8">
@@ -38145,17 +38140,17 @@
         <v>2557</v>
       </c>
       <c r="I554" s="1" t="s">
-        <v>5102</v>
+        <v>5101</v>
       </c>
       <c r="J554" s="1"/>
       <c r="K554" s="1" t="s">
+        <v>5102</v>
+      </c>
+      <c r="L554" s="1" t="s">
         <v>5103</v>
       </c>
-      <c r="L554" s="1" t="s">
+      <c r="M554" s="1" t="s">
         <v>5104</v>
-      </c>
-      <c r="M554" s="1" t="s">
-        <v>5105</v>
       </c>
     </row>
     <row r="555" spans="1:8">
@@ -38184,17 +38179,17 @@
         <v>2561</v>
       </c>
       <c r="I555" s="1" t="s">
-        <v>5106</v>
+        <v>5105</v>
       </c>
       <c r="J555" s="1"/>
       <c r="K555" s="1" t="s">
-        <v>5107</v>
+        <v>5106</v>
       </c>
       <c r="L555" s="1" t="s">
         <v>3942</v>
       </c>
       <c r="M555" s="1" t="s">
-        <v>5108</v>
+        <v>5107</v>
       </c>
     </row>
     <row r="556" spans="1:8">
@@ -38223,7 +38218,7 @@
         <v>2564</v>
       </c>
       <c r="I556" s="1" t="s">
-        <v>5109</v>
+        <v>5108</v>
       </c>
       <c r="J556" s="1"/>
       <c r="K556" s="1" t="s">
@@ -38233,7 +38228,7 @@
         <v>3699</v>
       </c>
       <c r="M556" s="1" t="s">
-        <v>5110</v>
+        <v>5109</v>
       </c>
     </row>
     <row r="557" spans="1:8">
@@ -38260,7 +38255,7 @@
       </c>
       <c r="J557" s="1"/>
       <c r="K557" s="1" t="s">
-        <v>5111</v>
+        <v>5110</v>
       </c>
       <c r="L557" s="1" t="s">
         <v>3635</v>
@@ -38288,19 +38283,19 @@
         <v>2571</v>
       </c>
       <c r="I558" s="1" t="s">
-        <v>5112</v>
+        <v>5111</v>
       </c>
       <c r="J558" s="1" t="s">
         <v>3677</v>
       </c>
       <c r="K558" s="1" t="s">
-        <v>5113</v>
+        <v>5112</v>
       </c>
       <c r="L558" s="1" t="s">
         <v>3759</v>
       </c>
       <c r="M558" s="1" t="s">
-        <v>5114</v>
+        <v>5113</v>
       </c>
     </row>
     <row r="559" spans="1:8">
@@ -38333,13 +38328,13 @@
       </c>
       <c r="J559" s="1"/>
       <c r="K559" s="1" t="s">
-        <v>5115</v>
+        <v>5114</v>
       </c>
       <c r="L559" s="1" t="s">
         <v>4427</v>
       </c>
       <c r="M559" s="1" t="s">
-        <v>5116</v>
+        <v>5115</v>
       </c>
     </row>
     <row r="560" spans="1:8">
@@ -38368,17 +38363,17 @@
         <v>2580</v>
       </c>
       <c r="I560" s="1" t="s">
-        <v>5117</v>
+        <v>5116</v>
       </c>
       <c r="J560" s="1"/>
       <c r="K560" s="1" t="s">
-        <v>5118</v>
+        <v>5117</v>
       </c>
       <c r="L560" s="1" t="s">
         <v>3699</v>
       </c>
       <c r="M560" s="1" t="s">
-        <v>5119</v>
+        <v>5118</v>
       </c>
     </row>
     <row r="561" spans="1:8">
@@ -38407,17 +38402,17 @@
         <v>2584</v>
       </c>
       <c r="I561" s="1" t="s">
-        <v>5120</v>
+        <v>5119</v>
       </c>
       <c r="J561" s="1"/>
       <c r="K561" s="1" t="s">
-        <v>5121</v>
+        <v>5120</v>
       </c>
       <c r="L561" s="1" t="s">
         <v>3702</v>
       </c>
       <c r="M561" s="1" t="s">
-        <v>5122</v>
+        <v>5121</v>
       </c>
     </row>
     <row r="562" spans="1:8">
@@ -38456,7 +38451,7 @@
         <v>3699</v>
       </c>
       <c r="M562" s="1" t="s">
-        <v>5123</v>
+        <v>5122</v>
       </c>
     </row>
     <row r="563" spans="1:8">
@@ -38479,17 +38474,17 @@
         <v>2593</v>
       </c>
       <c r="I563" s="1" t="s">
-        <v>5124</v>
+        <v>5123</v>
       </c>
       <c r="J563" s="1"/>
       <c r="K563" s="1" t="s">
+        <v>5124</v>
+      </c>
+      <c r="L563" s="1" t="s">
         <v>5125</v>
       </c>
-      <c r="L563" s="1" t="s">
+      <c r="M563" s="1" t="s">
         <v>5126</v>
-      </c>
-      <c r="M563" s="1" t="s">
-        <v>5127</v>
       </c>
     </row>
     <row r="564" spans="1:8">
@@ -38522,13 +38517,13 @@
       </c>
       <c r="J564" s="1"/>
       <c r="K564" s="1" t="s">
+        <v>5127</v>
+      </c>
+      <c r="L564" s="1" t="s">
+        <v>4713</v>
+      </c>
+      <c r="M564" s="1" t="s">
         <v>5128</v>
-      </c>
-      <c r="L564" s="1" t="s">
-        <v>4714</v>
-      </c>
-      <c r="M564" s="1" t="s">
-        <v>5129</v>
       </c>
     </row>
     <row r="565" spans="1:8">
@@ -38557,17 +38552,17 @@
         <v>2601</v>
       </c>
       <c r="I565" s="1" t="s">
-        <v>5130</v>
+        <v>5129</v>
       </c>
       <c r="J565" s="1"/>
       <c r="K565" s="1" t="s">
-        <v>5131</v>
+        <v>5130</v>
       </c>
       <c r="L565" s="1" t="s">
         <v>3699</v>
       </c>
       <c r="M565" s="1" t="s">
-        <v>5132</v>
+        <v>5131</v>
       </c>
     </row>
     <row r="566" spans="1:8">
@@ -38600,13 +38595,13 @@
       </c>
       <c r="J566" s="1"/>
       <c r="K566" s="1" t="s">
-        <v>5133</v>
+        <v>5132</v>
       </c>
       <c r="L566" s="1" t="s">
         <v>3692</v>
       </c>
       <c r="M566" s="1" t="s">
-        <v>5134</v>
+        <v>5133</v>
       </c>
     </row>
     <row r="567" spans="1:8">
@@ -38635,17 +38630,17 @@
         <v>2611</v>
       </c>
       <c r="I567" s="1" t="s">
-        <v>5135</v>
+        <v>5134</v>
       </c>
       <c r="J567" s="1"/>
       <c r="K567" s="1" t="s">
-        <v>5136</v>
+        <v>5135</v>
       </c>
       <c r="L567" s="1" t="s">
         <v>3692</v>
       </c>
       <c r="M567" s="1" t="s">
-        <v>5137</v>
+        <v>5136</v>
       </c>
     </row>
     <row r="568" spans="1:8">
@@ -38668,7 +38663,7 @@
         <v>2615</v>
       </c>
       <c r="I568" s="1" t="s">
-        <v>4924</v>
+        <v>4923</v>
       </c>
       <c r="J568" s="1"/>
       <c r="K568" s="1" t="s">
@@ -38678,7 +38673,7 @@
         <v>3675</v>
       </c>
       <c r="M568" s="1" t="s">
-        <v>5138</v>
+        <v>5137</v>
       </c>
     </row>
     <row r="569" spans="1:8">
@@ -38711,13 +38706,13 @@
       </c>
       <c r="J569" s="1"/>
       <c r="K569" s="1" t="s">
-        <v>5139</v>
+        <v>5138</v>
       </c>
       <c r="L569" s="1" t="s">
         <v>3692</v>
       </c>
       <c r="M569" s="1" t="s">
-        <v>5140</v>
+        <v>5139</v>
       </c>
     </row>
     <row r="570" spans="1:8">
@@ -38746,17 +38741,17 @@
         <v>2623</v>
       </c>
       <c r="I570" s="1" t="s">
-        <v>5141</v>
+        <v>5140</v>
       </c>
       <c r="J570" s="1"/>
       <c r="K570" s="1" t="s">
+        <v>5141</v>
+      </c>
+      <c r="L570" s="1" t="s">
+        <v>4675</v>
+      </c>
+      <c r="M570" s="1" t="s">
         <v>5142</v>
-      </c>
-      <c r="L570" s="1" t="s">
-        <v>4676</v>
-      </c>
-      <c r="M570" s="1" t="s">
-        <v>5143</v>
       </c>
     </row>
     <row r="571" spans="1:8">
@@ -38785,17 +38780,17 @@
         <v>2628</v>
       </c>
       <c r="I571" s="1" t="s">
-        <v>5144</v>
+        <v>5143</v>
       </c>
       <c r="J571" s="1"/>
       <c r="K571" s="1" t="s">
-        <v>5145</v>
+        <v>5144</v>
       </c>
       <c r="L571" s="1" t="s">
         <v>3664</v>
       </c>
       <c r="M571" s="1" t="s">
-        <v>5146</v>
+        <v>5145</v>
       </c>
     </row>
     <row r="572" spans="1:8">
@@ -38824,17 +38819,17 @@
         <v>2634</v>
       </c>
       <c r="I572" s="1" t="s">
-        <v>4927</v>
+        <v>4926</v>
       </c>
       <c r="J572" s="1"/>
       <c r="K572" s="1" t="s">
-        <v>5147</v>
+        <v>5146</v>
       </c>
       <c r="L572" s="1" t="s">
         <v>3664</v>
       </c>
       <c r="M572" s="1" t="s">
-        <v>5148</v>
+        <v>5147</v>
       </c>
     </row>
     <row r="573" spans="1:8">
@@ -38867,13 +38862,13 @@
       </c>
       <c r="J573" s="1"/>
       <c r="K573" s="1" t="s">
-        <v>5149</v>
+        <v>5148</v>
       </c>
       <c r="L573" s="1" t="s">
         <v>3692</v>
       </c>
       <c r="M573" s="1" t="s">
-        <v>5150</v>
+        <v>5149</v>
       </c>
     </row>
     <row r="574" spans="1:8">
@@ -38902,17 +38897,17 @@
         <v>2648</v>
       </c>
       <c r="I574" s="1" t="s">
-        <v>5151</v>
+        <v>5150</v>
       </c>
       <c r="J574" s="1"/>
       <c r="K574" s="1" t="s">
-        <v>5152</v>
+        <v>5151</v>
       </c>
       <c r="L574" s="1" t="s">
         <v>3664</v>
       </c>
       <c r="M574" s="1" t="s">
-        <v>5153</v>
+        <v>5152</v>
       </c>
     </row>
     <row r="575" spans="1:8">
@@ -38941,17 +38936,17 @@
         <v>2658</v>
       </c>
       <c r="I575" s="1" t="s">
-        <v>5154</v>
+        <v>5153</v>
       </c>
       <c r="J575" s="1"/>
       <c r="K575" s="1" t="s">
-        <v>5155</v>
+        <v>5154</v>
       </c>
       <c r="L575" s="1" t="s">
         <v>3631</v>
       </c>
       <c r="M575" s="1" t="s">
-        <v>5156</v>
+        <v>5155</v>
       </c>
     </row>
     <row r="576" spans="1:8">
@@ -38980,17 +38975,17 @@
         <v>2662</v>
       </c>
       <c r="I576" s="1" t="s">
-        <v>5157</v>
+        <v>5156</v>
       </c>
       <c r="J576" s="1"/>
       <c r="K576" s="1" t="s">
-        <v>5158</v>
+        <v>5157</v>
       </c>
       <c r="L576" s="1" t="s">
         <v>3631</v>
       </c>
       <c r="M576" s="1" t="s">
-        <v>5159</v>
+        <v>5158</v>
       </c>
     </row>
     <row r="577" spans="1:8">
@@ -39013,17 +39008,17 @@
         <v>2666</v>
       </c>
       <c r="I577" s="1" t="s">
-        <v>5160</v>
+        <v>5159</v>
       </c>
       <c r="J577" s="1"/>
       <c r="K577" s="1" t="s">
-        <v>5161</v>
+        <v>5160</v>
       </c>
       <c r="L577" s="1" t="s">
         <v>3664</v>
       </c>
       <c r="M577" s="1" t="s">
-        <v>5162</v>
+        <v>5161</v>
       </c>
     </row>
     <row r="578" spans="1:8">
@@ -39056,13 +39051,13 @@
       </c>
       <c r="J578" s="1"/>
       <c r="K578" s="1" t="s">
-        <v>5163</v>
+        <v>5162</v>
       </c>
       <c r="L578" s="1" t="s">
         <v>4140</v>
       </c>
       <c r="M578" s="1" t="s">
-        <v>5164</v>
+        <v>5163</v>
       </c>
     </row>
     <row r="579" spans="1:8">
@@ -39091,17 +39086,17 @@
         <v>2675</v>
       </c>
       <c r="I579" s="1" t="s">
-        <v>5165</v>
+        <v>5164</v>
       </c>
       <c r="J579" s="1"/>
       <c r="K579" s="1" t="s">
-        <v>5166</v>
+        <v>5165</v>
       </c>
       <c r="L579" s="1" t="s">
         <v>3809</v>
       </c>
       <c r="M579" s="1" t="s">
-        <v>5167</v>
+        <v>5166</v>
       </c>
     </row>
     <row r="580" spans="1:8">
@@ -39134,13 +39129,13 @@
       </c>
       <c r="J580" s="1"/>
       <c r="K580" s="1" t="s">
-        <v>5000</v>
+        <v>4999</v>
       </c>
       <c r="L580" s="1" t="s">
         <v>3692</v>
       </c>
       <c r="M580" s="1" t="s">
-        <v>5168</v>
+        <v>5167</v>
       </c>
     </row>
     <row r="581" spans="1:8">
@@ -39173,13 +39168,13 @@
       </c>
       <c r="J581" s="1"/>
       <c r="K581" s="1" t="s">
-        <v>5169</v>
+        <v>5168</v>
       </c>
       <c r="L581" s="1" t="s">
         <v>3809</v>
       </c>
       <c r="M581" s="1" t="s">
-        <v>5170</v>
+        <v>5169</v>
       </c>
     </row>
     <row r="582" spans="1:8">
@@ -39202,7 +39197,7 @@
         <v>2687</v>
       </c>
       <c r="I582" s="1" t="s">
-        <v>5171</v>
+        <v>5170</v>
       </c>
       <c r="J582" s="1"/>
       <c r="K582" s="1" t="s">
@@ -39212,7 +39207,7 @@
         <v>3664</v>
       </c>
       <c r="M582" s="1" t="s">
-        <v>5172</v>
+        <v>5171</v>
       </c>
     </row>
     <row r="583" spans="1:8">
@@ -39241,17 +39236,17 @@
         <v>2691</v>
       </c>
       <c r="I583" s="1" t="s">
-        <v>5173</v>
+        <v>5172</v>
       </c>
       <c r="J583" s="1"/>
       <c r="K583" s="1" t="s">
-        <v>5174</v>
+        <v>5173</v>
       </c>
       <c r="L583" s="1" t="s">
         <v>4140</v>
       </c>
       <c r="M583" s="1" t="s">
-        <v>5175</v>
+        <v>5174</v>
       </c>
     </row>
     <row r="584" spans="1:8">
@@ -39280,17 +39275,17 @@
         <v>2697</v>
       </c>
       <c r="I584" s="1" t="s">
-        <v>5176</v>
+        <v>5175</v>
       </c>
       <c r="J584" s="1"/>
       <c r="K584" s="1" t="s">
-        <v>5177</v>
+        <v>5176</v>
       </c>
       <c r="L584" s="1" t="s">
         <v>4225</v>
       </c>
       <c r="M584" s="1" t="s">
-        <v>5178</v>
+        <v>5177</v>
       </c>
     </row>
     <row r="585" spans="1:8">
@@ -39319,17 +39314,17 @@
         <v>2703</v>
       </c>
       <c r="I585" s="1" t="s">
-        <v>5179</v>
+        <v>5178</v>
       </c>
       <c r="J585" s="1"/>
       <c r="K585" s="1" t="s">
-        <v>5180</v>
+        <v>5179</v>
       </c>
       <c r="L585" s="1" t="s">
         <v>3711</v>
       </c>
       <c r="M585" s="1" t="s">
-        <v>5181</v>
+        <v>5180</v>
       </c>
     </row>
     <row r="586" spans="1:8">
@@ -39358,17 +39353,17 @@
         <v>2706</v>
       </c>
       <c r="I586" s="1" t="s">
-        <v>5182</v>
+        <v>5181</v>
       </c>
       <c r="J586" s="1"/>
       <c r="K586" s="1" t="s">
-        <v>5183</v>
+        <v>5182</v>
       </c>
       <c r="L586" s="1" t="s">
         <v>3664</v>
       </c>
       <c r="M586" s="1" t="s">
-        <v>5184</v>
+        <v>5183</v>
       </c>
     </row>
     <row r="587" spans="1:8">
@@ -39397,17 +39392,17 @@
         <v>2710</v>
       </c>
       <c r="I587" s="1" t="s">
-        <v>5185</v>
+        <v>5184</v>
       </c>
       <c r="J587" s="1"/>
       <c r="K587" s="1" t="s">
-        <v>5186</v>
+        <v>5185</v>
       </c>
       <c r="L587" s="1" t="s">
         <v>3798</v>
       </c>
       <c r="M587" s="1" t="s">
-        <v>5187</v>
+        <v>5186</v>
       </c>
     </row>
     <row r="588" spans="1:8">
@@ -39430,7 +39425,7 @@
         <v>2714</v>
       </c>
       <c r="I588" s="1" t="s">
-        <v>4828</v>
+        <v>4827</v>
       </c>
       <c r="J588" s="1"/>
       <c r="K588" s="1" t="s">
@@ -39440,7 +39435,7 @@
         <v>3675</v>
       </c>
       <c r="M588" s="1" t="s">
-        <v>5188</v>
+        <v>5187</v>
       </c>
     </row>
     <row r="589" spans="1:8">
@@ -39463,17 +39458,17 @@
         <v>2717</v>
       </c>
       <c r="I589" s="1" t="s">
-        <v>5189</v>
+        <v>5188</v>
       </c>
       <c r="J589" s="1"/>
       <c r="K589" s="1" t="s">
-        <v>5190</v>
+        <v>5189</v>
       </c>
       <c r="L589" s="1" t="s">
         <v>3692</v>
       </c>
       <c r="M589" s="1" t="s">
-        <v>5191</v>
+        <v>5190</v>
       </c>
     </row>
     <row r="590" spans="1:8">
@@ -39502,17 +39497,17 @@
         <v>2720</v>
       </c>
       <c r="I590" s="1" t="s">
-        <v>5192</v>
+        <v>5191</v>
       </c>
       <c r="J590" s="1"/>
       <c r="K590" s="1" t="s">
-        <v>5193</v>
+        <v>5192</v>
       </c>
       <c r="L590" s="1" t="s">
         <v>3730</v>
       </c>
       <c r="M590" s="1" t="s">
-        <v>5194</v>
+        <v>5193</v>
       </c>
     </row>
     <row r="591" spans="1:8">
@@ -39541,17 +39536,17 @@
         <v>2724</v>
       </c>
       <c r="I591" s="1" t="s">
-        <v>5195</v>
+        <v>5194</v>
       </c>
       <c r="J591" s="1"/>
       <c r="K591" s="1" t="s">
-        <v>5196</v>
+        <v>5195</v>
       </c>
       <c r="L591" s="1" t="s">
         <v>3730</v>
       </c>
       <c r="M591" s="1" t="s">
-        <v>5197</v>
+        <v>5196</v>
       </c>
     </row>
     <row r="592" spans="1:8">
@@ -39580,7 +39575,7 @@
         <v>2730</v>
       </c>
       <c r="I592" s="1" t="s">
-        <v>5198</v>
+        <v>5197</v>
       </c>
       <c r="J592" s="1"/>
       <c r="K592" s="1" t="s">
@@ -39590,7 +39585,7 @@
         <v>3654</v>
       </c>
       <c r="M592" s="1" t="s">
-        <v>5199</v>
+        <v>5198</v>
       </c>
     </row>
     <row r="593" spans="1:8">
@@ -39619,17 +39614,17 @@
         <v>2734</v>
       </c>
       <c r="I593" s="1" t="s">
-        <v>4798</v>
+        <v>4797</v>
       </c>
       <c r="J593" s="1"/>
       <c r="K593" s="1" t="s">
-        <v>5029</v>
+        <v>5028</v>
       </c>
       <c r="L593" s="1" t="s">
         <v>3809</v>
       </c>
       <c r="M593" s="1" t="s">
-        <v>5200</v>
+        <v>5199</v>
       </c>
     </row>
     <row r="594" spans="1:8">
@@ -39662,13 +39657,13 @@
       </c>
       <c r="J594" s="1"/>
       <c r="K594" s="1" t="s">
-        <v>5201</v>
+        <v>5200</v>
       </c>
       <c r="L594" s="1" t="s">
         <v>3778</v>
       </c>
       <c r="M594" s="1" t="s">
-        <v>5202</v>
+        <v>5201</v>
       </c>
     </row>
     <row r="595" spans="1:8">
@@ -39697,17 +39692,17 @@
         <v>2742</v>
       </c>
       <c r="I595" s="1" t="s">
-        <v>5203</v>
+        <v>5202</v>
       </c>
       <c r="J595" s="1"/>
       <c r="K595" s="1" t="s">
-        <v>5204</v>
+        <v>5203</v>
       </c>
       <c r="L595" s="1" t="s">
         <v>3631</v>
       </c>
       <c r="M595" s="1" t="s">
-        <v>5205</v>
+        <v>5204</v>
       </c>
     </row>
     <row r="596" spans="1:8">
@@ -39736,19 +39731,19 @@
         <v>2748</v>
       </c>
       <c r="I596" s="1" t="s">
+        <v>5205</v>
+      </c>
+      <c r="J596" s="1" t="s">
         <v>5206</v>
       </c>
-      <c r="J596" s="1" t="s">
+      <c r="K596" s="1" t="s">
         <v>5207</v>
-      </c>
-      <c r="K596" s="1" t="s">
-        <v>5208</v>
       </c>
       <c r="L596" s="1" t="s">
         <v>4013</v>
       </c>
       <c r="M596" s="1" t="s">
-        <v>5209</v>
+        <v>5208</v>
       </c>
     </row>
     <row r="597" spans="1:8">
@@ -39771,17 +39766,17 @@
         <v>2752</v>
       </c>
       <c r="I597" s="1" t="s">
-        <v>5210</v>
+        <v>5209</v>
       </c>
       <c r="J597" s="1"/>
       <c r="K597" s="1" t="s">
-        <v>5211</v>
+        <v>5210</v>
       </c>
       <c r="L597" s="1" t="s">
         <v>3675</v>
       </c>
       <c r="M597" s="1" t="s">
-        <v>5212</v>
+        <v>5211</v>
       </c>
     </row>
     <row r="598" spans="1:8">
@@ -39810,17 +39805,17 @@
         <v>2755</v>
       </c>
       <c r="I598" s="1" t="s">
-        <v>4771</v>
+        <v>4770</v>
       </c>
       <c r="J598" s="1"/>
       <c r="K598" s="1" t="s">
+        <v>5212</v>
+      </c>
+      <c r="L598" s="1" t="s">
+        <v>4675</v>
+      </c>
+      <c r="M598" s="1" t="s">
         <v>5213</v>
-      </c>
-      <c r="L598" s="1" t="s">
-        <v>4676</v>
-      </c>
-      <c r="M598" s="1" t="s">
-        <v>5214</v>
       </c>
     </row>
     <row r="599" spans="1:8">
@@ -39849,17 +39844,17 @@
         <v>2759</v>
       </c>
       <c r="I599" s="1" t="s">
-        <v>5215</v>
+        <v>5214</v>
       </c>
       <c r="J599" s="1"/>
       <c r="K599" s="1" t="s">
-        <v>5216</v>
+        <v>5215</v>
       </c>
       <c r="L599" s="1" t="s">
         <v>3778</v>
       </c>
       <c r="M599" s="1" t="s">
-        <v>5217</v>
+        <v>5216</v>
       </c>
     </row>
     <row r="600" spans="1:8">
@@ -39888,17 +39883,17 @@
         <v>2764</v>
       </c>
       <c r="I600" s="1" t="s">
-        <v>5218</v>
+        <v>5217</v>
       </c>
       <c r="J600" s="1"/>
       <c r="K600" s="1" t="s">
-        <v>5219</v>
+        <v>5218</v>
       </c>
       <c r="L600" s="1" t="s">
         <v>3692</v>
       </c>
       <c r="M600" s="1" t="s">
-        <v>5220</v>
+        <v>5219</v>
       </c>
     </row>
     <row r="601" spans="1:8">
@@ -39931,13 +39926,13 @@
       </c>
       <c r="J601" s="1"/>
       <c r="K601" s="1" t="s">
-        <v>5221</v>
+        <v>5220</v>
       </c>
       <c r="L601" s="1" t="s">
         <v>4195</v>
       </c>
       <c r="M601" s="1" t="s">
-        <v>5222</v>
+        <v>5221</v>
       </c>
     </row>
     <row r="602" spans="1:8">
@@ -39966,17 +39961,17 @@
         <v>2772</v>
       </c>
       <c r="I602" s="1" t="s">
-        <v>5223</v>
+        <v>5222</v>
       </c>
       <c r="J602" s="1"/>
       <c r="K602" s="1" t="s">
-        <v>5224</v>
+        <v>5223</v>
       </c>
       <c r="L602" s="1" t="s">
         <v>3798</v>
       </c>
       <c r="M602" s="1" t="s">
-        <v>5225</v>
+        <v>5224</v>
       </c>
     </row>
     <row r="603" spans="1:8">
@@ -40005,17 +40000,17 @@
         <v>2778</v>
       </c>
       <c r="I603" s="1" t="s">
-        <v>5226</v>
+        <v>5225</v>
       </c>
       <c r="J603" s="1"/>
       <c r="K603" s="1" t="s">
-        <v>5227</v>
+        <v>5226</v>
       </c>
       <c r="L603" s="1" t="s">
         <v>3664</v>
       </c>
       <c r="M603" s="1" t="s">
-        <v>5228</v>
+        <v>5227</v>
       </c>
     </row>
     <row r="604" spans="1:8">
@@ -40044,17 +40039,17 @@
         <v>2783</v>
       </c>
       <c r="I604" s="1" t="s">
-        <v>5229</v>
+        <v>5228</v>
       </c>
       <c r="J604" s="1"/>
       <c r="K604" s="1" t="s">
-        <v>5230</v>
+        <v>5229</v>
       </c>
       <c r="L604" s="1" t="s">
         <v>3986</v>
       </c>
       <c r="M604" s="1" t="s">
-        <v>5231</v>
+        <v>5230</v>
       </c>
     </row>
     <row r="605" spans="1:8">
@@ -40083,17 +40078,17 @@
         <v>2789</v>
       </c>
       <c r="I605" s="1" t="s">
-        <v>5232</v>
+        <v>5231</v>
       </c>
       <c r="J605" s="1"/>
       <c r="K605" s="1" t="s">
+        <v>5232</v>
+      </c>
+      <c r="L605" s="1" t="s">
+        <v>5061</v>
+      </c>
+      <c r="M605" s="1" t="s">
         <v>5233</v>
-      </c>
-      <c r="L605" s="1" t="s">
-        <v>5062</v>
-      </c>
-      <c r="M605" s="1" t="s">
-        <v>5234</v>
       </c>
     </row>
     <row r="606" spans="1:8">
@@ -40126,13 +40121,13 @@
       </c>
       <c r="J606" s="1"/>
       <c r="K606" s="1" t="s">
+        <v>5234</v>
+      </c>
+      <c r="L606" s="1" t="s">
+        <v>4675</v>
+      </c>
+      <c r="M606" s="1" t="s">
         <v>5235</v>
-      </c>
-      <c r="L606" s="1" t="s">
-        <v>4676</v>
-      </c>
-      <c r="M606" s="1" t="s">
-        <v>5236</v>
       </c>
     </row>
     <row r="607" spans="1:8">
@@ -40159,13 +40154,13 @@
       </c>
       <c r="J607" s="1"/>
       <c r="K607" s="1" t="s">
-        <v>5237</v>
+        <v>5236</v>
       </c>
       <c r="L607" s="1" t="s">
         <v>3692</v>
       </c>
       <c r="M607" s="1" t="s">
-        <v>5238</v>
+        <v>5237</v>
       </c>
     </row>
     <row r="608" spans="1:8">
@@ -40194,17 +40189,17 @@
         <v>2806</v>
       </c>
       <c r="I608" s="1" t="s">
-        <v>5239</v>
+        <v>5238</v>
       </c>
       <c r="J608" s="1"/>
       <c r="K608" s="1" t="s">
+        <v>5239</v>
+      </c>
+      <c r="L608" s="1" t="s">
         <v>5240</v>
       </c>
-      <c r="L608" s="1" t="s">
+      <c r="M608" s="1" t="s">
         <v>5241</v>
-      </c>
-      <c r="M608" s="1" t="s">
-        <v>5242</v>
       </c>
     </row>
     <row r="609" spans="1:8">
@@ -40227,17 +40222,17 @@
         <v>2810</v>
       </c>
       <c r="I609" s="1" t="s">
-        <v>5243</v>
+        <v>5242</v>
       </c>
       <c r="J609" s="1"/>
       <c r="K609" s="1" t="s">
-        <v>4619</v>
+        <v>4618</v>
       </c>
       <c r="L609" s="1" t="s">
         <v>3616</v>
       </c>
       <c r="M609" s="1" t="s">
-        <v>5244</v>
+        <v>5243</v>
       </c>
     </row>
     <row r="610" spans="1:8">
@@ -40260,7 +40255,7 @@
         <v>2814</v>
       </c>
       <c r="I610" s="1" t="s">
-        <v>5245</v>
+        <v>5244</v>
       </c>
       <c r="J610" s="1"/>
       <c r="K610" s="1" t="s">
@@ -40270,7 +40265,7 @@
         <v>3738</v>
       </c>
       <c r="M610" s="1" t="s">
-        <v>5246</v>
+        <v>5245</v>
       </c>
     </row>
     <row r="611" spans="1:8">
@@ -40293,17 +40288,17 @@
         <v>2818</v>
       </c>
       <c r="I611" s="1" t="s">
-        <v>5247</v>
+        <v>5246</v>
       </c>
       <c r="J611" s="1"/>
       <c r="K611" s="1" t="s">
-        <v>5248</v>
+        <v>5247</v>
       </c>
       <c r="L611" s="1" t="s">
         <v>3692</v>
       </c>
       <c r="M611" s="1" t="s">
-        <v>5249</v>
+        <v>5248</v>
       </c>
     </row>
     <row r="612" spans="1:8">
@@ -40332,19 +40327,19 @@
         <v>2820</v>
       </c>
       <c r="I612" s="1" t="s">
-        <v>4802</v>
+        <v>4801</v>
       </c>
       <c r="J612" s="1" t="s">
         <v>4295</v>
       </c>
       <c r="K612" s="1" t="s">
-        <v>5250</v>
+        <v>5249</v>
       </c>
       <c r="L612" s="1" t="s">
         <v>3675</v>
       </c>
       <c r="M612" s="1" t="s">
-        <v>5251</v>
+        <v>5250</v>
       </c>
     </row>
     <row r="613" spans="1:8">
@@ -40377,13 +40372,13 @@
       </c>
       <c r="J613" s="1"/>
       <c r="K613" s="1" t="s">
-        <v>5252</v>
+        <v>5251</v>
       </c>
       <c r="L613" s="1" t="s">
         <v>3692</v>
       </c>
       <c r="M613" s="1" t="s">
-        <v>5253</v>
+        <v>5252</v>
       </c>
     </row>
     <row r="614" spans="1:8">
@@ -40412,7 +40407,7 @@
         <v>2828</v>
       </c>
       <c r="I614" s="1" t="s">
-        <v>5254</v>
+        <v>5253</v>
       </c>
       <c r="J614" s="1"/>
       <c r="K614" s="1" t="s">
@@ -40422,7 +40417,7 @@
         <v>3664</v>
       </c>
       <c r="M614" s="1" t="s">
-        <v>5255</v>
+        <v>5254</v>
       </c>
     </row>
     <row r="615" spans="1:8">
@@ -40445,17 +40440,17 @@
         <v>2832</v>
       </c>
       <c r="I615" s="1" t="s">
-        <v>5256</v>
+        <v>5255</v>
       </c>
       <c r="J615" s="1"/>
       <c r="K615" s="1" t="s">
-        <v>5257</v>
+        <v>5256</v>
       </c>
       <c r="L615" s="1" t="s">
         <v>3692</v>
       </c>
       <c r="M615" s="1" t="s">
-        <v>5258</v>
+        <v>5257</v>
       </c>
     </row>
     <row r="616" spans="1:8">
@@ -40482,13 +40477,13 @@
       </c>
       <c r="J616" s="1"/>
       <c r="K616" s="1" t="s">
-        <v>5259</v>
+        <v>5258</v>
       </c>
       <c r="L616" s="1" t="s">
         <v>3809</v>
       </c>
       <c r="M616" s="1" t="s">
-        <v>5260</v>
+        <v>5259</v>
       </c>
     </row>
     <row r="617" spans="1:8">
@@ -40511,17 +40506,17 @@
         <v>2840</v>
       </c>
       <c r="I617" s="1" t="s">
-        <v>5198</v>
+        <v>5197</v>
       </c>
       <c r="J617" s="1"/>
       <c r="K617" s="1" t="s">
-        <v>5261</v>
+        <v>5260</v>
       </c>
       <c r="L617" s="1" t="s">
         <v>4071</v>
       </c>
       <c r="M617" s="1" t="s">
-        <v>5262</v>
+        <v>5261</v>
       </c>
     </row>
     <row r="618" spans="1:8">
@@ -40550,19 +40545,19 @@
         <v>2844</v>
       </c>
       <c r="I618" s="1" t="s">
-        <v>5263</v>
+        <v>5262</v>
       </c>
       <c r="J618" s="1" t="s">
         <v>3828</v>
       </c>
       <c r="K618" s="1" t="s">
-        <v>5264</v>
+        <v>5263</v>
       </c>
       <c r="L618" s="1" t="s">
         <v>3654</v>
       </c>
       <c r="M618" s="1" t="s">
-        <v>5265</v>
+        <v>5264</v>
       </c>
     </row>
     <row r="619" spans="1:8">
@@ -40595,13 +40590,13 @@
       </c>
       <c r="J619" s="1"/>
       <c r="K619" s="1" t="s">
-        <v>5266</v>
+        <v>5265</v>
       </c>
       <c r="L619" s="1" t="s">
         <v>3692</v>
       </c>
       <c r="M619" s="1" t="s">
-        <v>5267</v>
+        <v>5266</v>
       </c>
     </row>
     <row r="620" spans="1:8">
@@ -40630,17 +40625,17 @@
         <v>2855</v>
       </c>
       <c r="I620" s="1" t="s">
-        <v>4744</v>
+        <v>4743</v>
       </c>
       <c r="J620" s="1"/>
       <c r="K620" s="1" t="s">
-        <v>5268</v>
+        <v>5267</v>
       </c>
       <c r="L620" s="1" t="s">
         <v>3664</v>
       </c>
       <c r="M620" s="1" t="s">
-        <v>5269</v>
+        <v>5268</v>
       </c>
     </row>
     <row r="621" spans="1:8">
@@ -40669,17 +40664,17 @@
         <v>2860</v>
       </c>
       <c r="I621" s="1" t="s">
-        <v>5215</v>
+        <v>5214</v>
       </c>
       <c r="J621" s="1"/>
       <c r="K621" s="1" t="s">
-        <v>5270</v>
+        <v>5269</v>
       </c>
       <c r="L621" s="1" t="s">
         <v>3692</v>
       </c>
       <c r="M621" s="1" t="s">
-        <v>5271</v>
+        <v>5270</v>
       </c>
     </row>
     <row r="622" spans="1:8">
@@ -40712,13 +40707,13 @@
       </c>
       <c r="J622" s="1"/>
       <c r="K622" s="1" t="s">
-        <v>5272</v>
+        <v>5271</v>
       </c>
       <c r="L622" s="1" t="s">
         <v>3675</v>
       </c>
       <c r="M622" s="1" t="s">
-        <v>5273</v>
+        <v>5272</v>
       </c>
     </row>
     <row r="623" spans="1:8">
@@ -40747,17 +40742,17 @@
         <v>2870</v>
       </c>
       <c r="I623" s="1" t="s">
-        <v>4771</v>
+        <v>4770</v>
       </c>
       <c r="J623" s="1"/>
       <c r="K623" s="1" t="s">
-        <v>5274</v>
+        <v>5273</v>
       </c>
       <c r="L623" s="1" t="s">
         <v>3654</v>
       </c>
       <c r="M623" s="1" t="s">
-        <v>5275</v>
+        <v>5274</v>
       </c>
     </row>
     <row r="624" spans="1:8">
@@ -40790,13 +40785,13 @@
       </c>
       <c r="J624" s="1"/>
       <c r="K624" s="1" t="s">
-        <v>5276</v>
+        <v>5275</v>
       </c>
       <c r="L624" s="1" t="s">
         <v>3664</v>
       </c>
       <c r="M624" s="1" t="s">
-        <v>5277</v>
+        <v>5276</v>
       </c>
     </row>
     <row r="625" spans="1:8">
@@ -40825,17 +40820,17 @@
         <v>2878</v>
       </c>
       <c r="I625" s="1" t="s">
-        <v>5278</v>
+        <v>5277</v>
       </c>
       <c r="J625" s="1"/>
       <c r="K625" s="1" t="s">
-        <v>4958</v>
+        <v>4957</v>
       </c>
       <c r="L625" s="1" t="s">
         <v>3692</v>
       </c>
       <c r="M625" s="1" t="s">
-        <v>5279</v>
+        <v>5278</v>
       </c>
     </row>
     <row r="626" spans="1:8">
@@ -40864,13 +40859,13 @@
         <v>2883</v>
       </c>
       <c r="I626" s="1" t="s">
+        <v>5279</v>
+      </c>
+      <c r="J626" s="1" t="s">
         <v>5280</v>
       </c>
-      <c r="J626" s="1" t="s">
+      <c r="K626" s="1" t="s">
         <v>5281</v>
-      </c>
-      <c r="K626" s="1" t="s">
-        <v>5282</v>
       </c>
       <c r="L626" s="1" t="s">
         <v>3635</v>
@@ -40903,17 +40898,17 @@
         <v>2889</v>
       </c>
       <c r="I627" s="1" t="s">
-        <v>5283</v>
+        <v>5282</v>
       </c>
       <c r="J627" s="1"/>
       <c r="K627" s="1" t="s">
-        <v>5284</v>
+        <v>5283</v>
       </c>
       <c r="L627" s="1" t="s">
         <v>3650</v>
       </c>
       <c r="M627" s="1" t="s">
-        <v>5285</v>
+        <v>5284</v>
       </c>
     </row>
     <row r="628" spans="1:8">
@@ -40942,17 +40937,17 @@
         <v>2894</v>
       </c>
       <c r="I628" s="1" t="s">
-        <v>5286</v>
+        <v>5285</v>
       </c>
       <c r="J628" s="1"/>
       <c r="K628" s="1" t="s">
-        <v>5287</v>
+        <v>5286</v>
       </c>
       <c r="L628" s="1" t="s">
         <v>3654</v>
       </c>
       <c r="M628" s="1" t="s">
-        <v>5288</v>
+        <v>5287</v>
       </c>
     </row>
     <row r="629" spans="1:8">
@@ -40985,13 +40980,13 @@
       </c>
       <c r="J629" s="1"/>
       <c r="K629" s="1" t="s">
-        <v>5289</v>
+        <v>5288</v>
       </c>
       <c r="L629" s="1" t="s">
         <v>3692</v>
       </c>
       <c r="M629" s="1" t="s">
-        <v>5290</v>
+        <v>5289</v>
       </c>
     </row>
     <row r="630" spans="1:8">
@@ -41024,13 +41019,13 @@
       </c>
       <c r="J630" s="1"/>
       <c r="K630" s="1" t="s">
-        <v>5291</v>
+        <v>5290</v>
       </c>
       <c r="L630" s="1" t="s">
         <v>3654</v>
       </c>
       <c r="M630" s="1" t="s">
-        <v>5292</v>
+        <v>5291</v>
       </c>
     </row>
     <row r="631" spans="1:8">
@@ -41053,17 +41048,17 @@
         <v>2904</v>
       </c>
       <c r="I631" s="1" t="s">
-        <v>5293</v>
+        <v>5292</v>
       </c>
       <c r="J631" s="1"/>
       <c r="K631" s="1" t="s">
-        <v>5294</v>
+        <v>5293</v>
       </c>
       <c r="L631" s="1" t="s">
         <v>3711</v>
       </c>
       <c r="M631" s="1" t="s">
-        <v>5295</v>
+        <v>5294</v>
       </c>
     </row>
     <row r="632" spans="1:8">
@@ -41102,7 +41097,7 @@
         <v>3798</v>
       </c>
       <c r="M632" s="1" t="s">
-        <v>5296</v>
+        <v>5295</v>
       </c>
     </row>
     <row r="633" spans="1:8">
@@ -41131,7 +41126,7 @@
         <v>2910</v>
       </c>
       <c r="I633" s="1" t="s">
-        <v>5297</v>
+        <v>5296</v>
       </c>
       <c r="J633" s="1" t="s">
         <v>3945</v>
@@ -41143,7 +41138,7 @@
         <v>3923</v>
       </c>
       <c r="M633" s="1" t="s">
-        <v>5298</v>
+        <v>5297</v>
       </c>
     </row>
     <row r="634" spans="1:8">
@@ -41176,13 +41171,13 @@
       </c>
       <c r="J634" s="1"/>
       <c r="K634" s="1" t="s">
-        <v>5299</v>
+        <v>5298</v>
       </c>
       <c r="L634" s="1" t="s">
         <v>3664</v>
       </c>
       <c r="M634" s="1" t="s">
-        <v>5300</v>
+        <v>5299</v>
       </c>
     </row>
     <row r="635" spans="1:8">
@@ -41211,7 +41206,7 @@
         <v>2918</v>
       </c>
       <c r="I635" s="1" t="s">
-        <v>5301</v>
+        <v>5300</v>
       </c>
       <c r="J635" s="1"/>
       <c r="K635" s="1" t="s">
@@ -41221,7 +41216,7 @@
         <v>3675</v>
       </c>
       <c r="M635" s="1" t="s">
-        <v>5302</v>
+        <v>5301</v>
       </c>
     </row>
     <row r="636" spans="1:8">
@@ -41254,13 +41249,13 @@
       </c>
       <c r="J636" s="1"/>
       <c r="K636" s="1" t="s">
-        <v>5303</v>
+        <v>5302</v>
       </c>
       <c r="L636" s="1" t="s">
         <v>3692</v>
       </c>
       <c r="M636" s="1" t="s">
-        <v>5304</v>
+        <v>5303</v>
       </c>
     </row>
     <row r="637" spans="1:8">
@@ -41289,19 +41284,19 @@
         <v>2925</v>
       </c>
       <c r="I637" s="1" t="s">
-        <v>4647</v>
+        <v>4646</v>
       </c>
       <c r="J637" s="1" t="s">
-        <v>5305</v>
+        <v>5304</v>
       </c>
       <c r="K637" s="1" t="s">
-        <v>4780</v>
+        <v>4779</v>
       </c>
       <c r="L637" s="1" t="s">
         <v>3654</v>
       </c>
       <c r="M637" s="1" t="s">
-        <v>5306</v>
+        <v>5305</v>
       </c>
     </row>
     <row r="638" spans="1:8">
@@ -41334,13 +41329,13 @@
       </c>
       <c r="J638" s="1"/>
       <c r="K638" s="1" t="s">
-        <v>5307</v>
+        <v>5306</v>
       </c>
       <c r="L638" s="1" t="s">
         <v>3675</v>
       </c>
       <c r="M638" s="1" t="s">
-        <v>5308</v>
+        <v>5307</v>
       </c>
     </row>
     <row r="639" spans="1:8">
@@ -41369,17 +41364,17 @@
         <v>2933</v>
       </c>
       <c r="I639" s="1" t="s">
-        <v>5309</v>
+        <v>5308</v>
       </c>
       <c r="J639" s="1"/>
       <c r="K639" s="1" t="s">
-        <v>5310</v>
+        <v>5309</v>
       </c>
       <c r="L639" s="1" t="s">
         <v>3692</v>
       </c>
       <c r="M639" s="1" t="s">
-        <v>5311</v>
+        <v>5310</v>
       </c>
     </row>
     <row r="640" spans="1:8">
@@ -41408,17 +41403,17 @@
         <v>2938</v>
       </c>
       <c r="I640" s="1" t="s">
-        <v>5312</v>
+        <v>5311</v>
       </c>
       <c r="J640" s="1"/>
       <c r="K640" s="1" t="s">
-        <v>5313</v>
+        <v>5312</v>
       </c>
       <c r="L640" s="1" t="s">
         <v>3664</v>
       </c>
       <c r="M640" s="1" t="s">
-        <v>5314</v>
+        <v>5313</v>
       </c>
     </row>
     <row r="641" spans="1:8">
@@ -41447,17 +41442,17 @@
         <v>2943</v>
       </c>
       <c r="I641" s="1" t="s">
-        <v>5315</v>
+        <v>5314</v>
       </c>
       <c r="J641" s="1"/>
       <c r="K641" s="1" t="s">
-        <v>5316</v>
+        <v>5315</v>
       </c>
       <c r="L641" s="1" t="s">
         <v>3979</v>
       </c>
       <c r="M641" s="1" t="s">
-        <v>5317</v>
+        <v>5316</v>
       </c>
     </row>
     <row r="642" spans="1:8">
@@ -41490,13 +41485,13 @@
       </c>
       <c r="J642" s="1"/>
       <c r="K642" s="1" t="s">
-        <v>5318</v>
+        <v>5317</v>
       </c>
       <c r="L642" s="1" t="s">
         <v>3692</v>
       </c>
       <c r="M642" s="1" t="s">
-        <v>5319</v>
+        <v>5318</v>
       </c>
     </row>
     <row r="643" spans="1:8">
@@ -41529,13 +41524,13 @@
       </c>
       <c r="J643" s="1"/>
       <c r="K643" s="1" t="s">
-        <v>5320</v>
+        <v>5319</v>
       </c>
       <c r="L643" s="1" t="s">
         <v>3809</v>
       </c>
       <c r="M643" s="1" t="s">
-        <v>5321</v>
+        <v>5320</v>
       </c>
     </row>
     <row r="644" spans="1:8">
@@ -41564,17 +41559,17 @@
         <v>2953</v>
       </c>
       <c r="I644" s="1" t="s">
-        <v>5322</v>
+        <v>5321</v>
       </c>
       <c r="J644" s="1"/>
       <c r="K644" s="1" t="s">
-        <v>5323</v>
+        <v>5322</v>
       </c>
       <c r="L644" s="1" t="s">
         <v>3692</v>
       </c>
       <c r="M644" s="1" t="s">
-        <v>5324</v>
+        <v>5323</v>
       </c>
     </row>
     <row r="645" spans="1:8">
@@ -41603,11 +41598,11 @@
         <v>2959</v>
       </c>
       <c r="I645" s="1" t="s">
-        <v>5325</v>
+        <v>5324</v>
       </c>
       <c r="J645" s="1"/>
       <c r="K645" s="1" t="s">
-        <v>5326</v>
+        <v>5325</v>
       </c>
       <c r="L645" s="1" t="s">
         <v>3635</v>
@@ -41640,17 +41635,17 @@
         <v>2964</v>
       </c>
       <c r="I646" s="1" t="s">
-        <v>5327</v>
+        <v>5326</v>
       </c>
       <c r="J646" s="1"/>
       <c r="K646" s="1" t="s">
-        <v>5328</v>
+        <v>5327</v>
       </c>
       <c r="L646" s="1" t="s">
         <v>3692</v>
       </c>
       <c r="M646" s="1" t="s">
-        <v>5329</v>
+        <v>5328</v>
       </c>
     </row>
     <row r="647" spans="1:8">
@@ -41683,13 +41678,13 @@
       </c>
       <c r="J647" s="1"/>
       <c r="K647" s="1" t="s">
-        <v>5330</v>
+        <v>5329</v>
       </c>
       <c r="L647" s="1" t="s">
         <v>3675</v>
       </c>
       <c r="M647" s="1" t="s">
-        <v>5331</v>
+        <v>5330</v>
       </c>
     </row>
     <row r="648" spans="1:8">
@@ -41718,17 +41713,17 @@
         <v>2971</v>
       </c>
       <c r="I648" s="1" t="s">
-        <v>5332</v>
+        <v>5331</v>
       </c>
       <c r="J648" s="1"/>
       <c r="K648" s="1" t="s">
-        <v>5333</v>
+        <v>5332</v>
       </c>
       <c r="L648" s="1" t="s">
         <v>3730</v>
       </c>
       <c r="M648" s="1" t="s">
-        <v>5334</v>
+        <v>5333</v>
       </c>
     </row>
     <row r="649" spans="1:8">
@@ -41755,13 +41750,13 @@
       </c>
       <c r="J649" s="1"/>
       <c r="K649" s="1" t="s">
-        <v>4718</v>
+        <v>4717</v>
       </c>
       <c r="L649" s="1" t="s">
         <v>3730</v>
       </c>
       <c r="M649" s="1" t="s">
-        <v>5335</v>
+        <v>5334</v>
       </c>
     </row>
     <row r="650" spans="1:8">
@@ -41794,7 +41789,7 @@
       </c>
       <c r="J650" s="1"/>
       <c r="K650" s="1" t="s">
-        <v>5336</v>
+        <v>5335</v>
       </c>
       <c r="L650" s="1" t="s">
         <v>3635</v>
@@ -41837,7 +41832,7 @@
         <v>3664</v>
       </c>
       <c r="M651" s="1" t="s">
-        <v>5337</v>
+        <v>5336</v>
       </c>
     </row>
     <row r="652" spans="1:8">
@@ -41866,17 +41861,17 @@
         <v>2988</v>
       </c>
       <c r="I652" s="1" t="s">
-        <v>5338</v>
+        <v>5337</v>
       </c>
       <c r="J652" s="1"/>
       <c r="K652" s="1" t="s">
-        <v>5339</v>
+        <v>5338</v>
       </c>
       <c r="L652" s="1" t="s">
         <v>3675</v>
       </c>
       <c r="M652" s="1" t="s">
-        <v>5340</v>
+        <v>5339</v>
       </c>
     </row>
     <row r="653" spans="1:8">
@@ -41905,19 +41900,19 @@
         <v>2993</v>
       </c>
       <c r="I653" s="1" t="s">
+        <v>5340</v>
+      </c>
+      <c r="J653" s="1" t="s">
         <v>5341</v>
       </c>
-      <c r="J653" s="1" t="s">
+      <c r="K653" s="1" t="s">
         <v>5342</v>
-      </c>
-      <c r="K653" s="1" t="s">
-        <v>5343</v>
       </c>
       <c r="L653" s="1" t="s">
         <v>3738</v>
       </c>
       <c r="M653" s="1" t="s">
-        <v>5344</v>
+        <v>5343</v>
       </c>
     </row>
     <row r="654" spans="1:8">
@@ -41946,17 +41941,17 @@
         <v>2998</v>
       </c>
       <c r="I654" s="1" t="s">
-        <v>5345</v>
+        <v>5344</v>
       </c>
       <c r="J654" s="1"/>
       <c r="K654" s="1" t="s">
-        <v>5346</v>
+        <v>5345</v>
       </c>
       <c r="L654" s="1" t="s">
         <v>3692</v>
       </c>
       <c r="M654" s="1" t="s">
-        <v>5347</v>
+        <v>5346</v>
       </c>
     </row>
     <row r="655" spans="1:8">
@@ -41985,7 +41980,7 @@
         <v>3002</v>
       </c>
       <c r="I655" s="1" t="s">
-        <v>4924</v>
+        <v>4923</v>
       </c>
       <c r="J655" s="1"/>
       <c r="K655" s="1" t="s">
@@ -41995,7 +41990,7 @@
         <v>3692</v>
       </c>
       <c r="M655" s="1" t="s">
-        <v>5348</v>
+        <v>5347</v>
       </c>
     </row>
     <row r="656" spans="1:8">
@@ -42024,17 +42019,17 @@
         <v>3007</v>
       </c>
       <c r="I656" s="1" t="s">
-        <v>5349</v>
+        <v>5348</v>
       </c>
       <c r="J656" s="1"/>
       <c r="K656" s="1" t="s">
-        <v>5350</v>
+        <v>5349</v>
       </c>
       <c r="L656" s="1" t="s">
         <v>3809</v>
       </c>
       <c r="M656" s="1" t="s">
-        <v>5351</v>
+        <v>5350</v>
       </c>
     </row>
     <row r="657" spans="1:8">
@@ -42063,17 +42058,17 @@
         <v>3011</v>
       </c>
       <c r="I657" s="1" t="s">
-        <v>5352</v>
+        <v>5351</v>
       </c>
       <c r="J657" s="1"/>
       <c r="K657" s="1" t="s">
-        <v>5353</v>
+        <v>5352</v>
       </c>
       <c r="L657" s="1" t="s">
         <v>3675</v>
       </c>
       <c r="M657" s="1" t="s">
-        <v>5354</v>
+        <v>5353</v>
       </c>
     </row>
     <row r="658" spans="1:8">
@@ -42106,13 +42101,13 @@
       </c>
       <c r="J658" s="1"/>
       <c r="K658" s="1" t="s">
-        <v>5284</v>
+        <v>5283</v>
       </c>
       <c r="L658" s="1" t="s">
         <v>3692</v>
       </c>
       <c r="M658" s="1" t="s">
-        <v>5355</v>
+        <v>5354</v>
       </c>
     </row>
     <row r="659" spans="1:8">
@@ -42145,13 +42140,13 @@
       </c>
       <c r="J659" s="1"/>
       <c r="K659" s="1" t="s">
-        <v>5356</v>
+        <v>5355</v>
       </c>
       <c r="L659" s="1" t="s">
         <v>3711</v>
       </c>
       <c r="M659" s="1" t="s">
-        <v>5357</v>
+        <v>5356</v>
       </c>
     </row>
     <row r="660" spans="1:8">
@@ -42180,17 +42175,17 @@
         <v>3023</v>
       </c>
       <c r="I660" s="1" t="s">
-        <v>5358</v>
+        <v>5357</v>
       </c>
       <c r="J660" s="1"/>
       <c r="K660" s="1" t="s">
-        <v>4699</v>
+        <v>4698</v>
       </c>
       <c r="L660" s="1" t="s">
         <v>4013</v>
       </c>
       <c r="M660" s="1" t="s">
-        <v>5359</v>
+        <v>5358</v>
       </c>
     </row>
     <row r="661" spans="1:8">
@@ -42219,17 +42214,17 @@
         <v>3027</v>
       </c>
       <c r="I661" s="1" t="s">
-        <v>4646</v>
+        <v>4645</v>
       </c>
       <c r="J661" s="1"/>
       <c r="K661" s="1" t="s">
-        <v>5360</v>
+        <v>5359</v>
       </c>
       <c r="L661" s="1" t="s">
         <v>3809</v>
       </c>
       <c r="M661" s="1" t="s">
-        <v>5361</v>
+        <v>5360</v>
       </c>
     </row>
     <row r="662" spans="1:8">
@@ -42258,7 +42253,7 @@
         <v>3031</v>
       </c>
       <c r="I662" s="1" t="s">
-        <v>5362</v>
+        <v>5361</v>
       </c>
       <c r="J662" s="1"/>
       <c r="K662" s="1" t="s">
@@ -42268,7 +42263,7 @@
         <v>3692</v>
       </c>
       <c r="M662" s="1" t="s">
-        <v>5363</v>
+        <v>5362</v>
       </c>
     </row>
     <row r="663" spans="1:8">
@@ -42291,17 +42286,17 @@
         <v>3035</v>
       </c>
       <c r="I663" s="1" t="s">
-        <v>5364</v>
+        <v>5363</v>
       </c>
       <c r="J663" s="1"/>
       <c r="K663" s="1" t="s">
-        <v>5365</v>
+        <v>5364</v>
       </c>
       <c r="L663" s="1" t="s">
         <v>3664</v>
       </c>
       <c r="M663" s="1" t="s">
-        <v>5366</v>
+        <v>5365</v>
       </c>
     </row>
     <row r="664" spans="1:8">
@@ -42330,11 +42325,11 @@
         <v>3040</v>
       </c>
       <c r="I664" s="1" t="s">
-        <v>5367</v>
+        <v>5366</v>
       </c>
       <c r="J664" s="1"/>
       <c r="K664" s="1" t="s">
-        <v>5368</v>
+        <v>5367</v>
       </c>
       <c r="L664" s="1" t="s">
         <v>3635</v>
@@ -42371,13 +42366,13 @@
       </c>
       <c r="J665" s="1"/>
       <c r="K665" s="1" t="s">
-        <v>5369</v>
+        <v>5368</v>
       </c>
       <c r="L665" s="1" t="s">
         <v>3751</v>
       </c>
       <c r="M665" s="1" t="s">
-        <v>5370</v>
+        <v>5369</v>
       </c>
     </row>
     <row r="666" spans="1:8">
@@ -42400,17 +42395,17 @@
         <v>3049</v>
       </c>
       <c r="I666" s="1" t="s">
-        <v>4577</v>
+        <v>4576</v>
       </c>
       <c r="J666" s="1"/>
       <c r="K666" s="1" t="s">
-        <v>5371</v>
+        <v>5370</v>
       </c>
       <c r="L666" s="1" t="s">
         <v>3778</v>
       </c>
       <c r="M666" s="1" t="s">
-        <v>5372</v>
+        <v>5371</v>
       </c>
     </row>
     <row r="667" spans="1:8">
@@ -42439,17 +42434,17 @@
         <v>3051</v>
       </c>
       <c r="I667" s="1" t="s">
-        <v>5373</v>
+        <v>5372</v>
       </c>
       <c r="J667" s="1"/>
       <c r="K667" s="1" t="s">
-        <v>5374</v>
+        <v>5373</v>
       </c>
       <c r="L667" s="1" t="s">
         <v>3692</v>
       </c>
       <c r="M667" s="1" t="s">
-        <v>5375</v>
+        <v>5374</v>
       </c>
     </row>
     <row r="668" spans="1:8">
@@ -42478,17 +42473,17 @@
         <v>3054</v>
       </c>
       <c r="I668" s="1" t="s">
-        <v>5376</v>
+        <v>5375</v>
       </c>
       <c r="J668" s="1"/>
       <c r="K668" s="1" t="s">
-        <v>5377</v>
+        <v>5376</v>
       </c>
       <c r="L668" s="1" t="s">
         <v>4013</v>
       </c>
       <c r="M668" s="1" t="s">
-        <v>5378</v>
+        <v>5377</v>
       </c>
     </row>
     <row r="669" spans="1:8">
@@ -42517,17 +42512,17 @@
         <v>3056</v>
       </c>
       <c r="I669" s="1" t="s">
-        <v>5379</v>
+        <v>5378</v>
       </c>
       <c r="J669" s="1"/>
       <c r="K669" s="1" t="s">
-        <v>5380</v>
+        <v>5379</v>
       </c>
       <c r="L669" s="1" t="s">
         <v>3692</v>
       </c>
       <c r="M669" s="1" t="s">
-        <v>5381</v>
+        <v>5380</v>
       </c>
     </row>
     <row r="670" spans="1:8">
@@ -42550,19 +42545,19 @@
         <v>3060</v>
       </c>
       <c r="I670" s="1" t="s">
+        <v>5381</v>
+      </c>
+      <c r="J670" s="1" t="s">
         <v>5382</v>
       </c>
-      <c r="J670" s="1" t="s">
+      <c r="K670" s="1" t="s">
         <v>5383</v>
-      </c>
-      <c r="K670" s="1" t="s">
-        <v>5384</v>
       </c>
       <c r="L670" s="1" t="s">
         <v>3675</v>
       </c>
       <c r="M670" s="1" t="s">
-        <v>5385</v>
+        <v>5384</v>
       </c>
     </row>
     <row r="671" spans="1:8">
@@ -42595,13 +42590,13 @@
       </c>
       <c r="J671" s="1"/>
       <c r="K671" s="1" t="s">
-        <v>5386</v>
+        <v>5385</v>
       </c>
       <c r="L671" s="1" t="s">
         <v>3809</v>
       </c>
       <c r="M671" s="1" t="s">
-        <v>5387</v>
+        <v>5386</v>
       </c>
     </row>
     <row r="672" spans="1:8">
@@ -42630,17 +42625,17 @@
         <v>3069</v>
       </c>
       <c r="I672" s="1" t="s">
-        <v>5325</v>
+        <v>5324</v>
       </c>
       <c r="J672" s="1"/>
       <c r="K672" s="1" t="s">
-        <v>4814</v>
+        <v>4813</v>
       </c>
       <c r="L672" s="1" t="s">
         <v>3969</v>
       </c>
       <c r="M672" s="1" t="s">
-        <v>5388</v>
+        <v>5387</v>
       </c>
     </row>
     <row r="673" spans="1:8">
@@ -42669,17 +42664,17 @@
         <v>3073</v>
       </c>
       <c r="I673" s="1" t="s">
-        <v>4665</v>
+        <v>4664</v>
       </c>
       <c r="J673" s="1"/>
       <c r="K673" s="1" t="s">
-        <v>4651</v>
+        <v>4650</v>
       </c>
       <c r="L673" s="1" t="s">
         <v>4103</v>
       </c>
       <c r="M673" s="1" t="s">
-        <v>5389</v>
+        <v>5388</v>
       </c>
     </row>
     <row r="674" spans="1:8">
@@ -42708,17 +42703,17 @@
         <v>3076</v>
       </c>
       <c r="I674" s="1" t="s">
-        <v>5332</v>
+        <v>5331</v>
       </c>
       <c r="J674" s="1"/>
       <c r="K674" s="1" t="s">
-        <v>5390</v>
+        <v>5389</v>
       </c>
       <c r="L674" s="1" t="s">
         <v>3664</v>
       </c>
       <c r="M674" s="1" t="s">
-        <v>5391</v>
+        <v>5390</v>
       </c>
     </row>
     <row r="675" spans="1:8">
@@ -42747,17 +42742,17 @@
         <v>3081</v>
       </c>
       <c r="I675" s="1" t="s">
-        <v>5392</v>
+        <v>5391</v>
       </c>
       <c r="J675" s="1"/>
       <c r="K675" s="1" t="s">
-        <v>5393</v>
+        <v>5392</v>
       </c>
       <c r="L675" s="1" t="s">
         <v>3654</v>
       </c>
       <c r="M675" s="1" t="s">
-        <v>5394</v>
+        <v>5393</v>
       </c>
     </row>
     <row r="676" spans="1:8">
@@ -42786,17 +42781,17 @@
         <v>3084</v>
       </c>
       <c r="I676" s="1" t="s">
-        <v>5395</v>
+        <v>5394</v>
       </c>
       <c r="J676" s="1"/>
       <c r="K676" s="1" t="s">
-        <v>5396</v>
+        <v>5395</v>
       </c>
       <c r="L676" s="1" t="s">
         <v>4013</v>
       </c>
       <c r="M676" s="1" t="s">
-        <v>5397</v>
+        <v>5396</v>
       </c>
     </row>
     <row r="677" spans="1:8">
@@ -42825,17 +42820,17 @@
         <v>3088</v>
       </c>
       <c r="I677" s="1" t="s">
-        <v>4870</v>
+        <v>4869</v>
       </c>
       <c r="J677" s="1"/>
       <c r="K677" s="1" t="s">
-        <v>5398</v>
+        <v>5397</v>
       </c>
       <c r="L677" s="1" t="s">
         <v>3778</v>
       </c>
       <c r="M677" s="1" t="s">
-        <v>5399</v>
+        <v>5398</v>
       </c>
     </row>
     <row r="678" spans="1:8">
@@ -42868,13 +42863,13 @@
       </c>
       <c r="J678" s="1"/>
       <c r="K678" s="1" t="s">
-        <v>5400</v>
+        <v>5399</v>
       </c>
       <c r="L678" s="1" t="s">
         <v>3809</v>
       </c>
       <c r="M678" s="1" t="s">
-        <v>5401</v>
+        <v>5400</v>
       </c>
     </row>
     <row r="679" spans="1:8">
@@ -42903,17 +42898,17 @@
         <v>3095</v>
       </c>
       <c r="I679" s="1" t="s">
-        <v>5402</v>
+        <v>5401</v>
       </c>
       <c r="J679" s="1"/>
       <c r="K679" s="1" t="s">
-        <v>5403</v>
+        <v>5402</v>
       </c>
       <c r="L679" s="1" t="s">
         <v>3631</v>
       </c>
       <c r="M679" s="1" t="s">
-        <v>5404</v>
+        <v>5403</v>
       </c>
     </row>
     <row r="680" spans="1:8">
@@ -42942,19 +42937,19 @@
         <v>3100</v>
       </c>
       <c r="I680" s="1" t="s">
-        <v>5405</v>
+        <v>5404</v>
       </c>
       <c r="J680" s="1" t="s">
         <v>3881</v>
       </c>
       <c r="K680" s="1" t="s">
-        <v>5406</v>
+        <v>5405</v>
       </c>
       <c r="L680" s="1" t="s">
         <v>3650</v>
       </c>
       <c r="M680" s="1" t="s">
-        <v>5407</v>
+        <v>5406</v>
       </c>
     </row>
     <row r="681" spans="1:8">
@@ -42993,7 +42988,7 @@
         <v>3942</v>
       </c>
       <c r="M681" s="1" t="s">
-        <v>5408</v>
+        <v>5407</v>
       </c>
     </row>
     <row r="682" spans="1:8">
@@ -43016,19 +43011,19 @@
         <v>3108</v>
       </c>
       <c r="I682" s="1" t="s">
+        <v>5408</v>
+      </c>
+      <c r="J682" s="1" t="s">
+        <v>5085</v>
+      </c>
+      <c r="K682" s="1" t="s">
         <v>5409</v>
-      </c>
-      <c r="J682" s="1" t="s">
-        <v>5086</v>
-      </c>
-      <c r="K682" s="1" t="s">
-        <v>5410</v>
       </c>
       <c r="L682" s="1" t="s">
         <v>3616</v>
       </c>
       <c r="M682" s="1" t="s">
-        <v>5411</v>
+        <v>5410</v>
       </c>
     </row>
     <row r="683" spans="1:8">
@@ -43061,13 +43056,13 @@
       </c>
       <c r="J683" s="1"/>
       <c r="K683" s="1" t="s">
-        <v>5412</v>
+        <v>5411</v>
       </c>
       <c r="L683" s="1" t="s">
         <v>3986</v>
       </c>
       <c r="M683" s="1" t="s">
-        <v>5413</v>
+        <v>5412</v>
       </c>
     </row>
     <row r="684" spans="1:8">
@@ -43090,17 +43085,17 @@
         <v>3116</v>
       </c>
       <c r="I684" s="1" t="s">
-        <v>5414</v>
+        <v>5413</v>
       </c>
       <c r="J684" s="1"/>
       <c r="K684" s="1" t="s">
-        <v>5415</v>
+        <v>5414</v>
       </c>
       <c r="L684" s="1" t="s">
         <v>3675</v>
       </c>
       <c r="M684" s="1" t="s">
-        <v>5416</v>
+        <v>5415</v>
       </c>
     </row>
     <row r="685" spans="1:8">
@@ -43133,13 +43128,13 @@
       </c>
       <c r="J685" s="1"/>
       <c r="K685" s="1" t="s">
-        <v>5264</v>
+        <v>5263</v>
       </c>
       <c r="L685" s="1" t="s">
         <v>3692</v>
       </c>
       <c r="M685" s="1" t="s">
-        <v>5417</v>
+        <v>5416</v>
       </c>
     </row>
     <row r="686" spans="1:8">
@@ -43162,11 +43157,11 @@
         <v>3122</v>
       </c>
       <c r="I686" s="1" t="s">
-        <v>4689</v>
+        <v>4688</v>
       </c>
       <c r="J686" s="1"/>
       <c r="K686" s="1" t="s">
-        <v>5418</v>
+        <v>5417</v>
       </c>
       <c r="L686" s="1" t="s">
         <v>3635</v>
@@ -43199,17 +43194,17 @@
         <v>3124</v>
       </c>
       <c r="I687" s="1" t="s">
-        <v>5419</v>
+        <v>5418</v>
       </c>
       <c r="J687" s="1"/>
       <c r="K687" s="1" t="s">
-        <v>5420</v>
+        <v>5419</v>
       </c>
       <c r="L687" s="1" t="s">
         <v>3809</v>
       </c>
       <c r="M687" s="1" t="s">
-        <v>5421</v>
+        <v>5420</v>
       </c>
     </row>
     <row r="688" spans="1:8">
@@ -43238,17 +43233,17 @@
         <v>3128</v>
       </c>
       <c r="I688" s="1" t="s">
-        <v>5422</v>
+        <v>5421</v>
       </c>
       <c r="J688" s="1"/>
       <c r="K688" s="1" t="s">
-        <v>5423</v>
+        <v>5422</v>
       </c>
       <c r="L688" s="1" t="s">
         <v>3654</v>
       </c>
       <c r="M688" s="1" t="s">
-        <v>5424</v>
+        <v>5423</v>
       </c>
     </row>
     <row r="689" spans="1:8">
@@ -43277,17 +43272,17 @@
         <v>3131</v>
       </c>
       <c r="I689" s="1" t="s">
-        <v>4686</v>
+        <v>4685</v>
       </c>
       <c r="J689" s="1"/>
       <c r="K689" s="1" t="s">
-        <v>5425</v>
+        <v>5424</v>
       </c>
       <c r="L689" s="1" t="s">
         <v>3692</v>
       </c>
       <c r="M689" s="1" t="s">
-        <v>5426</v>
+        <v>5425</v>
       </c>
     </row>
     <row r="690" spans="1:8">
@@ -43316,17 +43311,17 @@
         <v>3135</v>
       </c>
       <c r="I690" s="1" t="s">
-        <v>5427</v>
+        <v>5426</v>
       </c>
       <c r="J690" s="1"/>
       <c r="K690" s="1" t="s">
-        <v>5428</v>
+        <v>5427</v>
       </c>
       <c r="L690" s="1" t="s">
         <v>3692</v>
       </c>
       <c r="M690" s="1" t="s">
-        <v>5429</v>
+        <v>5428</v>
       </c>
     </row>
     <row r="691" spans="1:8">
@@ -43355,17 +43350,17 @@
         <v>3137</v>
       </c>
       <c r="I691" s="1" t="s">
-        <v>5430</v>
+        <v>5429</v>
       </c>
       <c r="J691" s="1"/>
       <c r="K691" s="1" t="s">
-        <v>5431</v>
+        <v>5430</v>
       </c>
       <c r="L691" s="1" t="s">
         <v>3692</v>
       </c>
       <c r="M691" s="1" t="s">
-        <v>5432</v>
+        <v>5431</v>
       </c>
     </row>
     <row r="692" spans="1:8">
@@ -43394,17 +43389,17 @@
         <v>3141</v>
       </c>
       <c r="I692" s="1" t="s">
-        <v>5433</v>
+        <v>5432</v>
       </c>
       <c r="J692" s="1"/>
       <c r="K692" s="1" t="s">
-        <v>5434</v>
+        <v>5433</v>
       </c>
       <c r="L692" s="1" t="s">
         <v>3809</v>
       </c>
       <c r="M692" s="1" t="s">
-        <v>5435</v>
+        <v>5434</v>
       </c>
     </row>
     <row r="693" spans="1:8">
@@ -43433,17 +43428,17 @@
         <v>3144</v>
       </c>
       <c r="I693" s="1" t="s">
-        <v>5436</v>
+        <v>5435</v>
       </c>
       <c r="J693" s="1"/>
       <c r="K693" s="1" t="s">
+        <v>5436</v>
+      </c>
+      <c r="L693" s="1" t="s">
+        <v>4675</v>
+      </c>
+      <c r="M693" s="1" t="s">
         <v>5437</v>
-      </c>
-      <c r="L693" s="1" t="s">
-        <v>4676</v>
-      </c>
-      <c r="M693" s="1" t="s">
-        <v>5438</v>
       </c>
     </row>
     <row r="694" spans="1:8">
@@ -43472,17 +43467,17 @@
         <v>3149</v>
       </c>
       <c r="I694" s="1" t="s">
-        <v>5439</v>
+        <v>5438</v>
       </c>
       <c r="J694" s="1"/>
       <c r="K694" s="1" t="s">
-        <v>5440</v>
+        <v>5439</v>
       </c>
       <c r="L694" s="1" t="s">
         <v>3664</v>
       </c>
       <c r="M694" s="1" t="s">
-        <v>5441</v>
+        <v>5440</v>
       </c>
     </row>
     <row r="695" spans="1:8">
@@ -43505,17 +43500,17 @@
         <v>3153</v>
       </c>
       <c r="I695" s="1" t="s">
-        <v>4710</v>
+        <v>4709</v>
       </c>
       <c r="J695" s="1"/>
       <c r="K695" s="1" t="s">
-        <v>5442</v>
+        <v>5441</v>
       </c>
       <c r="L695" s="1" t="s">
         <v>4013</v>
       </c>
       <c r="M695" s="1" t="s">
-        <v>5443</v>
+        <v>5442</v>
       </c>
     </row>
     <row r="696" spans="1:8">
@@ -43544,17 +43539,17 @@
         <v>3159</v>
       </c>
       <c r="I696" s="1" t="s">
-        <v>5444</v>
+        <v>5443</v>
       </c>
       <c r="J696" s="1"/>
       <c r="K696" s="1" t="s">
-        <v>5445</v>
+        <v>5444</v>
       </c>
       <c r="L696" s="1" t="s">
         <v>3986</v>
       </c>
       <c r="M696" s="1" t="s">
-        <v>5446</v>
+        <v>5445</v>
       </c>
     </row>
     <row r="697" spans="1:8">
@@ -43581,13 +43576,13 @@
       </c>
       <c r="J697" s="1"/>
       <c r="K697" s="1" t="s">
-        <v>5447</v>
+        <v>5446</v>
       </c>
       <c r="L697" s="1" t="s">
         <v>3730</v>
       </c>
       <c r="M697" s="1" t="s">
-        <v>5448</v>
+        <v>5447</v>
       </c>
     </row>
     <row r="698" spans="1:8">
@@ -43614,13 +43609,13 @@
       </c>
       <c r="J698" s="1"/>
       <c r="K698" s="1" t="s">
-        <v>5449</v>
+        <v>5448</v>
       </c>
       <c r="L698" s="1" t="s">
         <v>3692</v>
       </c>
       <c r="M698" s="1" t="s">
-        <v>5450</v>
+        <v>5449</v>
       </c>
     </row>
     <row r="699" spans="1:8">
@@ -43647,13 +43642,13 @@
       </c>
       <c r="J699" s="1"/>
       <c r="K699" s="1" t="s">
-        <v>5451</v>
+        <v>5450</v>
       </c>
       <c r="L699" s="1" t="s">
         <v>3692</v>
       </c>
       <c r="M699" s="1" t="s">
-        <v>5452</v>
+        <v>5451</v>
       </c>
     </row>
     <row r="700" spans="1:8">
@@ -43682,17 +43677,17 @@
         <v>3173</v>
       </c>
       <c r="I700" s="1" t="s">
-        <v>5453</v>
+        <v>5452</v>
       </c>
       <c r="J700" s="1"/>
       <c r="K700" s="1" t="s">
-        <v>5454</v>
+        <v>5453</v>
       </c>
       <c r="L700" s="1" t="s">
         <v>3730</v>
       </c>
       <c r="M700" s="1" t="s">
-        <v>5455</v>
+        <v>5454</v>
       </c>
     </row>
     <row r="701" spans="1:8">
@@ -43721,17 +43716,17 @@
         <v>3177</v>
       </c>
       <c r="I701" s="1" t="s">
-        <v>4802</v>
+        <v>4801</v>
       </c>
       <c r="J701" s="1"/>
       <c r="K701" s="1" t="s">
-        <v>5456</v>
+        <v>5455</v>
       </c>
       <c r="L701" s="1" t="s">
         <v>3692</v>
       </c>
       <c r="M701" s="1" t="s">
-        <v>5457</v>
+        <v>5456</v>
       </c>
     </row>
     <row r="702" spans="1:8">
@@ -43760,17 +43755,17 @@
         <v>3181</v>
       </c>
       <c r="I702" s="1" t="s">
-        <v>5458</v>
+        <v>5457</v>
       </c>
       <c r="J702" s="1"/>
       <c r="K702" s="1" t="s">
-        <v>5459</v>
+        <v>5458</v>
       </c>
       <c r="L702" s="1" t="s">
         <v>3664</v>
       </c>
       <c r="M702" s="1" t="s">
-        <v>5460</v>
+        <v>5459</v>
       </c>
     </row>
     <row r="703" spans="1:8">
@@ -43799,17 +43794,17 @@
         <v>3184</v>
       </c>
       <c r="I703" s="1" t="s">
-        <v>5461</v>
+        <v>5460</v>
       </c>
       <c r="J703" s="1"/>
       <c r="K703" s="1" t="s">
-        <v>5462</v>
+        <v>5461</v>
       </c>
       <c r="L703" s="1" t="s">
         <v>3664</v>
       </c>
       <c r="M703" s="1" t="s">
-        <v>5463</v>
+        <v>5462</v>
       </c>
     </row>
     <row r="704" spans="1:8">
@@ -43838,17 +43833,17 @@
         <v>3187</v>
       </c>
       <c r="I704" s="1" t="s">
-        <v>5464</v>
+        <v>5463</v>
       </c>
       <c r="J704" s="1"/>
       <c r="K704" s="1" t="s">
-        <v>5465</v>
+        <v>5464</v>
       </c>
       <c r="L704" s="1" t="s">
         <v>3692</v>
       </c>
       <c r="M704" s="1" t="s">
-        <v>5466</v>
+        <v>5465</v>
       </c>
     </row>
     <row r="705" spans="1:8">
@@ -43877,17 +43872,17 @@
         <v>3190</v>
       </c>
       <c r="I705" s="1" t="s">
-        <v>5467</v>
+        <v>5466</v>
       </c>
       <c r="J705" s="1"/>
       <c r="K705" s="1" t="s">
-        <v>5468</v>
+        <v>5467</v>
       </c>
       <c r="L705" s="1" t="s">
         <v>3692</v>
       </c>
       <c r="M705" s="1" t="s">
-        <v>5469</v>
+        <v>5468</v>
       </c>
     </row>
     <row r="706" spans="1:8">
@@ -43916,10 +43911,10 @@
         <v>3195</v>
       </c>
       <c r="I706" s="1" t="s">
+        <v>5469</v>
+      </c>
+      <c r="J706" s="1" t="s">
         <v>5470</v>
-      </c>
-      <c r="J706" s="1" t="s">
-        <v>5471</v>
       </c>
       <c r="K706" s="1" t="s">
         <v>4490</v>
@@ -43928,7 +43923,7 @@
         <v>3692</v>
       </c>
       <c r="M706" s="1" t="s">
-        <v>5472</v>
+        <v>5471</v>
       </c>
     </row>
     <row r="707" spans="1:8">
@@ -43957,17 +43952,17 @@
         <v>3199</v>
       </c>
       <c r="I707" s="1" t="s">
-        <v>5473</v>
+        <v>5472</v>
       </c>
       <c r="J707" s="1"/>
       <c r="K707" s="1" t="s">
-        <v>5474</v>
+        <v>5473</v>
       </c>
       <c r="L707" s="1" t="s">
         <v>3809</v>
       </c>
       <c r="M707" s="1" t="s">
-        <v>5475</v>
+        <v>5474</v>
       </c>
     </row>
     <row r="708" spans="1:8">
@@ -43996,19 +43991,19 @@
         <v>3201</v>
       </c>
       <c r="I708" s="1" t="s">
+        <v>5475</v>
+      </c>
+      <c r="J708" s="1" t="s">
         <v>5476</v>
       </c>
-      <c r="J708" s="1" t="s">
+      <c r="K708" s="1" t="s">
         <v>5477</v>
-      </c>
-      <c r="K708" s="1" t="s">
-        <v>5478</v>
       </c>
       <c r="L708" s="1" t="s">
         <v>3692</v>
       </c>
       <c r="M708" s="1" t="s">
-        <v>5479</v>
+        <v>5478</v>
       </c>
     </row>
     <row r="709" spans="1:8">
@@ -44037,17 +44032,17 @@
         <v>3204</v>
       </c>
       <c r="I709" s="1" t="s">
-        <v>5480</v>
+        <v>5479</v>
       </c>
       <c r="J709" s="1"/>
       <c r="K709" s="1" t="s">
-        <v>5481</v>
+        <v>5480</v>
       </c>
       <c r="L709" s="1" t="s">
         <v>3942</v>
       </c>
       <c r="M709" s="1" t="s">
-        <v>5482</v>
+        <v>5481</v>
       </c>
     </row>
     <row r="710" spans="1:8">
@@ -44076,17 +44071,17 @@
         <v>3208</v>
       </c>
       <c r="I710" s="1" t="s">
-        <v>5483</v>
+        <v>5482</v>
       </c>
       <c r="J710" s="1"/>
       <c r="K710" s="1" t="s">
-        <v>5484</v>
+        <v>5483</v>
       </c>
       <c r="L710" s="1" t="s">
         <v>4013</v>
       </c>
       <c r="M710" s="1" t="s">
-        <v>5485</v>
+        <v>5484</v>
       </c>
     </row>
     <row r="711" spans="1:8">
@@ -44109,7 +44104,7 @@
         <v>3211</v>
       </c>
       <c r="I711" s="1" t="s">
-        <v>5486</v>
+        <v>5485</v>
       </c>
       <c r="J711" s="1"/>
       <c r="K711" s="1" t="s">
@@ -44119,7 +44114,7 @@
         <v>4013</v>
       </c>
       <c r="M711" s="1" t="s">
-        <v>5487</v>
+        <v>5486</v>
       </c>
     </row>
     <row r="712" spans="1:8">
@@ -44148,17 +44143,17 @@
         <v>3213</v>
       </c>
       <c r="I712" s="1" t="s">
-        <v>4636</v>
+        <v>4635</v>
       </c>
       <c r="J712" s="1"/>
       <c r="K712" s="1" t="s">
-        <v>5488</v>
+        <v>5487</v>
       </c>
       <c r="L712" s="1" t="s">
         <v>3692</v>
       </c>
       <c r="M712" s="1" t="s">
-        <v>5489</v>
+        <v>5488</v>
       </c>
     </row>
     <row r="713" spans="1:8">
@@ -44187,17 +44182,17 @@
         <v>3217</v>
       </c>
       <c r="I713" s="1" t="s">
-        <v>5467</v>
+        <v>5466</v>
       </c>
       <c r="J713" s="1"/>
       <c r="K713" s="1" t="s">
-        <v>5490</v>
+        <v>5489</v>
       </c>
       <c r="L713" s="1" t="s">
         <v>3692</v>
       </c>
       <c r="M713" s="1" t="s">
-        <v>5491</v>
+        <v>5490</v>
       </c>
     </row>
     <row r="714" spans="1:8">
@@ -44236,7 +44231,7 @@
         <v>3778</v>
       </c>
       <c r="M714" s="1" t="s">
-        <v>5492</v>
+        <v>5491</v>
       </c>
     </row>
     <row r="715" spans="1:8">
@@ -44265,17 +44260,17 @@
         <v>3227</v>
       </c>
       <c r="I715" s="1" t="s">
-        <v>5493</v>
+        <v>5492</v>
       </c>
       <c r="J715" s="1"/>
       <c r="K715" s="1" t="s">
-        <v>5494</v>
+        <v>5493</v>
       </c>
       <c r="L715" s="1" t="s">
         <v>3692</v>
       </c>
       <c r="M715" s="1" t="s">
-        <v>5495</v>
+        <v>5494</v>
       </c>
     </row>
     <row r="716" spans="1:8">
@@ -44308,7 +44303,7 @@
         <v>4402</v>
       </c>
       <c r="M716" s="1" t="s">
-        <v>5496</v>
+        <v>5495</v>
       </c>
     </row>
     <row r="717" spans="1:8">
@@ -44331,17 +44326,17 @@
         <v>3233</v>
       </c>
       <c r="I717" s="1" t="s">
-        <v>5497</v>
+        <v>5496</v>
       </c>
       <c r="J717" s="1"/>
       <c r="K717" s="1" t="s">
         <v>4039</v>
       </c>
       <c r="L717" s="1" t="s">
-        <v>4676</v>
+        <v>4675</v>
       </c>
       <c r="M717" s="1" t="s">
-        <v>5498</v>
+        <v>5497</v>
       </c>
     </row>
     <row r="718" spans="1:8">
@@ -44364,17 +44359,17 @@
         <v>3236</v>
       </c>
       <c r="I718" s="1" t="s">
-        <v>5499</v>
+        <v>5498</v>
       </c>
       <c r="J718" s="1"/>
       <c r="K718" s="1" t="s">
-        <v>5500</v>
+        <v>5499</v>
       </c>
       <c r="L718" s="1" t="s">
         <v>3778</v>
       </c>
       <c r="M718" s="1" t="s">
-        <v>5501</v>
+        <v>5500</v>
       </c>
     </row>
     <row r="719" spans="1:8">
@@ -44407,13 +44402,13 @@
       </c>
       <c r="J719" s="1"/>
       <c r="K719" s="1" t="s">
-        <v>5502</v>
+        <v>5501</v>
       </c>
       <c r="L719" s="1" t="s">
         <v>3809</v>
       </c>
       <c r="M719" s="1" t="s">
-        <v>5503</v>
+        <v>5502</v>
       </c>
     </row>
     <row r="720" spans="1:8">
@@ -44446,13 +44441,13 @@
       </c>
       <c r="J720" s="1"/>
       <c r="K720" s="1" t="s">
-        <v>5268</v>
+        <v>5267</v>
       </c>
       <c r="L720" s="1" t="s">
         <v>3692</v>
       </c>
       <c r="M720" s="1" t="s">
-        <v>5504</v>
+        <v>5503</v>
       </c>
     </row>
     <row r="721" spans="1:8">
@@ -44481,17 +44476,17 @@
         <v>3249</v>
       </c>
       <c r="I721" s="1" t="s">
-        <v>4744</v>
+        <v>4743</v>
       </c>
       <c r="J721" s="1"/>
       <c r="K721" s="1" t="s">
-        <v>5505</v>
+        <v>5504</v>
       </c>
       <c r="L721" s="1" t="s">
         <v>3675</v>
       </c>
       <c r="M721" s="1" t="s">
-        <v>5506</v>
+        <v>5505</v>
       </c>
     </row>
     <row r="722" spans="1:8">
@@ -44520,17 +44515,17 @@
         <v>3252</v>
       </c>
       <c r="I722" s="1" t="s">
-        <v>5507</v>
+        <v>5506</v>
       </c>
       <c r="J722" s="1"/>
       <c r="K722" s="1" t="s">
-        <v>5508</v>
+        <v>5507</v>
       </c>
       <c r="L722" s="1" t="s">
         <v>3692</v>
       </c>
       <c r="M722" s="1" t="s">
-        <v>5509</v>
+        <v>5508</v>
       </c>
     </row>
     <row r="723" spans="1:8">
@@ -44563,13 +44558,13 @@
       </c>
       <c r="J723" s="1"/>
       <c r="K723" s="1" t="s">
-        <v>5510</v>
+        <v>5509</v>
       </c>
       <c r="L723" s="1" t="s">
         <v>3969</v>
       </c>
       <c r="M723" s="1" t="s">
-        <v>5511</v>
+        <v>5510</v>
       </c>
     </row>
     <row r="724" spans="1:8">
@@ -44598,17 +44593,17 @@
         <v>3258</v>
       </c>
       <c r="I724" s="1" t="s">
-        <v>5512</v>
+        <v>5511</v>
       </c>
       <c r="J724" s="1"/>
       <c r="K724" s="1" t="s">
-        <v>5513</v>
+        <v>5512</v>
       </c>
       <c r="L724" s="1" t="s">
         <v>3692</v>
       </c>
       <c r="M724" s="1" t="s">
-        <v>5514</v>
+        <v>5513</v>
       </c>
     </row>
     <row r="725" spans="1:8">
@@ -44637,17 +44632,17 @@
         <v>3262</v>
       </c>
       <c r="I725" s="1" t="s">
-        <v>5515</v>
+        <v>5514</v>
       </c>
       <c r="J725" s="1"/>
       <c r="K725" s="1" t="s">
-        <v>5516</v>
+        <v>5515</v>
       </c>
       <c r="L725" s="1" t="s">
         <v>3965</v>
       </c>
       <c r="M725" s="1" t="s">
-        <v>5517</v>
+        <v>5516</v>
       </c>
     </row>
     <row r="726" spans="1:8">
@@ -44680,13 +44675,13 @@
       </c>
       <c r="J726" s="1"/>
       <c r="K726" s="1" t="s">
-        <v>5518</v>
+        <v>5517</v>
       </c>
       <c r="L726" s="1" t="s">
         <v>3730</v>
       </c>
       <c r="M726" s="1" t="s">
-        <v>5519</v>
+        <v>5518</v>
       </c>
     </row>
     <row r="727" spans="1:8">
@@ -44715,17 +44710,17 @@
         <v>3270</v>
       </c>
       <c r="I727" s="1" t="s">
-        <v>5520</v>
+        <v>5519</v>
       </c>
       <c r="J727" s="1"/>
       <c r="K727" s="1" t="s">
-        <v>5521</v>
+        <v>5520</v>
       </c>
       <c r="L727" s="1" t="s">
         <v>3654</v>
       </c>
       <c r="M727" s="1" t="s">
-        <v>5522</v>
+        <v>5521</v>
       </c>
     </row>
     <row r="728" spans="1:8">
@@ -44764,7 +44759,7 @@
         <v>3675</v>
       </c>
       <c r="M728" s="1" t="s">
-        <v>5523</v>
+        <v>5522</v>
       </c>
     </row>
     <row r="729" spans="1:8">
@@ -44791,13 +44786,13 @@
       </c>
       <c r="J729" s="1"/>
       <c r="K729" s="1" t="s">
-        <v>5524</v>
+        <v>5523</v>
       </c>
       <c r="L729" s="1" t="s">
         <v>3730</v>
       </c>
       <c r="M729" s="1" t="s">
-        <v>5525</v>
+        <v>5524</v>
       </c>
     </row>
     <row r="730" spans="1:8">
@@ -44820,11 +44815,11 @@
         <v>3280</v>
       </c>
       <c r="I730" s="1" t="s">
-        <v>4650</v>
+        <v>4649</v>
       </c>
       <c r="J730" s="1"/>
       <c r="K730" s="1" t="s">
-        <v>5526</v>
+        <v>5525</v>
       </c>
       <c r="L730" s="1" t="s">
         <v>3635</v>
@@ -44857,17 +44852,17 @@
         <v>3286</v>
       </c>
       <c r="I731" s="1" t="s">
-        <v>5527</v>
+        <v>5526</v>
       </c>
       <c r="J731" s="1"/>
       <c r="K731" s="1" t="s">
-        <v>5528</v>
+        <v>5527</v>
       </c>
       <c r="L731" s="1" t="s">
         <v>3692</v>
       </c>
       <c r="M731" s="1" t="s">
-        <v>5529</v>
+        <v>5528</v>
       </c>
     </row>
     <row r="732" spans="1:8">
@@ -44896,17 +44891,17 @@
         <v>3288</v>
       </c>
       <c r="I732" s="1" t="s">
-        <v>5530</v>
+        <v>5529</v>
       </c>
       <c r="J732" s="1"/>
       <c r="K732" s="1" t="s">
-        <v>5531</v>
+        <v>5530</v>
       </c>
       <c r="L732" s="1" t="s">
         <v>3692</v>
       </c>
       <c r="M732" s="1" t="s">
-        <v>5532</v>
+        <v>5531</v>
       </c>
     </row>
     <row r="733" spans="1:8">
@@ -44935,17 +44930,17 @@
         <v>3290</v>
       </c>
       <c r="I733" s="1" t="s">
-        <v>5533</v>
+        <v>5532</v>
       </c>
       <c r="J733" s="1"/>
       <c r="K733" s="1" t="s">
-        <v>5534</v>
+        <v>5533</v>
       </c>
       <c r="L733" s="1" t="s">
         <v>3692</v>
       </c>
       <c r="M733" s="1" t="s">
-        <v>5535</v>
+        <v>5534</v>
       </c>
     </row>
     <row r="734" spans="1:8">
@@ -44974,17 +44969,17 @@
         <v>3295</v>
       </c>
       <c r="I734" s="1" t="s">
-        <v>5536</v>
+        <v>5535</v>
       </c>
       <c r="J734" s="1"/>
       <c r="K734" s="1" t="s">
-        <v>5537</v>
+        <v>5536</v>
       </c>
       <c r="L734" s="1" t="s">
         <v>3692</v>
       </c>
       <c r="M734" s="1" t="s">
-        <v>5538</v>
+        <v>5537</v>
       </c>
     </row>
     <row r="735" spans="1:8">
@@ -45013,17 +45008,17 @@
         <v>3301</v>
       </c>
       <c r="I735" s="1" t="s">
-        <v>5539</v>
+        <v>5538</v>
       </c>
       <c r="J735" s="1"/>
       <c r="K735" s="1" t="s">
-        <v>5540</v>
+        <v>5539</v>
       </c>
       <c r="L735" s="1" t="s">
         <v>3809</v>
       </c>
       <c r="M735" s="1" t="s">
-        <v>5541</v>
+        <v>5540</v>
       </c>
     </row>
     <row r="736" spans="1:8">
@@ -45056,13 +45051,13 @@
       </c>
       <c r="J736" s="1"/>
       <c r="K736" s="1" t="s">
-        <v>5542</v>
+        <v>5541</v>
       </c>
       <c r="L736" s="1" t="s">
         <v>3664</v>
       </c>
       <c r="M736" s="1" t="s">
-        <v>5543</v>
+        <v>5542</v>
       </c>
     </row>
     <row r="737" spans="1:8">
@@ -45095,13 +45090,13 @@
       </c>
       <c r="J737" s="1"/>
       <c r="K737" s="1" t="s">
-        <v>5544</v>
+        <v>5543</v>
       </c>
       <c r="L737" s="1" t="s">
         <v>3692</v>
       </c>
       <c r="M737" s="1" t="s">
-        <v>5545</v>
+        <v>5544</v>
       </c>
     </row>
     <row r="738" spans="1:8">
@@ -45128,13 +45123,13 @@
       </c>
       <c r="J738" s="1"/>
       <c r="K738" s="1" t="s">
-        <v>5546</v>
+        <v>5545</v>
       </c>
       <c r="L738" s="1" t="s">
         <v>3692</v>
       </c>
       <c r="M738" s="1" t="s">
-        <v>5547</v>
+        <v>5546</v>
       </c>
     </row>
     <row r="739" spans="1:8">
@@ -45163,17 +45158,17 @@
         <v>3314</v>
       </c>
       <c r="I739" s="1" t="s">
-        <v>5548</v>
+        <v>5547</v>
       </c>
       <c r="J739" s="1"/>
       <c r="K739" s="1" t="s">
-        <v>5549</v>
+        <v>5548</v>
       </c>
       <c r="L739" s="1" t="s">
         <v>3692</v>
       </c>
       <c r="M739" s="1" t="s">
-        <v>5550</v>
+        <v>5549</v>
       </c>
     </row>
     <row r="740" spans="1:8">
@@ -45196,17 +45191,17 @@
         <v>3317</v>
       </c>
       <c r="I740" s="1" t="s">
-        <v>5551</v>
+        <v>5550</v>
       </c>
       <c r="J740" s="1"/>
       <c r="K740" s="1" t="s">
-        <v>5552</v>
+        <v>5551</v>
       </c>
       <c r="L740" s="1" t="s">
         <v>3730</v>
       </c>
       <c r="M740" s="1" t="s">
-        <v>5553</v>
+        <v>5552</v>
       </c>
     </row>
     <row r="741" spans="1:8">
@@ -45235,17 +45230,17 @@
         <v>3319</v>
       </c>
       <c r="I741" s="1" t="s">
-        <v>5554</v>
+        <v>5553</v>
       </c>
       <c r="J741" s="1"/>
       <c r="K741" s="1" t="s">
-        <v>5555</v>
+        <v>5554</v>
       </c>
       <c r="L741" s="1" t="s">
         <v>3692</v>
       </c>
       <c r="M741" s="1" t="s">
-        <v>5556</v>
+        <v>5555</v>
       </c>
     </row>
     <row r="742" spans="1:8">
@@ -45278,13 +45273,13 @@
       </c>
       <c r="J742" s="1"/>
       <c r="K742" s="1" t="s">
-        <v>5557</v>
+        <v>5556</v>
       </c>
       <c r="L742" s="1" t="s">
         <v>3692</v>
       </c>
       <c r="M742" s="1" t="s">
-        <v>5558</v>
+        <v>5557</v>
       </c>
     </row>
     <row r="743" spans="1:8">
@@ -45313,7 +45308,7 @@
         <v>3328</v>
       </c>
       <c r="I743" s="1" t="s">
-        <v>5559</v>
+        <v>5558</v>
       </c>
       <c r="J743" s="1"/>
       <c r="K743" s="1" t="s">
@@ -45323,7 +45318,7 @@
         <v>4188</v>
       </c>
       <c r="M743" s="1" t="s">
-        <v>5560</v>
+        <v>5559</v>
       </c>
     </row>
     <row r="744" spans="1:8">
@@ -45352,17 +45347,17 @@
         <v>3333</v>
       </c>
       <c r="I744" s="1" t="s">
-        <v>5561</v>
+        <v>5560</v>
       </c>
       <c r="J744" s="1"/>
       <c r="K744" s="1" t="s">
-        <v>5562</v>
+        <v>5561</v>
       </c>
       <c r="L744" s="1" t="s">
         <v>3692</v>
       </c>
       <c r="M744" s="1" t="s">
-        <v>5563</v>
+        <v>5562</v>
       </c>
     </row>
     <row r="745" spans="1:8">
@@ -45391,17 +45386,17 @@
         <v>3336</v>
       </c>
       <c r="I745" s="1" t="s">
-        <v>5392</v>
+        <v>5391</v>
       </c>
       <c r="J745" s="1"/>
       <c r="K745" s="1" t="s">
-        <v>4697</v>
+        <v>4696</v>
       </c>
       <c r="L745" s="1" t="s">
         <v>3778</v>
       </c>
       <c r="M745" s="1" t="s">
-        <v>5564</v>
+        <v>5563</v>
       </c>
     </row>
     <row r="746" spans="1:8">
@@ -45430,7 +45425,7 @@
         <v>3341</v>
       </c>
       <c r="I746" s="1" t="s">
-        <v>5565</v>
+        <v>5564</v>
       </c>
       <c r="J746" s="1"/>
       <c r="K746" s="1" t="s">
@@ -45440,7 +45435,7 @@
         <v>3631</v>
       </c>
       <c r="M746" s="1" t="s">
-        <v>5566</v>
+        <v>5565</v>
       </c>
     </row>
     <row r="747" spans="1:8">
@@ -45463,19 +45458,19 @@
         <v>3345</v>
       </c>
       <c r="I747" s="1" t="s">
+        <v>5566</v>
+      </c>
+      <c r="J747" s="1" t="s">
         <v>5567</v>
       </c>
-      <c r="J747" s="1" t="s">
+      <c r="K747" s="1" t="s">
         <v>5568</v>
-      </c>
-      <c r="K747" s="1" t="s">
-        <v>5569</v>
       </c>
       <c r="L747" s="1" t="s">
         <v>3692</v>
       </c>
       <c r="M747" s="1" t="s">
-        <v>5570</v>
+        <v>5569</v>
       </c>
     </row>
     <row r="748" spans="1:8">
@@ -45504,17 +45499,17 @@
         <v>3349</v>
       </c>
       <c r="I748" s="1" t="s">
-        <v>5571</v>
+        <v>5570</v>
       </c>
       <c r="J748" s="1"/>
       <c r="K748" s="1" t="s">
-        <v>5572</v>
+        <v>5571</v>
       </c>
       <c r="L748" s="1" t="s">
         <v>3965</v>
       </c>
       <c r="M748" s="1" t="s">
-        <v>5573</v>
+        <v>5572</v>
       </c>
     </row>
     <row r="749" spans="1:8">
@@ -45543,7 +45538,7 @@
         <v>3353</v>
       </c>
       <c r="I749" s="1" t="s">
-        <v>5574</v>
+        <v>5573</v>
       </c>
       <c r="J749" s="1"/>
       <c r="K749" s="1" t="s">
@@ -45553,7 +45548,7 @@
         <v>3654</v>
       </c>
       <c r="M749" s="1" t="s">
-        <v>5575</v>
+        <v>5574</v>
       </c>
     </row>
     <row r="750" spans="1:8">
@@ -45582,17 +45577,17 @@
         <v>3355</v>
       </c>
       <c r="I750" s="1" t="s">
-        <v>5576</v>
+        <v>5575</v>
       </c>
       <c r="J750" s="1"/>
       <c r="K750" s="1" t="s">
-        <v>4798</v>
+        <v>4797</v>
       </c>
       <c r="L750" s="1" t="s">
         <v>3730</v>
       </c>
       <c r="M750" s="1" t="s">
-        <v>5577</v>
+        <v>5576</v>
       </c>
     </row>
     <row r="751" spans="1:8">
@@ -45615,17 +45610,17 @@
         <v>3357</v>
       </c>
       <c r="I751" s="1" t="s">
-        <v>5578</v>
+        <v>5577</v>
       </c>
       <c r="J751" s="1"/>
       <c r="K751" s="1" t="s">
-        <v>5579</v>
+        <v>5578</v>
       </c>
       <c r="L751" s="1" t="s">
         <v>3692</v>
       </c>
       <c r="M751" s="1" t="s">
-        <v>5580</v>
+        <v>5579</v>
       </c>
     </row>
     <row r="752" spans="1:8">
@@ -45654,17 +45649,17 @@
         <v>3360</v>
       </c>
       <c r="I752" s="1" t="s">
-        <v>4885</v>
+        <v>4884</v>
       </c>
       <c r="J752" s="1"/>
       <c r="K752" s="1" t="s">
-        <v>5581</v>
+        <v>5580</v>
       </c>
       <c r="L752" s="1" t="s">
         <v>3692</v>
       </c>
       <c r="M752" s="1" t="s">
-        <v>5582</v>
+        <v>5581</v>
       </c>
     </row>
     <row r="753" spans="1:8">
@@ -45693,7 +45688,7 @@
         <v>3366</v>
       </c>
       <c r="I753" s="1" t="s">
-        <v>5583</v>
+        <v>5582</v>
       </c>
       <c r="J753" s="1"/>
       <c r="K753" s="1" t="s">
@@ -45703,7 +45698,7 @@
         <v>3616</v>
       </c>
       <c r="M753" s="1" t="s">
-        <v>5584</v>
+        <v>5583</v>
       </c>
     </row>
     <row r="754" spans="1:8">
@@ -45732,17 +45727,17 @@
         <v>3368</v>
       </c>
       <c r="I754" s="1" t="s">
-        <v>4646</v>
+        <v>4645</v>
       </c>
       <c r="J754" s="1"/>
       <c r="K754" s="1" t="s">
-        <v>5585</v>
+        <v>5584</v>
       </c>
       <c r="L754" s="1" t="s">
         <v>3730</v>
       </c>
       <c r="M754" s="1" t="s">
-        <v>5586</v>
+        <v>5585</v>
       </c>
     </row>
     <row r="755" spans="1:8">
@@ -45775,13 +45770,13 @@
       </c>
       <c r="J755" s="1"/>
       <c r="K755" s="1" t="s">
-        <v>5587</v>
+        <v>5586</v>
       </c>
       <c r="L755" s="1" t="s">
         <v>3730</v>
       </c>
       <c r="M755" s="1" t="s">
-        <v>5588</v>
+        <v>5587</v>
       </c>
     </row>
     <row r="756" spans="1:8">
@@ -45810,17 +45805,17 @@
         <v>3374</v>
       </c>
       <c r="I756" s="1" t="s">
-        <v>5574</v>
+        <v>5573</v>
       </c>
       <c r="J756" s="1"/>
       <c r="K756" s="1" t="s">
-        <v>5589</v>
+        <v>5588</v>
       </c>
       <c r="L756" s="1" t="s">
         <v>3730</v>
       </c>
       <c r="M756" s="1" t="s">
-        <v>5590</v>
+        <v>5589</v>
       </c>
     </row>
     <row r="757" spans="1:8">
@@ -45849,17 +45844,17 @@
         <v>3380</v>
       </c>
       <c r="I757" s="1" t="s">
-        <v>5591</v>
+        <v>5590</v>
       </c>
       <c r="J757" s="1"/>
       <c r="K757" s="1" t="s">
-        <v>5592</v>
+        <v>5591</v>
       </c>
       <c r="L757" s="1" t="s">
         <v>4195</v>
       </c>
       <c r="M757" s="1" t="s">
-        <v>5593</v>
+        <v>5592</v>
       </c>
     </row>
     <row r="758" spans="1:8">
@@ -45888,17 +45883,17 @@
         <v>3382</v>
       </c>
       <c r="I758" s="1" t="s">
-        <v>5594</v>
+        <v>5593</v>
       </c>
       <c r="J758" s="1"/>
       <c r="K758" s="1" t="s">
-        <v>5595</v>
+        <v>5594</v>
       </c>
       <c r="L758" s="1" t="s">
         <v>3692</v>
       </c>
       <c r="M758" s="1" t="s">
-        <v>5596</v>
+        <v>5595</v>
       </c>
     </row>
     <row r="759" spans="1:8">
@@ -45927,7 +45922,7 @@
         <v>3387</v>
       </c>
       <c r="I759" s="1" t="s">
-        <v>5597</v>
+        <v>5596</v>
       </c>
       <c r="J759" s="1"/>
       <c r="K759" s="1" t="s">
@@ -45937,7 +45932,7 @@
         <v>3846</v>
       </c>
       <c r="M759" s="1" t="s">
-        <v>5598</v>
+        <v>5597</v>
       </c>
     </row>
     <row r="760" spans="1:8">
@@ -45964,13 +45959,13 @@
       </c>
       <c r="J760" s="1"/>
       <c r="K760" s="1" t="s">
-        <v>5599</v>
+        <v>5598</v>
       </c>
       <c r="L760" s="1" t="s">
         <v>3809</v>
       </c>
       <c r="M760" s="1" t="s">
-        <v>5600</v>
+        <v>5599</v>
       </c>
     </row>
     <row r="761" spans="1:8">
@@ -46003,13 +45998,13 @@
       </c>
       <c r="J761" s="1"/>
       <c r="K761" s="1" t="s">
-        <v>5601</v>
+        <v>5600</v>
       </c>
       <c r="L761" s="1" t="s">
         <v>3654</v>
       </c>
       <c r="M761" s="1" t="s">
-        <v>5602</v>
+        <v>5601</v>
       </c>
     </row>
     <row r="762" spans="1:8">
@@ -46038,17 +46033,17 @@
         <v>3400</v>
       </c>
       <c r="I762" s="1" t="s">
-        <v>5392</v>
+        <v>5391</v>
       </c>
       <c r="J762" s="1"/>
       <c r="K762" s="1" t="s">
-        <v>5603</v>
+        <v>5602</v>
       </c>
       <c r="L762" s="1" t="s">
         <v>3965</v>
       </c>
       <c r="M762" s="1" t="s">
-        <v>5604</v>
+        <v>5603</v>
       </c>
     </row>
     <row r="763" spans="1:8">
@@ -46077,17 +46072,17 @@
         <v>3403</v>
       </c>
       <c r="I763" s="1" t="s">
-        <v>5325</v>
+        <v>5324</v>
       </c>
       <c r="J763" s="1"/>
       <c r="K763" s="1" t="s">
-        <v>5605</v>
+        <v>5604</v>
       </c>
       <c r="L763" s="1" t="s">
         <v>3965</v>
       </c>
       <c r="M763" s="1" t="s">
-        <v>5606</v>
+        <v>5605</v>
       </c>
     </row>
     <row r="764" spans="1:8">
@@ -46120,13 +46115,13 @@
       </c>
       <c r="J764" s="1"/>
       <c r="K764" s="1" t="s">
-        <v>5607</v>
+        <v>5606</v>
       </c>
       <c r="L764" s="1" t="s">
         <v>3692</v>
       </c>
       <c r="M764" s="1" t="s">
-        <v>5608</v>
+        <v>5607</v>
       </c>
     </row>
     <row r="765" spans="1:8">
@@ -46149,17 +46144,17 @@
         <v>3410</v>
       </c>
       <c r="I765" s="1" t="s">
-        <v>5609</v>
+        <v>5608</v>
       </c>
       <c r="J765" s="1"/>
       <c r="K765" s="1" t="s">
-        <v>5610</v>
+        <v>5609</v>
       </c>
       <c r="L765" s="1" t="s">
         <v>3942</v>
       </c>
       <c r="M765" s="1" t="s">
-        <v>5611</v>
+        <v>5610</v>
       </c>
     </row>
     <row r="766" spans="1:8">
@@ -46192,13 +46187,13 @@
       </c>
       <c r="J766" s="1"/>
       <c r="K766" s="1" t="s">
-        <v>5612</v>
+        <v>5611</v>
       </c>
       <c r="L766" s="1" t="s">
         <v>3664</v>
       </c>
       <c r="M766" s="1" t="s">
-        <v>5613</v>
+        <v>5612</v>
       </c>
     </row>
     <row r="767" spans="1:8">
@@ -46227,17 +46222,17 @@
         <v>3420</v>
       </c>
       <c r="I767" s="1" t="s">
-        <v>5376</v>
+        <v>5375</v>
       </c>
       <c r="J767" s="1"/>
       <c r="K767" s="1" t="s">
-        <v>5614</v>
+        <v>5613</v>
       </c>
       <c r="L767" s="1" t="s">
         <v>4075</v>
       </c>
       <c r="M767" s="1" t="s">
-        <v>5615</v>
+        <v>5614</v>
       </c>
     </row>
     <row r="768" spans="1:8">
@@ -46266,17 +46261,17 @@
         <v>3422</v>
       </c>
       <c r="I768" s="1" t="s">
-        <v>5583</v>
+        <v>5582</v>
       </c>
       <c r="J768" s="1"/>
       <c r="K768" s="1" t="s">
-        <v>5616</v>
+        <v>5615</v>
       </c>
       <c r="L768" s="1" t="s">
         <v>3692</v>
       </c>
       <c r="M768" s="1" t="s">
-        <v>5617</v>
+        <v>5616</v>
       </c>
     </row>
     <row r="769" spans="1:8">
@@ -46305,17 +46300,17 @@
         <v>3424</v>
       </c>
       <c r="I769" s="1" t="s">
-        <v>5618</v>
+        <v>5617</v>
       </c>
       <c r="J769" s="1"/>
       <c r="K769" s="1" t="s">
-        <v>5619</v>
+        <v>5618</v>
       </c>
       <c r="L769" s="1" t="s">
         <v>3692</v>
       </c>
       <c r="M769" s="1" t="s">
-        <v>5620</v>
+        <v>5619</v>
       </c>
     </row>
     <row r="770" spans="1:8">
@@ -46338,17 +46333,17 @@
         <v>3426</v>
       </c>
       <c r="I770" s="1" t="s">
-        <v>5621</v>
+        <v>5620</v>
       </c>
       <c r="J770" s="1"/>
       <c r="K770" s="1" t="s">
-        <v>5622</v>
+        <v>5621</v>
       </c>
       <c r="L770" s="1" t="s">
         <v>3692</v>
       </c>
       <c r="M770" s="1" t="s">
-        <v>5623</v>
+        <v>5622</v>
       </c>
     </row>
     <row r="771" spans="1:8">
@@ -46377,17 +46372,17 @@
         <v>3432</v>
       </c>
       <c r="I771" s="1" t="s">
-        <v>5624</v>
+        <v>5623</v>
       </c>
       <c r="J771" s="1"/>
       <c r="K771" s="1" t="s">
-        <v>5625</v>
+        <v>5624</v>
       </c>
       <c r="L771" s="1" t="s">
         <v>3711</v>
       </c>
       <c r="M771" s="1" t="s">
-        <v>5626</v>
+        <v>5625</v>
       </c>
     </row>
     <row r="772" spans="1:8">
@@ -46416,7 +46411,7 @@
         <v>3434</v>
       </c>
       <c r="I772" s="1" t="s">
-        <v>5627</v>
+        <v>5626</v>
       </c>
       <c r="J772" s="1"/>
       <c r="K772" s="1" t="s">
@@ -46426,7 +46421,7 @@
         <v>3730</v>
       </c>
       <c r="M772" s="1" t="s">
-        <v>5628</v>
+        <v>5627</v>
       </c>
     </row>
     <row r="773" spans="1:8">
@@ -46455,17 +46450,17 @@
         <v>3439</v>
       </c>
       <c r="I773" s="1" t="s">
-        <v>5629</v>
+        <v>5628</v>
       </c>
       <c r="J773" s="1"/>
       <c r="K773" s="1" t="s">
-        <v>5630</v>
+        <v>5629</v>
       </c>
       <c r="L773" s="1" t="s">
         <v>3664</v>
       </c>
       <c r="M773" s="1" t="s">
-        <v>5631</v>
+        <v>5630</v>
       </c>
     </row>
     <row r="774" spans="1:8">
@@ -46494,7 +46489,7 @@
         <v>3443</v>
       </c>
       <c r="I774" s="1" t="s">
-        <v>5632</v>
+        <v>5631</v>
       </c>
       <c r="J774" s="1"/>
       <c r="K774" s="1" t="s">
@@ -46504,7 +46499,7 @@
         <v>3778</v>
       </c>
       <c r="M774" s="1" t="s">
-        <v>5633</v>
+        <v>5632</v>
       </c>
     </row>
     <row r="775" spans="1:8">
@@ -46533,17 +46528,17 @@
         <v>3447</v>
       </c>
       <c r="I775" s="1" t="s">
-        <v>4828</v>
+        <v>4827</v>
       </c>
       <c r="J775" s="1"/>
       <c r="K775" s="1" t="s">
-        <v>5634</v>
+        <v>5633</v>
       </c>
       <c r="L775" s="1" t="s">
         <v>3692</v>
       </c>
       <c r="M775" s="1" t="s">
-        <v>5635</v>
+        <v>5634</v>
       </c>
     </row>
     <row r="776" spans="1:8">
@@ -46572,17 +46567,17 @@
         <v>3450</v>
       </c>
       <c r="I776" s="1" t="s">
-        <v>5636</v>
+        <v>5635</v>
       </c>
       <c r="J776" s="1"/>
       <c r="K776" s="1" t="s">
-        <v>5637</v>
+        <v>5636</v>
       </c>
       <c r="L776" s="1" t="s">
         <v>3654</v>
       </c>
       <c r="M776" s="1" t="s">
-        <v>5638</v>
+        <v>5637</v>
       </c>
     </row>
     <row r="777" spans="1:8">
@@ -46611,17 +46606,17 @@
         <v>3453</v>
       </c>
       <c r="I777" s="1" t="s">
-        <v>5639</v>
+        <v>5638</v>
       </c>
       <c r="J777" s="1"/>
       <c r="K777" s="1" t="s">
-        <v>5640</v>
+        <v>5639</v>
       </c>
       <c r="L777" s="1" t="s">
         <v>3730</v>
       </c>
       <c r="M777" s="1" t="s">
-        <v>5641</v>
+        <v>5640</v>
       </c>
     </row>
     <row r="778" spans="1:8">
@@ -46650,7 +46645,7 @@
         <v>3457</v>
       </c>
       <c r="I778" s="1" t="s">
-        <v>5642</v>
+        <v>5641</v>
       </c>
       <c r="J778" s="1"/>
       <c r="K778" s="1" t="s">
@@ -46660,7 +46655,7 @@
         <v>3692</v>
       </c>
       <c r="M778" s="1" t="s">
-        <v>5643</v>
+        <v>5642</v>
       </c>
     </row>
     <row r="779" spans="1:8">
@@ -46689,17 +46684,17 @@
         <v>3462</v>
       </c>
       <c r="I779" s="1" t="s">
-        <v>5226</v>
+        <v>5225</v>
       </c>
       <c r="J779" s="1"/>
       <c r="K779" s="1" t="s">
+        <v>5643</v>
+      </c>
+      <c r="L779" s="1" t="s">
+        <v>4675</v>
+      </c>
+      <c r="M779" s="1" t="s">
         <v>5644</v>
-      </c>
-      <c r="L779" s="1" t="s">
-        <v>4676</v>
-      </c>
-      <c r="M779" s="1" t="s">
-        <v>5645</v>
       </c>
     </row>
     <row r="780" spans="1:8">
@@ -46728,17 +46723,17 @@
         <v>3465</v>
       </c>
       <c r="I780" s="1" t="s">
-        <v>5467</v>
+        <v>5466</v>
       </c>
       <c r="J780" s="1"/>
       <c r="K780" s="1" t="s">
-        <v>5646</v>
+        <v>5645</v>
       </c>
       <c r="L780" s="1" t="s">
         <v>3730</v>
       </c>
       <c r="M780" s="1" t="s">
-        <v>5647</v>
+        <v>5646</v>
       </c>
     </row>
     <row r="781" spans="1:8">
@@ -46771,13 +46766,13 @@
       </c>
       <c r="J781" s="1"/>
       <c r="K781" s="1" t="s">
-        <v>5648</v>
+        <v>5647</v>
       </c>
       <c r="L781" s="1" t="s">
         <v>3730</v>
       </c>
       <c r="M781" s="1" t="s">
-        <v>5649</v>
+        <v>5648</v>
       </c>
     </row>
     <row r="782" spans="1:8">
@@ -46806,17 +46801,17 @@
         <v>3473</v>
       </c>
       <c r="I782" s="1" t="s">
-        <v>5650</v>
+        <v>5649</v>
       </c>
       <c r="J782" s="1"/>
       <c r="K782" s="1" t="s">
-        <v>5651</v>
+        <v>5650</v>
       </c>
       <c r="L782" s="1" t="s">
         <v>3730</v>
       </c>
       <c r="M782" s="1" t="s">
-        <v>5652</v>
+        <v>5651</v>
       </c>
     </row>
     <row r="783" spans="1:8">
@@ -46843,13 +46838,13 @@
       </c>
       <c r="J783" s="1"/>
       <c r="K783" s="1" t="s">
-        <v>5653</v>
+        <v>5652</v>
       </c>
       <c r="L783" s="1" t="s">
         <v>3654</v>
       </c>
       <c r="M783" s="1" t="s">
-        <v>5654</v>
+        <v>5653</v>
       </c>
     </row>
     <row r="784" spans="1:8">
@@ -46878,17 +46873,17 @@
         <v>3480</v>
       </c>
       <c r="I784" s="1" t="s">
-        <v>5655</v>
+        <v>5654</v>
       </c>
       <c r="J784" s="1"/>
       <c r="K784" s="1" t="s">
-        <v>5656</v>
+        <v>5655</v>
       </c>
       <c r="L784" s="1" t="s">
         <v>4013</v>
       </c>
       <c r="M784" s="1" t="s">
-        <v>5657</v>
+        <v>5656</v>
       </c>
     </row>
     <row r="785" spans="1:8">
@@ -46921,13 +46916,13 @@
       </c>
       <c r="J785" s="1"/>
       <c r="K785" s="1" t="s">
-        <v>5658</v>
+        <v>5657</v>
       </c>
       <c r="L785" s="1" t="s">
         <v>3809</v>
       </c>
       <c r="M785" s="1" t="s">
-        <v>5659</v>
+        <v>5658</v>
       </c>
     </row>
     <row r="786" spans="1:8">
@@ -46960,13 +46955,13 @@
       </c>
       <c r="J786" s="1"/>
       <c r="K786" s="1" t="s">
-        <v>5660</v>
+        <v>5659</v>
       </c>
       <c r="L786" s="1" t="s">
         <v>3730</v>
       </c>
       <c r="M786" s="1" t="s">
-        <v>5661</v>
+        <v>5660</v>
       </c>
     </row>
     <row r="787" spans="1:8">
@@ -46995,17 +46990,17 @@
         <v>3494</v>
       </c>
       <c r="I787" s="1" t="s">
-        <v>4702</v>
+        <v>4701</v>
       </c>
       <c r="J787" s="1"/>
       <c r="K787" s="1" t="s">
-        <v>5662</v>
+        <v>5661</v>
       </c>
       <c r="L787" s="1" t="s">
         <v>3778</v>
       </c>
       <c r="M787" s="1" t="s">
-        <v>5663</v>
+        <v>5662</v>
       </c>
     </row>
     <row r="788" spans="1:8">
@@ -47034,17 +47029,17 @@
         <v>3497</v>
       </c>
       <c r="I788" s="1" t="s">
-        <v>5664</v>
+        <v>5663</v>
       </c>
       <c r="J788" s="1"/>
       <c r="K788" s="1" t="s">
-        <v>5665</v>
+        <v>5664</v>
       </c>
       <c r="L788" s="1" t="s">
         <v>3798</v>
       </c>
       <c r="M788" s="1" t="s">
-        <v>5666</v>
+        <v>5665</v>
       </c>
     </row>
     <row r="789" spans="1:8">
@@ -47077,13 +47072,13 @@
       </c>
       <c r="J789" s="1"/>
       <c r="K789" s="1" t="s">
-        <v>5667</v>
+        <v>5666</v>
       </c>
       <c r="L789" s="1" t="s">
         <v>3692</v>
       </c>
       <c r="M789" s="1" t="s">
-        <v>5668</v>
+        <v>5667</v>
       </c>
     </row>
     <row r="790" spans="1:8">
@@ -47106,17 +47101,17 @@
         <v>3503</v>
       </c>
       <c r="I790" s="1" t="s">
-        <v>5669</v>
+        <v>5668</v>
       </c>
       <c r="J790" s="1"/>
       <c r="K790" s="1" t="s">
-        <v>5670</v>
+        <v>5669</v>
       </c>
       <c r="L790" s="1" t="s">
         <v>3730</v>
       </c>
       <c r="M790" s="1" t="s">
-        <v>5671</v>
+        <v>5670</v>
       </c>
     </row>
     <row r="791" spans="1:8">
@@ -47145,17 +47140,17 @@
         <v>3507</v>
       </c>
       <c r="I791" s="1" t="s">
-        <v>5672</v>
+        <v>5671</v>
       </c>
       <c r="J791" s="1"/>
       <c r="K791" s="1" t="s">
-        <v>4832</v>
+        <v>4831</v>
       </c>
       <c r="L791" s="1" t="s">
         <v>3778</v>
       </c>
       <c r="M791" s="1" t="s">
-        <v>5673</v>
+        <v>5672</v>
       </c>
     </row>
     <row r="792" spans="1:8">
@@ -47184,7 +47179,7 @@
         <v>3511</v>
       </c>
       <c r="I792" s="1" t="s">
-        <v>5674</v>
+        <v>5673</v>
       </c>
       <c r="J792" s="1"/>
       <c r="K792" s="1" t="s">
@@ -47194,7 +47189,7 @@
         <v>3778</v>
       </c>
       <c r="M792" s="1" t="s">
-        <v>5675</v>
+        <v>5674</v>
       </c>
     </row>
     <row r="793" spans="1:8">
@@ -47217,17 +47212,17 @@
         <v>3515</v>
       </c>
       <c r="I793" s="1" t="s">
-        <v>5676</v>
+        <v>5675</v>
       </c>
       <c r="J793" s="1"/>
       <c r="K793" s="1" t="s">
-        <v>5677</v>
+        <v>5676</v>
       </c>
       <c r="L793" s="1" t="s">
         <v>3692</v>
       </c>
       <c r="M793" s="1" t="s">
-        <v>5678</v>
+        <v>5677</v>
       </c>
     </row>
     <row r="794" spans="1:8">
@@ -47250,17 +47245,17 @@
         <v>3519</v>
       </c>
       <c r="I794" s="1" t="s">
-        <v>5679</v>
+        <v>5678</v>
       </c>
       <c r="J794" s="1"/>
       <c r="K794" s="1" t="s">
-        <v>5680</v>
+        <v>5679</v>
       </c>
       <c r="L794" s="1" t="s">
         <v>4338</v>
       </c>
       <c r="M794" s="1" t="s">
-        <v>5681</v>
+        <v>5680</v>
       </c>
     </row>
     <row r="795" spans="1:8">
@@ -47289,17 +47284,17 @@
         <v>3522</v>
       </c>
       <c r="I795" s="1" t="s">
-        <v>5682</v>
+        <v>5681</v>
       </c>
       <c r="J795" s="1"/>
       <c r="K795" s="1" t="s">
-        <v>5683</v>
+        <v>5682</v>
       </c>
       <c r="L795" s="1" t="s">
         <v>3692</v>
       </c>
       <c r="M795" s="1" t="s">
-        <v>5684</v>
+        <v>5683</v>
       </c>
     </row>
     <row r="796" spans="1:8">
@@ -47328,17 +47323,17 @@
         <v>3524</v>
       </c>
       <c r="I796" s="1" t="s">
-        <v>5436</v>
+        <v>5435</v>
       </c>
       <c r="J796" s="1"/>
       <c r="K796" s="1" t="s">
-        <v>5685</v>
+        <v>5684</v>
       </c>
       <c r="L796" s="1" t="s">
         <v>3692</v>
       </c>
       <c r="M796" s="1" t="s">
-        <v>5686</v>
+        <v>5685</v>
       </c>
     </row>
     <row r="797" spans="1:8">
@@ -47377,7 +47372,7 @@
         <v>4140</v>
       </c>
       <c r="M797" s="1" t="s">
-        <v>5687</v>
+        <v>5686</v>
       </c>
     </row>
     <row r="798" spans="1:8">
@@ -47410,13 +47405,13 @@
       </c>
       <c r="J798" s="1"/>
       <c r="K798" s="1" t="s">
-        <v>5688</v>
+        <v>5687</v>
       </c>
       <c r="L798" s="1" t="s">
         <v>3730</v>
       </c>
       <c r="M798" s="1" t="s">
-        <v>5689</v>
+        <v>5688</v>
       </c>
     </row>
     <row r="799" spans="1:8">
@@ -47449,13 +47444,13 @@
       </c>
       <c r="J799" s="1"/>
       <c r="K799" s="1" t="s">
-        <v>5690</v>
+        <v>5689</v>
       </c>
       <c r="L799" s="1" t="s">
         <v>3692</v>
       </c>
       <c r="M799" s="1" t="s">
-        <v>5691</v>
+        <v>5690</v>
       </c>
     </row>
     <row r="800" spans="1:8">
@@ -47484,17 +47479,17 @@
         <v>3542</v>
       </c>
       <c r="I800" s="1" t="s">
-        <v>4689</v>
+        <v>4688</v>
       </c>
       <c r="J800" s="1"/>
       <c r="K800" s="1" t="s">
-        <v>5692</v>
+        <v>5691</v>
       </c>
       <c r="L800" s="1" t="s">
         <v>3692</v>
       </c>
       <c r="M800" s="1" t="s">
-        <v>5693</v>
+        <v>5692</v>
       </c>
     </row>
     <row r="801" spans="1:8">
@@ -47523,17 +47518,17 @@
         <v>3547</v>
       </c>
       <c r="I801" s="1" t="s">
-        <v>5694</v>
+        <v>5693</v>
       </c>
       <c r="J801" s="1"/>
       <c r="K801" s="1" t="s">
-        <v>5695</v>
+        <v>5694</v>
       </c>
       <c r="L801" s="1" t="s">
         <v>3778</v>
       </c>
       <c r="M801" s="1" t="s">
-        <v>5696</v>
+        <v>5695</v>
       </c>
     </row>
     <row r="802" spans="1:8">
@@ -47566,13 +47561,13 @@
       </c>
       <c r="J802" s="1"/>
       <c r="K802" s="1" t="s">
-        <v>5697</v>
+        <v>5696</v>
       </c>
       <c r="L802" s="1" t="s">
         <v>3692</v>
       </c>
       <c r="M802" s="1" t="s">
-        <v>5698</v>
+        <v>5697</v>
       </c>
     </row>
     <row r="803" spans="1:8">
@@ -47601,17 +47596,17 @@
         <v>3557</v>
       </c>
       <c r="I803" s="1" t="s">
-        <v>5699</v>
+        <v>5698</v>
       </c>
       <c r="J803" s="1"/>
       <c r="K803" s="1" t="s">
-        <v>5700</v>
+        <v>5699</v>
       </c>
       <c r="L803" s="1" t="s">
         <v>3692</v>
       </c>
       <c r="M803" s="1" t="s">
-        <v>5701</v>
+        <v>5700</v>
       </c>
     </row>
     <row r="804" spans="1:8">
@@ -47644,13 +47639,13 @@
       </c>
       <c r="J804" s="1"/>
       <c r="K804" s="1" t="s">
-        <v>5702</v>
+        <v>5701</v>
       </c>
       <c r="L804" s="1" t="s">
         <v>3730</v>
       </c>
       <c r="M804" s="1" t="s">
-        <v>5703</v>
+        <v>5702</v>
       </c>
     </row>
     <row r="805" spans="1:8">
@@ -47683,13 +47678,13 @@
       </c>
       <c r="J805" s="1"/>
       <c r="K805" s="1" t="s">
-        <v>5704</v>
+        <v>5703</v>
       </c>
       <c r="L805" s="1" t="s">
         <v>3692</v>
       </c>
       <c r="M805" s="1" t="s">
-        <v>5705</v>
+        <v>5704</v>
       </c>
     </row>
     <row r="806" spans="1:8">
@@ -47722,13 +47717,13 @@
       </c>
       <c r="J806" s="1"/>
       <c r="K806" s="1" t="s">
-        <v>5706</v>
+        <v>5705</v>
       </c>
       <c r="L806" s="1" t="s">
         <v>3730</v>
       </c>
       <c r="M806" s="1" t="s">
-        <v>5707</v>
+        <v>5706</v>
       </c>
     </row>
     <row r="807" spans="1:8">
@@ -47757,17 +47752,17 @@
         <v>3566</v>
       </c>
       <c r="I807" s="1" t="s">
-        <v>4689</v>
+        <v>4688</v>
       </c>
       <c r="J807" s="1"/>
       <c r="K807" s="1" t="s">
-        <v>5708</v>
+        <v>5707</v>
       </c>
       <c r="L807" s="1" t="s">
         <v>3692</v>
       </c>
       <c r="M807" s="1" t="s">
-        <v>5709</v>
+        <v>5708</v>
       </c>
     </row>
     <row r="808" spans="1:8">
@@ -47800,13 +47795,13 @@
       </c>
       <c r="J808" s="1"/>
       <c r="K808" s="1" t="s">
-        <v>5710</v>
+        <v>5709</v>
       </c>
       <c r="L808" s="1" t="s">
         <v>3692</v>
       </c>
       <c r="M808" s="1" t="s">
-        <v>5711</v>
+        <v>5710</v>
       </c>
     </row>
     <row r="809" spans="1:8">
@@ -47835,17 +47830,17 @@
         <v>3580</v>
       </c>
       <c r="I809" s="1" t="s">
-        <v>5712</v>
+        <v>5711</v>
       </c>
       <c r="J809" s="1"/>
       <c r="K809" s="1" t="s">
-        <v>5713</v>
+        <v>5712</v>
       </c>
       <c r="L809" s="1" t="s">
         <v>3692</v>
       </c>
       <c r="M809" s="1" t="s">
-        <v>5714</v>
+        <v>5713</v>
       </c>
     </row>
     <row r="810" spans="1:8">
@@ -47882,7 +47877,7 @@
         <v>3654</v>
       </c>
       <c r="M810" s="1" t="s">
-        <v>5715</v>
+        <v>5714</v>
       </c>
     </row>
     <row r="811" spans="1:8">
@@ -47911,17 +47906,17 @@
         <v>3604</v>
       </c>
       <c r="I811" s="1" t="s">
-        <v>5554</v>
+        <v>5553</v>
       </c>
       <c r="J811" s="1"/>
       <c r="K811" s="1" t="s">
-        <v>5716</v>
+        <v>5715</v>
       </c>
       <c r="L811" s="1" t="s">
         <v>3631</v>
       </c>
       <c r="M811" s="1" t="s">
-        <v>5717</v>
+        <v>5716</v>
       </c>
     </row>
   </sheetData>

--- a/email-builder-output.xlsx
+++ b/email-builder-output.xlsx
@@ -8,6 +8,7 @@
   </bookViews>
   <sheets>
     <sheet name="DataMiner-spring-and-java.csv" sheetId="1" r:id="rId1"/>
+    <sheet name="Summary" r:id="rId6" sheetId="2"/>
   </sheets>
   <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10724" uniqueCount="5717">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10836" uniqueCount="5761">
   <si>
     <t>Full Name Displayed</t>
   </si>
@@ -17170,6 +17171,138 @@
   </si>
   <si>
     <t>Stephen_Hanek@homedepot.com</t>
+  </si>
+  <si>
+    <t>Total Found</t>
+  </si>
+  <si>
+    <t>ups.com</t>
+  </si>
+  <si>
+    <t>danaher.com</t>
+  </si>
+  <si>
+    <t>chicos.com</t>
+  </si>
+  <si>
+    <t>southernco.com</t>
+  </si>
+  <si>
+    <t>markelcorp.com</t>
+  </si>
+  <si>
+    <t>genworth.com</t>
+  </si>
+  <si>
+    <t>inovalon.com</t>
+  </si>
+  <si>
+    <t>sbgnet.com</t>
+  </si>
+  <si>
+    <t>hanloninvest.com</t>
+  </si>
+  <si>
+    <t>merck.com</t>
+  </si>
+  <si>
+    <t>nielsen.com</t>
+  </si>
+  <si>
+    <t>altisource.com</t>
+  </si>
+  <si>
+    <t>microstrategy.com</t>
+  </si>
+  <si>
+    <t>freedommortgage.com</t>
+  </si>
+  <si>
+    <t>masonite.com</t>
+  </si>
+  <si>
+    <t>autonation.com</t>
+  </si>
+  <si>
+    <t>astrazeneca.com</t>
+  </si>
+  <si>
+    <t>sykes.com</t>
+  </si>
+  <si>
+    <t>slhn.org</t>
+  </si>
+  <si>
+    <t>subaru.com</t>
+  </si>
+  <si>
+    <t>footballfanatics.com</t>
+  </si>
+  <si>
+    <t>carmax.com</t>
+  </si>
+  <si>
+    <t>bbandt.com</t>
+  </si>
+  <si>
+    <t>aflac.com</t>
+  </si>
+  <si>
+    <t>baycare.org</t>
+  </si>
+  <si>
+    <t>troweprice.com</t>
+  </si>
+  <si>
+    <t>vertexinc.com</t>
+  </si>
+  <si>
+    <t>iassoftware.com</t>
+  </si>
+  <si>
+    <t>tsys.com</t>
+  </si>
+  <si>
+    <t>carnival.com</t>
+  </si>
+  <si>
+    <t>darden.com</t>
+  </si>
+  <si>
+    <t>ahss.org</t>
+  </si>
+  <si>
+    <t>syniverse.com</t>
+  </si>
+  <si>
+    <t>nascar.com</t>
+  </si>
+  <si>
+    <t>wellcare.com</t>
+  </si>
+  <si>
+    <t>mohawkind.com</t>
+  </si>
+  <si>
+    <t>transcore.com</t>
+  </si>
+  <si>
+    <t>carecorenational.com</t>
+  </si>
+  <si>
+    <t>usa.dupont.com</t>
+  </si>
+  <si>
+    <t>ultimatesoftware.com</t>
+  </si>
+  <si>
+    <t>fticonsulting.com</t>
+  </si>
+  <si>
+    <t>benefitfocus.com</t>
+  </si>
+  <si>
+    <t>praintl.com</t>
   </si>
 </sst>
 </file>
@@ -47927,4 +48060,909 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="1" max="1" width="21.8984375" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="10.63671875" customWidth="true" bestFit="true"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>3608</v>
+      </c>
+      <c r="B1" t="s">
+        <v>5717</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>3692</v>
+      </c>
+      <c r="B2" t="n">
+        <v>135.0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>3730</v>
+      </c>
+      <c r="B3" t="n">
+        <v>58.0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>3631</v>
+      </c>
+      <c r="B4" t="n">
+        <v>44.0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>3664</v>
+      </c>
+      <c r="B5" t="n">
+        <v>37.0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>3738</v>
+      </c>
+      <c r="B6" t="n">
+        <v>35.0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>3654</v>
+      </c>
+      <c r="B7" t="n">
+        <v>35.0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>3778</v>
+      </c>
+      <c r="B8" t="n">
+        <v>35.0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>3809</v>
+      </c>
+      <c r="B9" t="n">
+        <v>29.0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>3675</v>
+      </c>
+      <c r="B10" t="n">
+        <v>29.0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>3711</v>
+      </c>
+      <c r="B11" t="n">
+        <v>22.0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>4013</v>
+      </c>
+      <c r="B12" t="n">
+        <v>19.0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>3715</v>
+      </c>
+      <c r="B13" t="n">
+        <v>19.0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>3751</v>
+      </c>
+      <c r="B14" t="n">
+        <v>17.0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>3942</v>
+      </c>
+      <c r="B15" t="n">
+        <v>16.0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>3798</v>
+      </c>
+      <c r="B16" t="n">
+        <v>13.0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>3986</v>
+      </c>
+      <c r="B17" t="n">
+        <v>12.0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>3650</v>
+      </c>
+      <c r="B18" t="n">
+        <v>10.0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>3772</v>
+      </c>
+      <c r="B19" t="n">
+        <v>10.0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>4675</v>
+      </c>
+      <c r="B20" t="n">
+        <v>10.0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>3979</v>
+      </c>
+      <c r="B21" t="n">
+        <v>9.0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>3965</v>
+      </c>
+      <c r="B22" t="n">
+        <v>9.0</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s">
+        <v>4140</v>
+      </c>
+      <c r="B23" t="n">
+        <v>9.0</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s">
+        <v>3699</v>
+      </c>
+      <c r="B24" t="n">
+        <v>7.0</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s">
+        <v>3793</v>
+      </c>
+      <c r="B25" t="n">
+        <v>7.0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s">
+        <v>4071</v>
+      </c>
+      <c r="B26" t="n">
+        <v>7.0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s">
+        <v>3616</v>
+      </c>
+      <c r="B27" t="n">
+        <v>6.0</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s">
+        <v>3734</v>
+      </c>
+      <c r="B28" t="n">
+        <v>6.0</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s">
+        <v>3612</v>
+      </c>
+      <c r="B29" t="n">
+        <v>6.0</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s">
+        <v>3702</v>
+      </c>
+      <c r="B30" t="n">
+        <v>6.0</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s">
+        <v>3620</v>
+      </c>
+      <c r="B31" t="n">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s">
+        <v>3627</v>
+      </c>
+      <c r="B32" t="n">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s">
+        <v>4075</v>
+      </c>
+      <c r="B33" t="n">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s">
+        <v>3745</v>
+      </c>
+      <c r="B34" t="n">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s">
+        <v>3846</v>
+      </c>
+      <c r="B35" t="n">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s">
+        <v>3755</v>
+      </c>
+      <c r="B36" t="n">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s">
+        <v>3719</v>
+      </c>
+      <c r="B37" t="n">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s">
+        <v>4424</v>
+      </c>
+      <c r="B38" t="n">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s">
+        <v>3923</v>
+      </c>
+      <c r="B39" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s">
+        <v>4195</v>
+      </c>
+      <c r="B40" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s">
+        <v>3916</v>
+      </c>
+      <c r="B41" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s">
+        <v>3969</v>
+      </c>
+      <c r="B42" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="s">
+        <v>4427</v>
+      </c>
+      <c r="B43" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="s">
+        <v>4188</v>
+      </c>
+      <c r="B44" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="s">
+        <v>3759</v>
+      </c>
+      <c r="B45" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="s">
+        <v>4713</v>
+      </c>
+      <c r="B46" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="s">
+        <v>3643</v>
+      </c>
+      <c r="B47" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="s">
+        <v>4433</v>
+      </c>
+      <c r="B48" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="s">
+        <v>4394</v>
+      </c>
+      <c r="B49" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="s">
+        <v>4225</v>
+      </c>
+      <c r="B50" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="s">
+        <v>4390</v>
+      </c>
+      <c r="B51" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="s">
+        <v>5061</v>
+      </c>
+      <c r="B52" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="s">
+        <v>4103</v>
+      </c>
+      <c r="B53" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="s">
+        <v>4338</v>
+      </c>
+      <c r="B54" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="s">
+        <v>4402</v>
+      </c>
+      <c r="B55" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="s">
+        <v>3910</v>
+      </c>
+      <c r="B56" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="s">
+        <v>4569</v>
+      </c>
+      <c r="B57" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="s">
+        <v>4064</v>
+      </c>
+      <c r="B58" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="s">
+        <v>5022</v>
+      </c>
+      <c r="B59" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="s">
+        <v>4541</v>
+      </c>
+      <c r="B60" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="s">
+        <v>5076</v>
+      </c>
+      <c r="B61" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="s">
+        <v>5125</v>
+      </c>
+      <c r="B62" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="s">
+        <v>5103</v>
+      </c>
+      <c r="B63" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="s">
+        <v>5030</v>
+      </c>
+      <c r="B64" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="s">
+        <v>5240</v>
+      </c>
+      <c r="B65" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="s">
+        <v>4454</v>
+      </c>
+      <c r="B66" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="s">
+        <v>4777</v>
+      </c>
+      <c r="B67" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="s">
+        <v>3824</v>
+      </c>
+      <c r="B68" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="s">
+        <v>5718</v>
+      </c>
+      <c r="B69" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="s">
+        <v>5719</v>
+      </c>
+      <c r="B70" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="s">
+        <v>5720</v>
+      </c>
+      <c r="B71" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="s">
+        <v>5721</v>
+      </c>
+      <c r="B72" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="s">
+        <v>5722</v>
+      </c>
+      <c r="B73" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="s">
+        <v>5723</v>
+      </c>
+      <c r="B74" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="s">
+        <v>5724</v>
+      </c>
+      <c r="B75" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="s">
+        <v>5725</v>
+      </c>
+      <c r="B76" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="s">
+        <v>5726</v>
+      </c>
+      <c r="B77" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="s">
+        <v>5727</v>
+      </c>
+      <c r="B78" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="s">
+        <v>5728</v>
+      </c>
+      <c r="B79" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="s">
+        <v>5729</v>
+      </c>
+      <c r="B80" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="s">
+        <v>5730</v>
+      </c>
+      <c r="B81" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="s">
+        <v>5731</v>
+      </c>
+      <c r="B82" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="s">
+        <v>5732</v>
+      </c>
+      <c r="B83" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="s">
+        <v>5733</v>
+      </c>
+      <c r="B84" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="s">
+        <v>5734</v>
+      </c>
+      <c r="B85" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="s">
+        <v>5735</v>
+      </c>
+      <c r="B86" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="s">
+        <v>5736</v>
+      </c>
+      <c r="B87" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="s">
+        <v>5737</v>
+      </c>
+      <c r="B88" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="s">
+        <v>5738</v>
+      </c>
+      <c r="B89" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="s">
+        <v>5739</v>
+      </c>
+      <c r="B90" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="s">
+        <v>5740</v>
+      </c>
+      <c r="B91" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="s">
+        <v>5741</v>
+      </c>
+      <c r="B92" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="s">
+        <v>5742</v>
+      </c>
+      <c r="B93" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="s">
+        <v>5743</v>
+      </c>
+      <c r="B94" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="s">
+        <v>5744</v>
+      </c>
+      <c r="B95" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="s">
+        <v>5745</v>
+      </c>
+      <c r="B96" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="s">
+        <v>5746</v>
+      </c>
+      <c r="B97" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="s">
+        <v>5747</v>
+      </c>
+      <c r="B98" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="s">
+        <v>5748</v>
+      </c>
+      <c r="B99" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="s">
+        <v>5749</v>
+      </c>
+      <c r="B100" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="s">
+        <v>5750</v>
+      </c>
+      <c r="B101" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="s">
+        <v>5751</v>
+      </c>
+      <c r="B102" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="s">
+        <v>5752</v>
+      </c>
+      <c r="B103" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="s">
+        <v>5753</v>
+      </c>
+      <c r="B104" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="s">
+        <v>5754</v>
+      </c>
+      <c r="B105" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="s">
+        <v>5755</v>
+      </c>
+      <c r="B106" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="s">
+        <v>5756</v>
+      </c>
+      <c r="B107" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="s">
+        <v>5757</v>
+      </c>
+      <c r="B108" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="s">
+        <v>5758</v>
+      </c>
+      <c r="B109" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="s">
+        <v>5759</v>
+      </c>
+      <c r="B110" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="s">
+        <v>5760</v>
+      </c>
+      <c r="B111" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
 </file>
--- a/email-builder-output.xlsx
+++ b/email-builder-output.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10836" uniqueCount="5761">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10838" uniqueCount="5763">
   <si>
     <t>Full Name Displayed</t>
   </si>
@@ -17191,6 +17191,9 @@
     <t>markelcorp.com</t>
   </si>
   <si>
+    <t>vw.com</t>
+  </si>
+  <si>
     <t>genworth.com</t>
   </si>
   <si>
@@ -17246,6 +17249,9 @@
   </si>
   <si>
     <t>aflac.com</t>
+  </si>
+  <si>
+    <t>audiusa.com</t>
   </si>
   <si>
     <t>baycare.org</t>
@@ -48962,6 +48968,22 @@
         <v>0.0</v>
       </c>
     </row>
+    <row r="112">
+      <c r="A112" t="s">
+        <v>5761</v>
+      </c>
+      <c r="B112" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="s">
+        <v>5762</v>
+      </c>
+      <c r="B113" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/email-builder-output.xlsx
+++ b/email-builder-output.xlsx
@@ -11,6 +11,7 @@
     <sheet name="Named Accounts" sheetId="2" r:id="rId2"/>
     <sheet name="Email Types" sheetId="3" r:id="rId3"/>
     <sheet name="Summary" r:id="rId8" sheetId="4"/>
+    <sheet name="Marketo" r:id="rId9" sheetId="5"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Named Accounts'!$A$6:$F$138</definedName>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11244" uniqueCount="6020">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11264" uniqueCount="6040">
   <si>
     <t>Full Name Displayed</t>
   </si>
@@ -18085,6 +18086,66 @@
   </si>
   <si>
     <t>Total Found</t>
+  </si>
+  <si>
+    <t>First Name</t>
+  </si>
+  <si>
+    <t>Last Name</t>
+  </si>
+  <si>
+    <t>Company Name</t>
+  </si>
+  <si>
+    <t>Email Address</t>
+  </si>
+  <si>
+    <t>Phone Number</t>
+  </si>
+  <si>
+    <t>Job Title</t>
+  </si>
+  <si>
+    <t>City</t>
+  </si>
+  <si>
+    <t>State</t>
+  </si>
+  <si>
+    <t>Postal Code</t>
+  </si>
+  <si>
+    <t>Country</t>
+  </si>
+  <si>
+    <t>Original Lead Source Description</t>
+  </si>
+  <si>
+    <t>Original Lead Source</t>
+  </si>
+  <si>
+    <t>Most Recent Lead Source</t>
+  </si>
+  <si>
+    <t>Most Recent Lead Source Description</t>
+  </si>
+  <si>
+    <t>Lead Action</t>
+  </si>
+  <si>
+    <t>Agile</t>
+  </si>
+  <si>
+    <t>Product: Data</t>
+  </si>
+  <si>
+    <t>PaaS</t>
+  </si>
+  <si>
+    <t>Labs</t>
+  </si>
+  <si>
+    <t>PWS</t>
   </si>
 </sst>
 </file>
@@ -52331,4 +52392,101 @@
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="1" max="1" width="9.765625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="9.48828125" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="13.921875" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="12.359375" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="13.26171875" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="7.6953125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="4.04296875" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="5.15625" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="10.51953125" customWidth="true" bestFit="true"/>
+    <col min="10" max="10" width="7.4375" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="27.3515625" customWidth="true" bestFit="true"/>
+    <col min="12" max="12" width="17.6015625" customWidth="true" bestFit="true"/>
+    <col min="13" max="13" width="21.56640625" customWidth="true" bestFit="true"/>
+    <col min="14" max="14" width="31.3125" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="10.4765625" customWidth="true" bestFit="true"/>
+    <col min="16" max="16" width="4.953125" customWidth="true" bestFit="true"/>
+    <col min="17" max="17" width="12.1484375" customWidth="true" bestFit="true"/>
+    <col min="18" max="18" width="4.8125" customWidth="true" bestFit="true"/>
+    <col min="19" max="19" width="4.57421875" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="4.67578125" customWidth="true" bestFit="true"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>6020</v>
+      </c>
+      <c r="B1" t="s">
+        <v>6021</v>
+      </c>
+      <c r="C1" t="s">
+        <v>6022</v>
+      </c>
+      <c r="D1" t="s">
+        <v>6023</v>
+      </c>
+      <c r="E1" t="s">
+        <v>6024</v>
+      </c>
+      <c r="F1" t="s">
+        <v>6025</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6026</v>
+      </c>
+      <c r="H1" t="s">
+        <v>6027</v>
+      </c>
+      <c r="I1" t="s">
+        <v>6028</v>
+      </c>
+      <c r="J1" t="s">
+        <v>6029</v>
+      </c>
+      <c r="K1" t="s">
+        <v>6030</v>
+      </c>
+      <c r="L1" t="s">
+        <v>6031</v>
+      </c>
+      <c r="M1" t="s">
+        <v>6032</v>
+      </c>
+      <c r="N1" t="s">
+        <v>6033</v>
+      </c>
+      <c r="O1" t="s">
+        <v>6034</v>
+      </c>
+      <c r="P1" t="s">
+        <v>6035</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>6036</v>
+      </c>
+      <c r="R1" t="s">
+        <v>6037</v>
+      </c>
+      <c r="S1" t="s">
+        <v>6038</v>
+      </c>
+      <c r="T1" t="s">
+        <v>6039</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
 </file>